--- a/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="460" windowWidth="37580" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="465" windowWidth="37575" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑3" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="任务细分" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑3!$A$13:$AR$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑3!$A$13:$AR$88</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="348">
   <si>
     <t>分类</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -225,19 +220,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>副本结算功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>功能项</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-  </si>
-  <si>
-    <t>对局掉落表现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
@@ -286,112 +273,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>胖子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>社交</t>
+  </si>
+  <si>
+    <t>邮箱-主要用于系统发信</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>疲劳值</t>
+  </si>
+  <si>
+    <t>文生</t>
+  </si>
+  <si>
+    <t>帅帅</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>小珍</t>
+  </si>
+  <si>
     <t>xw</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>胖子</t>
+    <t>宠物界面（包括上阵宠物选择，各个坑接口）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天任务内容更新（修改成新版本任务系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-  </si>
-  <si>
-    <t>道具</t>
-  </si>
-  <si>
-    <t>商店文档（商城、npc商店）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
-  </si>
-  <si>
-    <t>邮箱-主要用于系统发信</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>疲劳值</t>
-  </si>
-  <si>
-    <t>文生</t>
-  </si>
-  <si>
-    <t>帅帅</t>
-  </si>
-  <si>
-    <t>ts</t>
-  </si>
-  <si>
-    <t>宠物</t>
-  </si>
-  <si>
-    <t>小珍</t>
-  </si>
-  <si>
-    <t>xw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面（包括上阵宠物选择，各个坑接口）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔老师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7天任务内容更新（修改成新版本任务系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态战力变化模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本时间，难度调整模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔内容设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪姬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友功能设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -410,10 +357,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>策划文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>三方前</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -422,10 +365,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>策划文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>封文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -463,10 +402,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2）测试只可以在分支提交代码？主干提交需要交给程序处理？</t>
-  </si>
-  <si>
-    <t>产品原型制作-功能，内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第一次开三方之后开始进行</t>
@@ -1150,13 +1085,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>对局</t>
-    <rPh sb="0" eb="1">
-      <t>dui'ju</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>任务系统</t>
     <rPh sb="0" eb="1">
       <t>ren'wu</t>
@@ -1167,10 +1095,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>程序开发规范和约定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ts</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1202,9 +1126,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>命名规范，目录结构，资源存放规则</t>
-  </si>
-  <si>
     <t>其他</t>
     <rPh sb="0" eb="1">
       <t>qi't</t>
@@ -1365,10 +1286,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>副本选择（副本信息）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>副本选择、掉落表现及结算，道具系统，任务系统</t>
     <rPh sb="0" eb="1">
       <t>fu'b</t>
@@ -1426,19 +1343,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>xiang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术风格确认</t>
-    <rPh sb="0" eb="1">
-      <t>mei'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>feng'ge</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>que'ren</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2174,12 +2078,342 @@
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>音乐音效逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI层级逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本设计规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1提交Qc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字版原型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示版原型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名规范，目录结构，资源存放规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品原型制作-功能，内容（已拆分到上面）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结，分类day3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会考虑增加宠物互动场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本对局配置表拆分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本对局间过渡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置表修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择UI layout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择ui功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本信息UI layout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本信息UI功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务列表UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务奖励UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务-服务器联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择-服务器-副本信息同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择-服务器-扫荡结果同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择-服务器-副本重置次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择-服务器-副本开启条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本信息二级弹出UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本信息扫荡结果界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算-UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算-副本翻牌UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算-副本结果同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算-副本结算服务器联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择（副本信息）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本层逻辑，对局掉落表现，对局间承接关系表现，对局胜利。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发代码规范和约定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录结构整理，权限限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术风格确认-角色</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术风格确认-UI</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术风格确认-场景</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色-原画*N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色-3D*N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色-3D-动作*N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景-原画*N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算-美术资源-UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择-美术资源-UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统-美术资源-UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔内容设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态战力变化模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本时间，难度调整模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店文档（商城、npc商店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友功能设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2296,7 +2530,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2371,6 +2606,13 @@
       <color rgb="FF0432FF"/>
       <name val="Microsoft YaHei"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2629,7 +2871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2821,91 +3063,35 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="158">
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -2987,152 +3173,85 @@
     <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -3211,7 +3330,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3265,7 +3425,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3286,40 +3446,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3709,47 +3836,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AR88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="6" customWidth="1"/>
     <col min="3" max="3" width="6" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="5"/>
-    <col min="7" max="7" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="5"/>
+    <col min="7" max="7" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="5" customWidth="1"/>
     <col min="10" max="11" width="18" style="5" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" style="5" customWidth="1"/>
     <col min="13" max="13" width="17" style="5" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" style="5" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" style="5"/>
-    <col min="18" max="27" width="8.85546875" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="8.7109375" style="5"/>
+    <col min="14" max="15" width="8.88671875" style="5" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="5"/>
+    <col min="18" max="27" width="8.88671875" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="18">
       <c r="F1" s="1"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:44" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="52" customFormat="1" ht="18">
       <c r="B2" s="52" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C2" s="53"/>
       <c r="F2" s="52" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G2" s="54"/>
       <c r="H2" s="55"/>
@@ -3759,22 +3890,22 @@
       <c r="R2" s="56"/>
       <c r="S2" s="56"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="18">
       <c r="B3" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="4" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I3" s="35"/>
       <c r="P3" s="7"/>
@@ -3782,20 +3913,20 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="18">
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D4" s="4"/>
       <c r="F4" s="35"/>
       <c r="G4" s="4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="I4" s="35"/>
       <c r="P4" s="8"/>
@@ -3803,18 +3934,18 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="18">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D5" s="4"/>
       <c r="F5" s="35"/>
       <c r="G5" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="I5" s="35"/>
       <c r="P5" s="8"/>
@@ -3822,18 +3953,18 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="18">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6" s="35"/>
       <c r="G6" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I6" s="35"/>
       <c r="P6" s="8"/>
@@ -3841,63 +3972,63 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="18">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4"/>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="18">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="18">
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="18">
       <c r="D10" s="4"/>
       <c r="F10" s="7"/>
       <c r="P10" s="7"/>
@@ -3905,7 +4036,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44">
       <c r="D11" s="6"/>
       <c r="F11" s="7"/>
       <c r="P11" s="7"/>
@@ -3913,7 +4044,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3922,23 +4053,23 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="12" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -3965,9 +4096,9 @@
       <c r="AK12" s="14"/>
       <c r="AL12" s="15"/>
     </row>
-    <row r="13" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" s="6" customFormat="1">
       <c r="A13" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>0</v>
@@ -3988,25 +4119,25 @@
         <v>4</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>6</v>
@@ -4087,22 +4218,22 @@
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" ht="18">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E14" s="58">
         <v>1</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
@@ -4136,25 +4267,27 @@
       <c r="AK14" s="21"/>
       <c r="AL14" s="21"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" ht="18">
       <c r="A15" s="18"/>
       <c r="B15" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E15" s="60">
         <v>1</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="H15" s="60" t="s">
+        <v>288</v>
+      </c>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -4186,70 +4319,52 @@
       <c r="AK15" s="25"/>
       <c r="AL15" s="21"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" ht="18">
       <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>278</v>
       </c>
       <c r="E16" s="60">
         <v>1</v>
       </c>
-      <c r="F16" s="60" t="s">
-        <v>58</v>
-      </c>
+      <c r="F16" s="60"/>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
       <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
+      <c r="J16" s="60" t="s">
+        <v>280</v>
+      </c>
       <c r="K16" s="60"/>
       <c r="L16" s="60"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="19" t="s">
-        <v>37</v>
+      <c r="N16" s="19">
+        <v>1</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>37</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
-      <c r="T16" s="19">
-        <v>3</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="V16" s="27">
-        <v>8</v>
-      </c>
-      <c r="W16" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
-      <c r="AB16" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AD16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE16" s="20"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
@@ -4258,69 +4373,51 @@
       <c r="AK16" s="25"/>
       <c r="AL16" s="21"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="18">
       <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>263</v>
+        <v>57</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>282</v>
       </c>
       <c r="E17" s="60">
         <v>1</v>
       </c>
-      <c r="F17" s="60" t="s">
-        <v>58</v>
-      </c>
+      <c r="F17" s="60"/>
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
       <c r="I17" s="60"/>
       <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
+      <c r="K17" s="60" t="s">
+        <v>280</v>
+      </c>
       <c r="L17" s="60"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>0.25</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
-      <c r="T17" s="27">
-        <v>3</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V17" s="19">
-        <v>1</v>
-      </c>
-      <c r="W17" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
-      <c r="AB17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AC17" s="19">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
@@ -4330,55 +4427,71 @@
       <c r="AK17" s="25"/>
       <c r="AL17" s="21"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="18">
       <c r="A18" s="18"/>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="C18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="60">
         <v>1</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="60"/>
       <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="60" t="s">
+        <v>300</v>
+      </c>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="19"/>
-      <c r="N18" s="19">
-        <v>1</v>
+      <c r="N18" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q18" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="19">
-        <v>1</v>
-      </c>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="27">
+        <v>8</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
+      <c r="AB18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="AE18" s="20"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
@@ -4388,21 +4501,23 @@
       <c r="AK18" s="25"/>
       <c r="AL18" s="21"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="18">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>243</v>
+      <c r="C19" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>334</v>
       </c>
       <c r="E19" s="60">
         <v>1</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="60" t="s">
+        <v>56</v>
+      </c>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
       <c r="I19" s="60"/>
@@ -4410,24 +4525,24 @@
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="20"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
@@ -4436,70 +4551,50 @@
       <c r="AK19" s="25"/>
       <c r="AL19" s="21"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="18">
       <c r="A20" s="18"/>
-      <c r="B20" s="26" t="s">
-        <v>48</v>
+      <c r="B20" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>228</v>
+        <v>44</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>311</v>
       </c>
       <c r="E20" s="60">
         <v>1</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+      <c r="J20" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="O20" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="P20" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="72">
-        <v>6</v>
-      </c>
-      <c r="U20" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="V20" s="72">
-        <v>12</v>
-      </c>
-      <c r="W20" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70">
-        <v>1.5</v>
-      </c>
-      <c r="AC20" s="70">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="20"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
@@ -4508,71 +4603,50 @@
       <c r="AK20" s="25"/>
       <c r="AL20" s="21"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="18">
       <c r="A21" s="18"/>
-      <c r="B21" s="26" t="s">
-        <v>50</v>
+      <c r="B21" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>225</v>
+        <v>44</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>312</v>
       </c>
       <c r="E21" s="60">
         <v>1</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
+      <c r="J21" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="68">
-        <v>3</v>
-      </c>
-      <c r="O21" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="68">
-        <f>N21*0.2</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="Q21" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68">
-        <v>12</v>
-      </c>
-      <c r="U21" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="68">
-        <v>18</v>
-      </c>
-      <c r="W21" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68">
-        <v>1.5</v>
-      </c>
-      <c r="AC21" s="68">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="20"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
@@ -4581,76 +4655,50 @@
       <c r="AK21" s="25"/>
       <c r="AL21" s="21"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="18">
       <c r="A22" s="18"/>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>226</v>
+        <v>44</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>313</v>
       </c>
       <c r="E22" s="60">
         <v>1</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="60" t="s">
+        <v>56</v>
+      </c>
       <c r="G22" s="60"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
+      <c r="J22" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="68">
-        <v>2</v>
-      </c>
-      <c r="O22" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="68">
-        <f>N22*0.2</f>
-        <v>0.4</v>
-      </c>
-      <c r="Q22" s="68">
-        <v>0.75</v>
-      </c>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68">
-        <v>6</v>
-      </c>
-      <c r="U22" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" s="68">
-        <v>6</v>
-      </c>
-      <c r="W22" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="Z22" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="AA22" s="68">
-        <f>Y22*0.25</f>
-        <v>0.125</v>
-      </c>
-      <c r="AB22" s="68">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="68">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="20"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
@@ -4659,27 +4707,29 @@
       <c r="AK22" s="25"/>
       <c r="AL22" s="21"/>
     </row>
-    <row r="23" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="18">
       <c r="A23" s="18"/>
-      <c r="B23" s="26" t="s">
-        <v>54</v>
+      <c r="B23" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" s="50">
+        <v>44</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="60">
         <v>1</v>
       </c>
       <c r="F23" s="60" t="s">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="60"/>
       <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
+      <c r="J23" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="19"/>
@@ -4691,7 +4741,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
+      <c r="V23" s="27"/>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
       <c r="Y23" s="19"/>
@@ -4709,46 +4759,72 @@
       <c r="AK23" s="25"/>
       <c r="AL23" s="21"/>
     </row>
-    <row r="24" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="18">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="50">
+        <v>44</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="60">
         <v>1</v>
       </c>
-      <c r="F24" s="60"/>
+      <c r="F24" s="60" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="H24" s="60" t="s">
+        <v>300</v>
+      </c>
       <c r="I24" s="60"/>
       <c r="J24" s="60"/>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="N24" s="19">
+        <v>2</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0.25</v>
+      </c>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
+      <c r="T24" s="27">
+        <v>3</v>
+      </c>
+      <c r="U24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="19">
+        <v>1</v>
+      </c>
+      <c r="W24" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="X24" s="19"/>
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="20"/>
+      <c r="AB24" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AC24" s="19">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
@@ -4757,22 +4833,22 @@
       <c r="AK24" s="25"/>
       <c r="AL24" s="21"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="18">
       <c r="A25" s="18"/>
-      <c r="B25" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>240</v>
+      <c r="B25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>335</v>
       </c>
       <c r="E25" s="60">
         <v>1</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
@@ -4789,7 +4865,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
+      <c r="V25" s="27"/>
       <c r="W25" s="19"/>
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
@@ -4798,34 +4874,36 @@
       <c r="AB25" s="19"/>
       <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
+      <c r="AE25" s="20"/>
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
       <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="21"/>
+    </row>
+    <row r="26" spans="1:38" ht="18">
       <c r="A26" s="18"/>
-      <c r="B26" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>246</v>
+      <c r="B26" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>295</v>
       </c>
       <c r="E26" s="60">
         <v>1</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="H26" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="I26" s="60"/>
       <c r="J26" s="60"/>
       <c r="K26" s="60"/>
@@ -4837,7 +4915,7 @@
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
@@ -4851,27 +4929,33 @@
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
-      <c r="AH26" s="19">
-        <v>3</v>
-      </c>
-      <c r="AI26" s="19">
-        <v>4</v>
-      </c>
-      <c r="AJ26" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="21"/>
+    </row>
+    <row r="27" spans="1:38" ht="18">
       <c r="A27" s="18"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="B27" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="60">
+        <v>1</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>56</v>
+      </c>
       <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="H27" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="I27" s="60"/>
       <c r="J27" s="60"/>
       <c r="K27" s="60"/>
@@ -4883,7 +4967,7 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
+      <c r="T27" s="27"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
@@ -4899,29 +4983,31 @@
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="21"/>
+    </row>
+    <row r="28" spans="1:38" ht="18">
       <c r="A28" s="18"/>
-      <c r="B28" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>271</v>
+      <c r="B28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>297</v>
       </c>
       <c r="E28" s="60">
         <v>1</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="H28" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="I28" s="60"/>
       <c r="J28" s="60"/>
       <c r="K28" s="60"/>
@@ -4933,7 +5019,7 @@
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="27"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
@@ -4949,30 +5035,32 @@
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="21"/>
+    </row>
+    <row r="29" spans="1:38" ht="18">
       <c r="A29" s="18"/>
-      <c r="B29" s="26" t="s">
-        <v>54</v>
+      <c r="B29" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>298</v>
       </c>
       <c r="E29" s="60">
         <v>1</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G29" s="60"/>
       <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
@@ -4983,7 +5071,7 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="27"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
@@ -4994,7 +5082,7 @@
       <c r="AB29" s="19"/>
       <c r="AC29" s="19"/>
       <c r="AD29" s="19"/>
-      <c r="AE29" s="20"/>
+      <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
@@ -5003,26 +5091,28 @@
       <c r="AK29" s="25"/>
       <c r="AL29" s="21"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="18">
       <c r="A30" s="18"/>
-      <c r="B30" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>239</v>
+      <c r="B30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="E30" s="60">
         <v>1</v>
       </c>
       <c r="F30" s="60" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="J30" s="60"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
@@ -5033,7 +5123,7 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="27"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
@@ -5049,41 +5139,43 @@
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="19"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="21"/>
+    </row>
+    <row r="31" spans="1:38" ht="18">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="E31" s="18">
+        <v>29</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="E31" s="60">
         <v>1</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>262</v>
+      <c r="F31" s="60" t="s">
+        <v>56</v>
       </c>
       <c r="G31" s="60"/>
       <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="J31" s="60"/>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
-      <c r="O31" s="26"/>
+      <c r="O31" s="23"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
+      <c r="T31" s="27"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
@@ -5094,7 +5186,7 @@
       <c r="AB31" s="19"/>
       <c r="AC31" s="19"/>
       <c r="AD31" s="19"/>
-      <c r="AE31" s="20"/>
+      <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
@@ -5103,37 +5195,39 @@
       <c r="AK31" s="25"/>
       <c r="AL31" s="21"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="18">
       <c r="A32" s="18"/>
       <c r="B32" s="19" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="E32" s="50">
+        <v>47</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="E32" s="60">
         <v>1</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="J32" s="60"/>
       <c r="K32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="26"/>
+      <c r="O32" s="23"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
+      <c r="T32" s="27"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
@@ -5144,7 +5238,7 @@
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
-      <c r="AE32" s="20"/>
+      <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
@@ -5153,52 +5247,42 @@
       <c r="AK32" s="25"/>
       <c r="AL32" s="21"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="18">
       <c r="A33" s="18"/>
-      <c r="B33" s="26" t="s">
-        <v>66</v>
+      <c r="B33" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="18">
-        <v>2</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>100</v>
+        <v>47</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="60">
+        <v>1</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>56</v>
       </c>
       <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="H33" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="I33" s="60"/>
       <c r="J33" s="60"/>
       <c r="K33" s="60"/>
-      <c r="L33" s="57"/>
+      <c r="L33" s="60"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="19">
-        <v>4</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="P33" s="19">
-        <v>0.4</v>
-      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="19">
-        <v>2</v>
-      </c>
+      <c r="T33" s="27"/>
       <c r="U33" s="19"/>
-      <c r="V33" s="19">
-        <v>1</v>
-      </c>
-      <c r="W33" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
       <c r="X33" s="19"/>
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
@@ -5206,157 +5290,110 @@
       <c r="AB33" s="19"/>
       <c r="AC33" s="19"/>
       <c r="AD33" s="19"/>
-      <c r="AE33" s="20"/>
+      <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="21"/>
+    </row>
+    <row r="34" spans="1:38" ht="18">
       <c r="A34" s="18"/>
-      <c r="B34" s="26" t="s">
-        <v>66</v>
+      <c r="B34" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="18">
-        <v>2</v>
-      </c>
-      <c r="F34" s="18"/>
+        <v>306</v>
+      </c>
+      <c r="E34" s="60">
+        <v>1</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>56</v>
+      </c>
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="J34" s="60"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="57"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
       <c r="M34" s="19"/>
-      <c r="N34" s="19">
-        <v>2</v>
-      </c>
-      <c r="O34" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="P34" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="Q34" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="R34" s="19">
-        <v>1</v>
-      </c>
-      <c r="S34" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="T34" s="19">
-        <v>1</v>
-      </c>
-      <c r="U34" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="V34" s="19">
-        <v>1</v>
-      </c>
-      <c r="W34" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
       <c r="X34" s="19"/>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="19"/>
       <c r="AC34" s="19"/>
-      <c r="AD34" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AE34" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="AF34" s="19" t="s">
-        <v>75</v>
-      </c>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="21"/>
+    </row>
+    <row r="35" spans="1:38" ht="18">
       <c r="A35" s="18"/>
-      <c r="B35" s="26" t="s">
-        <v>42</v>
+      <c r="B35" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="E35" s="60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="60"/>
       <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
+      <c r="H35" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="I35" s="60"/>
       <c r="J35" s="60"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="O35" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70">
-        <v>0.25</v>
-      </c>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70">
-        <v>4</v>
-      </c>
-      <c r="U35" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="V35" s="72">
-        <v>1</v>
-      </c>
-      <c r="W35" s="70" t="s">
-        <v>251</v>
-      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
-      <c r="AA35" s="70">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="70">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="73">
-        <f t="shared" ref="AC35:AC36" si="0">AA35*0.25</f>
-        <v>0.25</v>
-      </c>
-      <c r="AD35" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="AE35" s="70">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="70" t="s">
-        <v>252</v>
-      </c>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
@@ -5364,73 +5401,49 @@
       <c r="AK35" s="25"/>
       <c r="AL35" s="21"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="18">
       <c r="A36" s="18"/>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="E36" s="60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
+      <c r="H36" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="I36" s="60"/>
       <c r="J36" s="60"/>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="19"/>
-      <c r="N36" s="70">
-        <v>1</v>
-      </c>
-      <c r="O36" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="P36" s="70">
-        <f>N36*0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="Q36" s="70">
-        <v>0.25</v>
-      </c>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="70">
-        <v>2</v>
-      </c>
-      <c r="U36" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
       <c r="X36" s="19"/>
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
-      <c r="AA36" s="70">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="70">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="73">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="AD36" s="70">
-        <v>0.25</v>
-      </c>
-      <c r="AE36" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="AF36" s="70" t="s">
-        <v>254</v>
-      </c>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
@@ -5438,722 +5451,834 @@
       <c r="AK36" s="25"/>
       <c r="AL36" s="21"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="18">
       <c r="A37" s="18"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="E37" s="58">
-        <v>2</v>
-      </c>
-      <c r="F37" s="50"/>
+        <v>47</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="E37" s="60">
+        <v>1</v>
+      </c>
+      <c r="F37" s="60"/>
       <c r="G37" s="60"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" s="60"/>
       <c r="M37" s="19"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="70"/>
-      <c r="S37" s="70"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="70"/>
-      <c r="V37" s="76">
-        <v>3</v>
-      </c>
-      <c r="W37" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="X37" s="20" t="s">
-        <v>259</v>
-      </c>
+      <c r="N37" s="19"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
-      <c r="AA37" s="70"/>
-      <c r="AB37" s="70"/>
-      <c r="AC37" s="70"/>
-      <c r="AD37" s="70"/>
-      <c r="AE37" s="70"/>
-      <c r="AF37" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="25"/>
       <c r="AL37" s="21"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="18">
       <c r="A38" s="18"/>
       <c r="B38" s="19" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+        <v>47</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" s="60">
+        <v>1</v>
+      </c>
+      <c r="F38" s="60"/>
       <c r="G38" s="60"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="L38" s="60"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="19"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="21"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="24"/>
+      <c r="AK38" s="25"/>
       <c r="AL38" s="21"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="15.75" customHeight="1">
       <c r="A39" s="18"/>
       <c r="B39" s="19" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+        <v>47</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="60">
+        <v>1</v>
+      </c>
+      <c r="F39" s="60"/>
       <c r="G39" s="60"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
       <c r="T39" s="19"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="21"/>
-      <c r="AJ39" s="21"/>
-      <c r="AK39" s="21"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="25"/>
       <c r="AL39" s="21"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="33">
       <c r="A40" s="18"/>
-      <c r="B40" s="19" t="s">
-        <v>55</v>
+      <c r="B40" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
+        <v>151</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="E40" s="60">
+        <v>1</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>317</v>
+      </c>
       <c r="G40" s="60"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="21"/>
-      <c r="AK40" s="21"/>
-      <c r="AL40" s="30"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="L40" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19">
+        <v>4</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19">
+        <v>1</v>
+      </c>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="21"/>
+    </row>
+    <row r="41" spans="1:38">
       <c r="A41" s="18"/>
       <c r="B41" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
+        <v>29</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="60">
+        <v>1</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>318</v>
+      </c>
       <c r="G41" s="60"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
-      <c r="AJ41" s="21"/>
-      <c r="AK41" s="21"/>
-      <c r="AL41" s="30"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="L41" s="60"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="68">
+        <v>2</v>
+      </c>
+      <c r="O41" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="25"/>
+      <c r="AL41" s="21"/>
+    </row>
+    <row r="42" spans="1:38">
       <c r="A42" s="18"/>
-      <c r="B42" s="19" t="s">
-        <v>55</v>
+      <c r="B42" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
+        <v>178</v>
+      </c>
+      <c r="D42" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" s="60">
+        <v>1</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>56</v>
+      </c>
       <c r="G42" s="60"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="21"/>
-      <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="21"/>
-      <c r="AJ42" s="21"/>
-      <c r="AK42" s="21"/>
-      <c r="AL42" s="30"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="O42" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="P42" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q42" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="72">
+        <v>6</v>
+      </c>
+      <c r="U42" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="V42" s="72">
+        <v>12</v>
+      </c>
+      <c r="W42" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="AC42" s="70">
+        <v>4</v>
+      </c>
+      <c r="AD42" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="24"/>
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="21"/>
+    </row>
+    <row r="43" spans="1:38">
       <c r="A43" s="18"/>
-      <c r="B43" s="19" t="s">
-        <v>95</v>
+      <c r="B43" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="21"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="21"/>
-      <c r="AK43" s="21"/>
-      <c r="AL43" s="30"/>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D43" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="E43" s="60">
+        <v>1</v>
+      </c>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="70"/>
+      <c r="Y43" s="70"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="24"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="21"/>
+    </row>
+    <row r="44" spans="1:38">
       <c r="A44" s="18"/>
-      <c r="B44" s="19" t="s">
-        <v>95</v>
+      <c r="B44" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="64"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
+        <v>178</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44" s="60">
+        <v>1</v>
+      </c>
+      <c r="F44" s="60"/>
       <c r="G44" s="60"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="21"/>
-      <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
-      <c r="AJ44" s="21"/>
-      <c r="AK44" s="21"/>
-      <c r="AL44" s="30"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="H44" s="60"/>
+      <c r="I44" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="70"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70"/>
+      <c r="Y44" s="70"/>
+      <c r="Z44" s="70"/>
+      <c r="AA44" s="70"/>
+      <c r="AB44" s="70"/>
+      <c r="AC44" s="70"/>
+      <c r="AD44" s="70"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="21"/>
+    </row>
+    <row r="45" spans="1:38">
       <c r="A45" s="18"/>
-      <c r="B45" s="19" t="s">
-        <v>129</v>
+      <c r="B45" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
-      <c r="AI45" s="21"/>
-      <c r="AJ45" s="21"/>
-      <c r="AK45" s="21"/>
-      <c r="AL45" s="30"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="E45" s="60">
+        <v>1</v>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70"/>
+      <c r="Z45" s="70"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
+      <c r="AD45" s="70"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="24"/>
+      <c r="AK45" s="25"/>
+      <c r="AL45" s="21"/>
+    </row>
+    <row r="46" spans="1:38">
       <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="30"/>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B46" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" s="60">
+        <v>1</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="70"/>
+      <c r="Z46" s="70"/>
+      <c r="AA46" s="70"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="70"/>
+      <c r="AD46" s="70"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="25"/>
+      <c r="AL46" s="21"/>
+    </row>
+    <row r="47" spans="1:38">
       <c r="A47" s="18"/>
       <c r="B47" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="18">
-        <v>3</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+        <v>178</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="E47" s="60">
+        <v>1</v>
+      </c>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
       <c r="I47" s="60"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26">
-        <v>4</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P47" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
+      <c r="J47" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="70"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="70"/>
+      <c r="X47" s="70"/>
+      <c r="Y47" s="70"/>
+      <c r="Z47" s="70"/>
+      <c r="AA47" s="70"/>
+      <c r="AB47" s="70"/>
+      <c r="AC47" s="70"/>
+      <c r="AD47" s="70"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="19"/>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="25"/>
+      <c r="AL47" s="21"/>
+    </row>
+    <row r="48" spans="1:38">
       <c r="A48" s="18"/>
-      <c r="B48" s="19" t="s">
-        <v>54</v>
+      <c r="B48" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="18">
+        <v>209</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="60">
+        <v>1</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="68">
         <v>3</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26">
-        <v>0</v>
-      </c>
-      <c r="O48" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P48" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
+      <c r="O48" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" s="68">
+        <f>N48*0.2</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q48" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68">
+        <v>12</v>
+      </c>
+      <c r="U48" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="V48" s="68">
+        <v>18</v>
+      </c>
+      <c r="W48" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="X48" s="69"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="AC48" s="68">
+        <v>2</v>
+      </c>
+      <c r="AD48" s="68" t="s">
+        <v>213</v>
+      </c>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="19"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="19"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="25"/>
+      <c r="AL48" s="21"/>
+    </row>
+    <row r="49" spans="1:38">
       <c r="A49" s="18"/>
-      <c r="B49" s="19" t="s">
-        <v>54</v>
+      <c r="B49" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="18">
-        <v>3</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="D49" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="60">
+        <v>1</v>
+      </c>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
       <c r="I49" s="60"/>
-      <c r="J49" s="9"/>
+      <c r="J49" s="60"/>
       <c r="K49" s="60"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26">
-        <v>3</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="P49" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="68">
+        <v>2</v>
+      </c>
+      <c r="O49" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" s="68">
+        <f>N49*0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q49" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68">
+        <v>6</v>
+      </c>
+      <c r="U49" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="V49" s="68">
+        <v>6</v>
+      </c>
+      <c r="W49" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="X49" s="69"/>
+      <c r="Y49" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="Z49" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AA49" s="68">
+        <f>Y49*0.25</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB49" s="68">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="68" t="s">
+        <v>38</v>
+      </c>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="19"/>
-      <c r="AK49" s="20"/>
-      <c r="AL49" s="19"/>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ49" s="24"/>
+      <c r="AK49" s="25"/>
+      <c r="AL49" s="21"/>
+    </row>
+    <row r="50" spans="1:38" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="18"/>
-      <c r="B50" s="19" t="s">
-        <v>54</v>
+      <c r="B50" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="18">
-        <v>3</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+        <v>220</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" s="50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60" t="s">
+        <v>279</v>
+      </c>
       <c r="I50" s="60"/>
       <c r="J50" s="60"/>
       <c r="K50" s="60"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26">
-        <v>4</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P50" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
       <c r="AA50" s="19"/>
       <c r="AB50" s="19"/>
       <c r="AC50" s="19"/>
       <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
+      <c r="AE50" s="20"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="19"/>
-      <c r="AK50" s="20"/>
-      <c r="AL50" s="19"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="24"/>
+      <c r="AK50" s="25"/>
+      <c r="AL50" s="21"/>
+    </row>
+    <row r="51" spans="1:38" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="18"/>
-      <c r="B51" s="26" t="s">
-        <v>66</v>
+      <c r="B51" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="18">
-        <v>3</v>
+        <v>220</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" s="50">
+        <v>1</v>
       </c>
       <c r="F51" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="18"/>
+        <v>326</v>
+      </c>
+      <c r="G51" s="60"/>
       <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="60" t="s">
+        <v>326</v>
+      </c>
       <c r="J51" s="60"/>
       <c r="K51" s="60"/>
-      <c r="L51" s="50"/>
+      <c r="L51" s="60"/>
       <c r="M51" s="19"/>
-      <c r="N51" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="O51" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="P51" s="26">
-        <f t="shared" ref="P51" si="1">N51*0.2</f>
-        <v>0.5</v>
-      </c>
+      <c r="N51" s="19"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
       <c r="W51" s="19"/>
       <c r="X51" s="19"/>
       <c r="Y51" s="19"/>
@@ -6162,59 +6287,54 @@
       <c r="AB51" s="19"/>
       <c r="AC51" s="19"/>
       <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
+      <c r="AE51" s="20"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
-      <c r="AI51" s="20"/>
-      <c r="AJ51" s="19"/>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="19"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="24"/>
+      <c r="AK51" s="25"/>
+      <c r="AL51" s="21"/>
+    </row>
+    <row r="52" spans="1:38" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="18"/>
-      <c r="B52" s="26" t="s">
-        <v>91</v>
+      <c r="B52" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="18">
-        <v>3</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
+        <v>220</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" s="50">
+        <v>1</v>
+      </c>
+      <c r="F52" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60" t="s">
+        <v>326</v>
+      </c>
       <c r="K52" s="60"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26">
-        <v>2</v>
-      </c>
-      <c r="O52" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P52" s="26">
-        <f t="shared" ref="P52:P55" si="2">N52*0.2</f>
-        <v>0.4</v>
-      </c>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="26"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
       <c r="AA52" s="19"/>
       <c r="AB52" s="19"/>
       <c r="AC52" s="19"/>
@@ -6224,54 +6344,49 @@
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="19"/>
-      <c r="AK52" s="19"/>
-      <c r="AL52" s="19"/>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="25"/>
+      <c r="AL52" s="21"/>
+    </row>
+    <row r="53" spans="1:38" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="18"/>
-      <c r="B53" s="26" t="s">
-        <v>48</v>
+      <c r="B53" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="18">
-        <v>3</v>
-      </c>
-      <c r="F53" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="O53" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P53" s="26">
-        <f>N53*0.2</f>
-        <v>0.30000000000000004</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E53" s="50">
+        <v>1</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="L53" s="60"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
       <c r="AA53" s="19"/>
       <c r="AB53" s="19"/>
       <c r="AC53" s="19"/>
@@ -6281,118 +6396,118 @@
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="25"/>
+      <c r="AL53" s="21"/>
+    </row>
+    <row r="54" spans="1:38" ht="18">
       <c r="A54" s="18"/>
-      <c r="B54" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="18">
-        <v>3</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21">
+      <c r="B54" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E54" s="60">
+        <v>1</v>
+      </c>
+      <c r="F54" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19">
         <v>4</v>
       </c>
       <c r="O54" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P54" s="26">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
+        <v>283</v>
+      </c>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
       <c r="T54" s="19"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
       <c r="AA54" s="19"/>
       <c r="AB54" s="19"/>
       <c r="AC54" s="19"/>
       <c r="AD54" s="19"/>
-      <c r="AE54" s="20"/>
+      <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
-      <c r="AH54" s="19"/>
-      <c r="AI54" s="19"/>
-      <c r="AJ54" s="19"/>
+      <c r="AH54" s="19">
+        <v>3</v>
+      </c>
+      <c r="AI54" s="19">
+        <v>4</v>
+      </c>
+      <c r="AJ54" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="AK54" s="19"/>
       <c r="AL54" s="19"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="18">
       <c r="A55" s="18"/>
-      <c r="B55" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="18">
-        <v>3</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26">
-        <v>6</v>
-      </c>
-      <c r="O55" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="P55" s="26">
-        <f t="shared" si="2"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26">
-        <v>2</v>
-      </c>
-      <c r="S55" s="26"/>
+      <c r="B55" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="60">
+        <v>1</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="L55" s="60"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
       <c r="T55" s="19"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="26"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
       <c r="AA55" s="19"/>
       <c r="AB55" s="19"/>
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
-      <c r="AE55" s="20"/>
+      <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
@@ -6401,29 +6516,47 @@
       <c r="AK55" s="19"/>
       <c r="AL55" s="19"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="18">
       <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
+      <c r="B56" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" s="60">
+        <v>2</v>
+      </c>
+      <c r="F56" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="L56" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
+      <c r="N56" s="19">
+        <v>2</v>
+      </c>
+      <c r="O56" s="23" t="s">
+        <v>283</v>
+      </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
-      <c r="T56" s="27"/>
+      <c r="T56" s="19"/>
       <c r="U56" s="19"/>
-      <c r="V56" s="27"/>
+      <c r="V56" s="19"/>
       <c r="W56" s="19"/>
       <c r="X56" s="19"/>
       <c r="Y56" s="19"/>
@@ -6432,7 +6565,7 @@
       <c r="AB56" s="19"/>
       <c r="AC56" s="19"/>
       <c r="AD56" s="19"/>
-      <c r="AE56" s="20"/>
+      <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
@@ -6441,38 +6574,56 @@
       <c r="AK56" s="19"/>
       <c r="AL56" s="19"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="18">
       <c r="A57" s="18"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
+      <c r="B57" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="E57" s="60">
+        <v>2</v>
+      </c>
+      <c r="F57" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="L57" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19">
+        <v>3</v>
+      </c>
+      <c r="O57" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
       <c r="T57" s="19"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="26"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
       <c r="AA57" s="19"/>
       <c r="AB57" s="19"/>
       <c r="AC57" s="19"/>
       <c r="AD57" s="19"/>
-      <c r="AE57" s="20"/>
+      <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
@@ -6481,70 +6632,49 @@
       <c r="AK57" s="19"/>
       <c r="AL57" s="19"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="18">
       <c r="A58" s="18"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26">
-        <f>SUM(N13:N57)</f>
-        <v>42</v>
-      </c>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26">
-        <f>SUM(P16:P57)</f>
-        <v>6.7</v>
-      </c>
-      <c r="Q58" s="26">
-        <f>SUM(Q16:Q57)*1.5</f>
-        <v>2.625</v>
-      </c>
-      <c r="R58" s="26">
-        <f>SUM(R16:R57)</f>
-        <v>3</v>
-      </c>
-      <c r="S58" s="26"/>
-      <c r="T58" s="27">
-        <f>SUM(T13:T57)*1.5</f>
-        <v>60</v>
-      </c>
-      <c r="U58" s="26"/>
-      <c r="V58" s="27">
-        <f>SUM(V13:V57)*1.5</f>
-        <v>76.5</v>
-      </c>
-      <c r="W58" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z58" s="26">
-        <f>SUM(Z13:Z57)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AA58" s="19">
-        <f>SUM(AA13:AA57)</f>
-        <v>2.125</v>
-      </c>
-      <c r="AB58" s="19">
-        <f>SUM(AB13:AB57)</f>
-        <v>7.5</v>
-      </c>
-      <c r="AC58" s="19">
-        <f>SUM(AC13:AC57)*1.3</f>
-        <v>14.3</v>
-      </c>
+      <c r="B58" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" s="60">
+        <v>1</v>
+      </c>
+      <c r="F58" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
       <c r="AD58" s="19"/>
-      <c r="AE58" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
@@ -6553,33 +6683,43 @@
       <c r="AK58" s="19"/>
       <c r="AL58" s="19"/>
     </row>
-    <row r="59" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="18">
       <c r="A59" s="18"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
+      <c r="B59" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59" s="60">
+        <v>1</v>
+      </c>
+      <c r="F59" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
       <c r="AA59" s="19"/>
       <c r="AB59" s="19"/>
       <c r="AC59" s="19"/>
@@ -6589,440 +6729,1816 @@
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="19"/>
-      <c r="AK59" s="19"/>
-      <c r="AL59" s="19"/>
+      <c r="AJ59" s="24"/>
+      <c r="AK59" s="25"/>
+      <c r="AL59" s="21"/>
+    </row>
+    <row r="60" spans="1:38" ht="18">
+      <c r="A60" s="18"/>
+      <c r="B60" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" s="60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19">
+        <v>2</v>
+      </c>
+      <c r="O60" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="19"/>
+      <c r="AJ60" s="19"/>
+      <c r="AK60" s="19"/>
+      <c r="AL60" s="19"/>
+    </row>
+    <row r="61" spans="1:38" ht="18">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="E61" s="18">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="20"/>
+      <c r="AF61" s="19"/>
+      <c r="AG61" s="19"/>
+      <c r="AH61" s="19"/>
+      <c r="AI61" s="19"/>
+      <c r="AJ61" s="24"/>
+      <c r="AK61" s="25"/>
+      <c r="AL61" s="21"/>
+    </row>
+    <row r="62" spans="1:38" ht="18">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="E62" s="18">
+        <v>1</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="19"/>
+      <c r="AG62" s="19"/>
+      <c r="AH62" s="19"/>
+      <c r="AI62" s="19"/>
+      <c r="AJ62" s="24"/>
+      <c r="AK62" s="25"/>
+      <c r="AL62" s="21"/>
+    </row>
+    <row r="63" spans="1:38" ht="18">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="18">
+        <v>1</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="25"/>
+      <c r="AL63" s="21"/>
+    </row>
+    <row r="64" spans="1:38" ht="18">
+      <c r="A64" s="18"/>
+      <c r="B64" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="18">
+        <v>2</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19">
+        <v>4</v>
+      </c>
+      <c r="O64" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P64" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19">
+        <v>2</v>
+      </c>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19">
+        <v>1</v>
+      </c>
+      <c r="W64" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="19"/>
+      <c r="AB64" s="19"/>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="19"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="19"/>
+      <c r="AG64" s="19"/>
+      <c r="AH64" s="19"/>
+      <c r="AI64" s="19"/>
+      <c r="AJ64" s="19"/>
+      <c r="AK64" s="19"/>
+      <c r="AL64" s="19"/>
+    </row>
+    <row r="65" spans="1:38" ht="18">
+      <c r="A65" s="18"/>
+      <c r="B65" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="18">
+        <v>2</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19">
+        <v>2</v>
+      </c>
+      <c r="O65" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="Q65" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="R65" s="19">
+        <v>1</v>
+      </c>
+      <c r="S65" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="T65" s="19">
+        <v>1</v>
+      </c>
+      <c r="U65" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="V65" s="19">
+        <v>1</v>
+      </c>
+      <c r="W65" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+      <c r="Z65" s="19"/>
+      <c r="AA65" s="19"/>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="AE65" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AF65" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG65" s="19"/>
+      <c r="AH65" s="19"/>
+      <c r="AI65" s="19"/>
+      <c r="AJ65" s="19"/>
+      <c r="AK65" s="19"/>
+      <c r="AL65" s="19"/>
+    </row>
+    <row r="66" spans="1:38">
+      <c r="A66" s="18"/>
+      <c r="B66" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="60">
+        <v>2</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="O66" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="70">
+        <v>0.25</v>
+      </c>
+      <c r="R66" s="70"/>
+      <c r="S66" s="70"/>
+      <c r="T66" s="70">
+        <v>4</v>
+      </c>
+      <c r="U66" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="V66" s="72">
+        <v>1</v>
+      </c>
+      <c r="W66" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="70">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="70">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="73">
+        <f t="shared" ref="AC66:AC67" si="0">AA66*0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="AD66" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="AE66" s="70">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG66" s="19"/>
+      <c r="AH66" s="19"/>
+      <c r="AI66" s="19"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="25"/>
+      <c r="AL66" s="21"/>
+    </row>
+    <row r="67" spans="1:38" ht="18">
+      <c r="A67" s="18"/>
+      <c r="B67" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="60">
+        <v>2</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="70">
+        <v>1</v>
+      </c>
+      <c r="O67" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="P67" s="70">
+        <f>N67*0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q67" s="70">
+        <v>0.25</v>
+      </c>
+      <c r="R67" s="70"/>
+      <c r="S67" s="70"/>
+      <c r="T67" s="70">
+        <v>2</v>
+      </c>
+      <c r="U67" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="V67" s="70"/>
+      <c r="W67" s="70"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="70">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="70">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="73">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD67" s="70">
+        <v>0.25</v>
+      </c>
+      <c r="AE67" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="AF67" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG67" s="19"/>
+      <c r="AH67" s="19"/>
+      <c r="AI67" s="19"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="25"/>
+      <c r="AL67" s="21"/>
+    </row>
+    <row r="68" spans="1:38">
+      <c r="A68" s="18"/>
+      <c r="B68" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" s="58">
+        <v>2</v>
+      </c>
+      <c r="F68" s="50"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="I68" s="50"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="76">
+        <v>3</v>
+      </c>
+      <c r="W68" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="X68" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="70"/>
+      <c r="AB68" s="70"/>
+      <c r="AC68" s="70"/>
+      <c r="AD68" s="70"/>
+      <c r="AE68" s="70"/>
+      <c r="AF68" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG68" s="21"/>
+      <c r="AH68" s="21"/>
+      <c r="AI68" s="21"/>
+      <c r="AJ68" s="21"/>
+      <c r="AK68" s="21"/>
+      <c r="AL68" s="21"/>
+    </row>
+    <row r="69" spans="1:38" ht="18">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="50">
+        <v>1</v>
+      </c>
+      <c r="F69" s="50"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J69" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="21"/>
+      <c r="AC69" s="21"/>
+      <c r="AD69" s="21"/>
+      <c r="AE69" s="21"/>
+      <c r="AF69" s="21"/>
+      <c r="AG69" s="21"/>
+      <c r="AH69" s="21"/>
+      <c r="AI69" s="21"/>
+      <c r="AJ69" s="21"/>
+      <c r="AK69" s="21"/>
+      <c r="AL69" s="21"/>
+    </row>
+    <row r="70" spans="1:38" ht="18">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
+      <c r="AB70" s="21"/>
+      <c r="AC70" s="21"/>
+      <c r="AD70" s="21"/>
+      <c r="AE70" s="21"/>
+      <c r="AF70" s="21"/>
+      <c r="AG70" s="21"/>
+      <c r="AH70" s="21"/>
+      <c r="AI70" s="21"/>
+      <c r="AJ70" s="21"/>
+      <c r="AK70" s="21"/>
+      <c r="AL70" s="21"/>
+    </row>
+    <row r="71" spans="1:38" ht="18">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+      <c r="AK71" s="21"/>
+      <c r="AL71" s="30"/>
+    </row>
+    <row r="72" spans="1:38" ht="18">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="L72" s="50"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="21"/>
+      <c r="AD72" s="21"/>
+      <c r="AE72" s="21"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="21"/>
+      <c r="AH72" s="21"/>
+      <c r="AI72" s="21"/>
+      <c r="AJ72" s="21"/>
+      <c r="AK72" s="21"/>
+      <c r="AL72" s="30"/>
+    </row>
+    <row r="73" spans="1:38" ht="18">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="64"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="21"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="21"/>
+      <c r="AK73" s="21"/>
+      <c r="AL73" s="30"/>
+    </row>
+    <row r="74" spans="1:38" ht="18">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="64"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="21"/>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="21"/>
+      <c r="AK74" s="21"/>
+      <c r="AL74" s="30"/>
+    </row>
+    <row r="75" spans="1:38" ht="18">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
+      <c r="AK75" s="21"/>
+      <c r="AL75" s="30"/>
+    </row>
+    <row r="76" spans="1:38">
+      <c r="A76" s="18"/>
+      <c r="B76" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="D76" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="81">
+        <v>3</v>
+      </c>
+      <c r="F76" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26">
+        <v>4</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P76" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="26"/>
+      <c r="V76" s="26"/>
+      <c r="W76" s="26"/>
+      <c r="X76" s="26"/>
+      <c r="Y76" s="26"/>
+      <c r="Z76" s="26"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="19"/>
+      <c r="AF76" s="19"/>
+      <c r="AG76" s="19"/>
+      <c r="AH76" s="19"/>
+      <c r="AI76" s="19"/>
+      <c r="AJ76" s="19"/>
+      <c r="AK76" s="20"/>
+      <c r="AL76" s="19"/>
+    </row>
+    <row r="77" spans="1:38">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="81">
+        <v>3</v>
+      </c>
+      <c r="F77" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" s="60"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26">
+        <v>0</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P77" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="26"/>
+      <c r="V77" s="26"/>
+      <c r="W77" s="26"/>
+      <c r="X77" s="26"/>
+      <c r="Y77" s="26"/>
+      <c r="Z77" s="26"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19"/>
+      <c r="AF77" s="19"/>
+      <c r="AG77" s="19"/>
+      <c r="AH77" s="19"/>
+      <c r="AI77" s="19"/>
+      <c r="AJ77" s="19"/>
+      <c r="AK77" s="20"/>
+      <c r="AL77" s="19"/>
+    </row>
+    <row r="78" spans="1:38">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="E78" s="81">
+        <v>3</v>
+      </c>
+      <c r="F78" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26">
+        <v>3</v>
+      </c>
+      <c r="O78" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P78" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="26"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="26"/>
+      <c r="X78" s="26"/>
+      <c r="Y78" s="26"/>
+      <c r="Z78" s="26"/>
+      <c r="AA78" s="19"/>
+      <c r="AB78" s="19"/>
+      <c r="AC78" s="19"/>
+      <c r="AD78" s="19"/>
+      <c r="AE78" s="19"/>
+      <c r="AF78" s="19"/>
+      <c r="AG78" s="19"/>
+      <c r="AH78" s="19"/>
+      <c r="AI78" s="19"/>
+      <c r="AJ78" s="19"/>
+      <c r="AK78" s="20"/>
+      <c r="AL78" s="19"/>
+    </row>
+    <row r="79" spans="1:38">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="D79" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="E79" s="81">
+        <v>3</v>
+      </c>
+      <c r="F79" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26">
+        <v>4</v>
+      </c>
+      <c r="O79" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="25"/>
+      <c r="U79" s="26"/>
+      <c r="V79" s="26"/>
+      <c r="W79" s="26"/>
+      <c r="X79" s="26"/>
+      <c r="Y79" s="26"/>
+      <c r="Z79" s="26"/>
+      <c r="AA79" s="19"/>
+      <c r="AB79" s="19"/>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="19"/>
+      <c r="AE79" s="19"/>
+      <c r="AF79" s="19"/>
+      <c r="AG79" s="19"/>
+      <c r="AH79" s="19"/>
+      <c r="AI79" s="19"/>
+      <c r="AJ79" s="19"/>
+      <c r="AK79" s="20"/>
+      <c r="AL79" s="19"/>
+    </row>
+    <row r="80" spans="1:38">
+      <c r="A80" s="18"/>
+      <c r="B80" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="E80" s="81">
+        <v>3</v>
+      </c>
+      <c r="F80" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="O80" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" s="26">
+        <f t="shared" ref="P80" si="1">N80*0.2</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="26"/>
+      <c r="V80" s="26"/>
+      <c r="W80" s="19"/>
+      <c r="X80" s="19"/>
+      <c r="Y80" s="19"/>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="19"/>
+      <c r="AB80" s="19"/>
+      <c r="AC80" s="19"/>
+      <c r="AD80" s="19"/>
+      <c r="AE80" s="19"/>
+      <c r="AF80" s="19"/>
+      <c r="AG80" s="19"/>
+      <c r="AH80" s="19"/>
+      <c r="AI80" s="20"/>
+      <c r="AJ80" s="19"/>
+      <c r="AK80" s="19"/>
+      <c r="AL80" s="19"/>
+    </row>
+    <row r="81" spans="1:38" ht="18">
+      <c r="A81" s="18"/>
+      <c r="B81" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="E81" s="81">
+        <v>3</v>
+      </c>
+      <c r="F81" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26">
+        <v>2</v>
+      </c>
+      <c r="O81" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P81" s="26">
+        <f t="shared" ref="P81:P84" si="2">N81*0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="26"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="26"/>
+      <c r="V81" s="26"/>
+      <c r="W81" s="26"/>
+      <c r="X81" s="26"/>
+      <c r="Y81" s="26"/>
+      <c r="Z81" s="26"/>
+      <c r="AA81" s="19"/>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="19"/>
+      <c r="AD81" s="19"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="19"/>
+      <c r="AG81" s="19"/>
+      <c r="AH81" s="19"/>
+      <c r="AI81" s="19"/>
+      <c r="AJ81" s="19"/>
+      <c r="AK81" s="19"/>
+      <c r="AL81" s="19"/>
+    </row>
+    <row r="82" spans="1:38" ht="18">
+      <c r="A82" s="18"/>
+      <c r="B82" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="81">
+        <v>3</v>
+      </c>
+      <c r="F82" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="O82" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P82" s="26">
+        <f>N82*0.2</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="26"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="26"/>
+      <c r="V82" s="26"/>
+      <c r="W82" s="26"/>
+      <c r="X82" s="26"/>
+      <c r="Y82" s="26"/>
+      <c r="Z82" s="26"/>
+      <c r="AA82" s="19"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="19"/>
+      <c r="AG82" s="19"/>
+      <c r="AH82" s="19"/>
+      <c r="AI82" s="19"/>
+      <c r="AJ82" s="19"/>
+      <c r="AK82" s="19"/>
+      <c r="AL82" s="19"/>
+    </row>
+    <row r="83" spans="1:38" ht="18">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="D83" s="86" t="s">
+        <v>347</v>
+      </c>
+      <c r="E83" s="81">
+        <v>3</v>
+      </c>
+      <c r="F83" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" s="18"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21">
+        <v>4</v>
+      </c>
+      <c r="O83" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P83" s="26">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
+      <c r="X83" s="21"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="19"/>
+      <c r="AB83" s="19"/>
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="19"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="19"/>
+      <c r="AG83" s="19"/>
+      <c r="AH83" s="19"/>
+      <c r="AI83" s="19"/>
+      <c r="AJ83" s="19"/>
+      <c r="AK83" s="19"/>
+      <c r="AL83" s="19"/>
+    </row>
+    <row r="84" spans="1:38" ht="18">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="D84" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="E84" s="81">
+        <v>3</v>
+      </c>
+      <c r="F84" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26">
+        <v>6</v>
+      </c>
+      <c r="O84" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P84" s="26">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26">
+        <v>2</v>
+      </c>
+      <c r="S84" s="26"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="26"/>
+      <c r="V84" s="26"/>
+      <c r="W84" s="26"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="26"/>
+      <c r="Z84" s="26"/>
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="19"/>
+      <c r="AD84" s="19"/>
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="19"/>
+      <c r="AG84" s="19"/>
+      <c r="AH84" s="19"/>
+      <c r="AI84" s="19"/>
+      <c r="AJ84" s="19"/>
+      <c r="AK84" s="19"/>
+      <c r="AL84" s="19"/>
+    </row>
+    <row r="85" spans="1:38">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="19"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="19"/>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="19"/>
+      <c r="AE85" s="20"/>
+      <c r="AF85" s="19"/>
+      <c r="AG85" s="19"/>
+      <c r="AH85" s="19"/>
+      <c r="AI85" s="19"/>
+      <c r="AJ85" s="19"/>
+      <c r="AK85" s="19"/>
+      <c r="AL85" s="19"/>
+    </row>
+    <row r="86" spans="1:38">
+      <c r="A86" s="18"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="26"/>
+      <c r="V86" s="26"/>
+      <c r="W86" s="26"/>
+      <c r="X86" s="26"/>
+      <c r="Y86" s="26"/>
+      <c r="Z86" s="26"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="20"/>
+      <c r="AF86" s="19"/>
+      <c r="AG86" s="19"/>
+      <c r="AH86" s="19"/>
+      <c r="AI86" s="19"/>
+      <c r="AJ86" s="19"/>
+      <c r="AK86" s="19"/>
+      <c r="AL86" s="19"/>
+    </row>
+    <row r="87" spans="1:38">
+      <c r="A87" s="18"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26">
+        <f>SUM(N13:N86)</f>
+        <v>63</v>
+      </c>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26">
+        <f>SUM(P18:P86)</f>
+        <v>6.7</v>
+      </c>
+      <c r="Q87" s="26">
+        <f>SUM(Q18:Q86)*1.5</f>
+        <v>2.625</v>
+      </c>
+      <c r="R87" s="26">
+        <f>SUM(R18:R86)</f>
+        <v>3</v>
+      </c>
+      <c r="S87" s="26"/>
+      <c r="T87" s="27">
+        <f>SUM(T13:T86)*1.5</f>
+        <v>60</v>
+      </c>
+      <c r="U87" s="26"/>
+      <c r="V87" s="27">
+        <f>SUM(V13:V86)*1.5</f>
+        <v>76.5</v>
+      </c>
+      <c r="W87" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z87" s="26">
+        <f>SUM(Z13:Z86)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA87" s="19">
+        <f>SUM(AA13:AA86)</f>
+        <v>2.125</v>
+      </c>
+      <c r="AB87" s="19">
+        <f>SUM(AB13:AB86)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AC87" s="19">
+        <f>SUM(AC13:AC86)*1.3</f>
+        <v>14.3</v>
+      </c>
+      <c r="AD87" s="19"/>
+      <c r="AE87" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF87" s="19"/>
+      <c r="AG87" s="19"/>
+      <c r="AH87" s="19"/>
+      <c r="AI87" s="19"/>
+      <c r="AJ87" s="19"/>
+      <c r="AK87" s="19"/>
+      <c r="AL87" s="19"/>
+    </row>
+    <row r="88" spans="1:38" ht="15" customHeight="1">
+      <c r="A88" s="18"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="26"/>
+      <c r="T88" s="26"/>
+      <c r="U88" s="26"/>
+      <c r="V88" s="26"/>
+      <c r="W88" s="26"/>
+      <c r="X88" s="26"/>
+      <c r="Y88" s="26"/>
+      <c r="Z88" s="26"/>
+      <c r="AA88" s="19"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="19"/>
+      <c r="AD88" s="19"/>
+      <c r="AE88" s="20"/>
+      <c r="AF88" s="19"/>
+      <c r="AG88" s="19"/>
+      <c r="AH88" s="19"/>
+      <c r="AI88" s="19"/>
+      <c r="AJ88" s="19"/>
+      <c r="AK88" s="19"/>
+      <c r="AL88" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:AR59"/>
+  <autoFilter ref="A13:AR88"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Z58 P3:S8 F7:F8 D12 H59:Z59 H58:W58 H12:M12 A13:AL13 D40 B40:C42 D41:E42 K37:M37 B38:F39 F40:G42 H40:AL46 B20:B21 F20 G23:H24 H38:AK39 C21:M22 B19:M19 B15:AL18 AL35:AL39 J47 K47:AL50 J52:Z52 AA52:AL55 J51:AL51 B43:G47 H47:I51 H52 E35:F37 L14:AL14 B14:I14 AE22:AF22 AE19:AL21 J23:AL24 AG35:AK37 AA35:AD36 AA37:AF37 U37:W37 B57:G59 AA57:AL59 H57:Z57 B54:D55 S56:AL56 B48:D52 F48:G52 E48:E55 H37:I37 H35:M36 J33:S34 B33:F34 AA33:AL34 T33:Z36 H33:H34 G33:G39 F53:Z55 G32:H32 B35:C38 B25:AL31 P10:S11 F10:F11 J32:AL32 I32:I33">
-    <cfRule type="cellIs" dxfId="49" priority="69" operator="equal">
+  <conditionalFormatting sqref="Z87 H88:Z88 H87:W87 J76 K76:AL79 J81:Z81 AA81:AL84 J80:AL80 H76:I80 H81 B86:G88 AA86:AL88 H86:Z86 F77:G81 F82:Z84 J79 B77:E84 B85:AL85 K68:M68 B69:F70 H71:AL75 H69:AK70 AL66:AL70 AG66:AK68 H68:I68 J64:S65 B64:F65 AA64:AL65 T64:Z67 H64:H65 G64:G70 B66:C69 B71:G76 D66:F68 H66:S67 AA66:AF67 Q68:AF68 J59:J63 K50:AL63 J50:J57 I50:I64 P3:S8 F7:F8 D12 H12:M12 A13:AL13 L14:AL14 B14:I14 P10:S11 F10:F11 B50:H63 B52:AL52 B15:AL49">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V17:AD17 P17:T17 E17:N17 P14 P47:P50 F22 F19">
-    <cfRule type="cellIs" dxfId="48" priority="71" operator="equal">
+  <conditionalFormatting sqref="P76:P79 AC66:AC67 F63 P37:P40 P14 V24:AD36 E24:N36 P24:T36 F41:F53 E35:E47">
+    <cfRule type="cellIs" dxfId="13" priority="71" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="72" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="12" priority="72" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V17:AD17 P17:T17 E17:N17 P14 AJ35:AJ36 P47:P50 AJ13 F22 F19 AJ15:AJ21 AJ31:AJ32 AJ29 AJ23:AJ24">
-    <cfRule type="cellIs" dxfId="46" priority="70" operator="equal">
+  <conditionalFormatting sqref="P76:P79 AJ66:AJ67 AJ61:AJ63 AJ59 AC66:AC67 F63 P37:P40 V24:AD36 P14 AJ13 I2:I6 E24:N36 P24:T36 F41:F53 AJ15:AJ53 E35:E47">
+    <cfRule type="cellIs" dxfId="11" priority="70" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="45" priority="61" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="43" priority="58" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I24">
-    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",P18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19:AD19">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:E22 AG22:AK22 G22:M22">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL22">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22:AD22">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22:AD22">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21:AD21">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:E20 G20:M20">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:AD20">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:D23">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D37">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35:S36">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC35:AC36">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",AC35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC35:AC36">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35:AF36">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q37:S37">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N37:P37">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T37">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X37:Z37">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:D53">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:R56">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D32">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="N68:P68">
+    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="5"/>
-    <col min="2" max="2" width="5.42578125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="11.5703125" style="5"/>
+    <col min="1" max="1" width="11.5546875" style="5"/>
+    <col min="2" max="2" width="5.44140625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="21">
+      <c r="B2" s="78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="C4" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="C5" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="C6" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="C7" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="C8" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" s="5">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="5">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="5">
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" s="5">
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B26" s="79" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="21">
+      <c r="B26" s="78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="C27" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="C28" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="C29" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" s="78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="C30" s="77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="C31" s="77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="C32" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
       <c r="C35" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="80"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G35" s="79"/>
+    </row>
+    <row r="36" spans="3:7">
       <c r="C36" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F36" s="80" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="F36" s="79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
       <c r="C37" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
       <c r="C38" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
       <c r="C39" s="5" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
       <c r="C40" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
       <c r="C41" s="5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7033,98 +8549,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="48" customFormat="1" ht="18">
       <c r="A1" s="48" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="47" customFormat="1" ht="18">
       <c r="A2" s="44" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D2" s="45">
         <v>1</v>
       </c>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="47" customFormat="1">
       <c r="A3" s="46"/>
       <c r="B3" s="46"/>
       <c r="C3" s="45" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D3" s="45">
         <v>2</v>
       </c>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="47" customFormat="1">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="45" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D4" s="45">
         <v>1</v>
       </c>
       <c r="E4" s="46"/>
     </row>
-    <row r="5" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="47" customFormat="1">
       <c r="C5" s="45" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D5" s="45">
         <v>1</v>
       </c>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="47" customFormat="1">
       <c r="C6" s="45" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D6" s="45">
         <v>1</v>
       </c>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="47" customFormat="1">
       <c r="C7" s="45" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D7" s="45">
         <v>0.5</v>
@@ -7133,18 +8649,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="47" customFormat="1">
       <c r="C8" s="45" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D8" s="45">
         <v>1</v>
       </c>
       <c r="E8" s="46"/>
     </row>
-    <row r="9" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="47" customFormat="1">
       <c r="C9" s="45" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D9" s="45">
         <v>1</v>
@@ -7153,36 +8669,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="47" customFormat="1">
       <c r="C10" s="45" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D10" s="45">
         <v>1</v>
       </c>
       <c r="E10" s="46"/>
     </row>
-    <row r="11" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="47" customFormat="1">
       <c r="C11" s="45" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D11" s="45">
         <v>1</v>
       </c>
       <c r="E11" s="46"/>
     </row>
-    <row r="12" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="47" customFormat="1">
       <c r="C12" s="45" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D12" s="45">
         <v>2</v>
       </c>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="47" customFormat="1">
       <c r="C13" s="45" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D13" s="45">
         <v>2</v>
@@ -7191,36 +8707,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="47" customFormat="1">
       <c r="C14" s="45" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E14" s="46"/>
     </row>
-    <row r="15" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="47" customFormat="1">
       <c r="C15" s="45" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D15" s="45">
         <v>1</v>
       </c>
       <c r="E15" s="46"/>
     </row>
-    <row r="16" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="47" customFormat="1">
       <c r="C16" s="45" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D16" s="45">
         <v>0.5</v>
       </c>
       <c r="E16" s="46"/>
     </row>
-    <row r="17" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="47" customFormat="1">
       <c r="C17" s="45" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D17" s="45">
         <v>0</v>
@@ -7229,60 +8745,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="47" customFormat="1">
       <c r="C18" s="45" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D18" s="45">
         <v>0.5</v>
       </c>
       <c r="E18" s="46"/>
     </row>
-    <row r="19" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="47" customFormat="1">
       <c r="C19" s="45" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D19" s="45">
         <v>1</v>
       </c>
       <c r="E19" s="46"/>
     </row>
-    <row r="20" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="47" customFormat="1">
       <c r="C20" s="45" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D20" s="45">
         <v>1</v>
       </c>
       <c r="E20" s="46"/>
     </row>
-    <row r="21" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="47" customFormat="1">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="45" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D21" s="45">
         <v>1.5</v>
       </c>
       <c r="E21" s="46"/>
     </row>
-    <row r="22" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="47" customFormat="1">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="45" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D22" s="45">
         <v>0</v>
       </c>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="47" customFormat="1">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="45" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D23" s="45">
         <v>1</v>
@@ -7291,22 +8807,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="47" customFormat="1">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="45" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D24" s="45">
         <v>1</v>
       </c>
       <c r="E24" s="46"/>
     </row>
-    <row r="25" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="47" customFormat="1" ht="18">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="44" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D25" s="44">
         <f>SUM(D2:D24)</f>
@@ -7317,159 +8833,159 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="47" customFormat="1">
       <c r="A26" s="46"/>
       <c r="B26" s="45" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D26" s="45">
         <v>1</v>
       </c>
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="47" customFormat="1" ht="18">
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="44" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D27" s="44">
         <v>1</v>
       </c>
       <c r="E27" s="44"/>
     </row>
-    <row r="29" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="42" customFormat="1" ht="18">
       <c r="A29" s="49" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D29" s="38">
         <v>2</v>
       </c>
       <c r="E29" s="38"/>
     </row>
-    <row r="30" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="42" customFormat="1">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D30" s="38">
         <v>2</v>
       </c>
       <c r="E30" s="38"/>
     </row>
-    <row r="31" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="42" customFormat="1">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D31" s="38">
         <v>2</v>
       </c>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="42" customFormat="1">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D32" s="38">
         <v>1</v>
       </c>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="42" customFormat="1">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D33" s="38">
         <v>2</v>
       </c>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="42" customFormat="1">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D34" s="38">
         <v>1</v>
       </c>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="42" customFormat="1">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D35" s="38">
         <v>1</v>
       </c>
       <c r="E35" s="38"/>
     </row>
-    <row r="36" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="42" customFormat="1">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D36" s="38">
         <v>1</v>
       </c>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="42" customFormat="1">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D37" s="38">
         <v>1</v>
       </c>
       <c r="E37" s="38"/>
     </row>
-    <row r="38" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="42" customFormat="1">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D38" s="38">
         <v>0</v>
       </c>
       <c r="E38" s="38"/>
     </row>
-    <row r="39" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="42" customFormat="1">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="51" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D39" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="42" customFormat="1" ht="18">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="49" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D40" s="49">
         <f>SUM(D29:D39)</f>
@@ -7479,26 +8995,26 @@
         <v>12</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="42" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="42" customFormat="1" ht="16.5"/>
+    <row r="42" spans="1:8" ht="18">
       <c r="A42" s="36" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="18">
       <c r="A43" s="39"/>
       <c r="B43" s="40" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D43" s="40">
         <v>2</v>
@@ -7508,11 +9024,11 @@
       <c r="G43" s="39"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="18">
       <c r="A44" s="39"/>
       <c r="B44" s="37"/>
       <c r="C44" s="40" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D44" s="40">
         <v>1</v>
@@ -7522,11 +9038,11 @@
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="18">
       <c r="A45" s="39"/>
       <c r="B45" s="37"/>
       <c r="C45" s="40" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D45" s="40">
         <v>1</v>
@@ -7536,11 +9052,11 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="18">
       <c r="A46" s="39"/>
       <c r="B46" s="37"/>
       <c r="C46" s="40" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D46" s="40">
         <v>2</v>
@@ -7550,11 +9066,11 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="18">
       <c r="A47" s="39"/>
       <c r="B47" s="37"/>
       <c r="C47" s="40" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D47" s="40">
         <v>1</v>
@@ -7564,11 +9080,11 @@
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="18">
       <c r="A48" s="39"/>
       <c r="B48" s="37"/>
       <c r="C48" s="40" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D48" s="40">
         <v>4</v>
@@ -7578,11 +9094,11 @@
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="18">
       <c r="A49" s="39"/>
       <c r="B49" s="37"/>
       <c r="C49" s="41" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D49" s="41">
         <v>5</v>
@@ -7592,11 +9108,11 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="18">
       <c r="A50" s="39"/>
       <c r="B50" s="37"/>
       <c r="C50" s="41" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D50" s="41">
         <v>4</v>
@@ -7606,27 +9122,27 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="18">
       <c r="A51" s="39"/>
       <c r="B51" s="37"/>
       <c r="C51" s="40" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D51" s="40">
         <v>0.5</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="42" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="18">
       <c r="A52" s="39"/>
       <c r="B52" s="37"/>
       <c r="C52" s="36" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D52" s="36">
         <f>SUM(D43:D51)</f>
@@ -7642,10 +9158,10 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="18">
       <c r="A53" s="39"/>
       <c r="B53" s="40" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -7654,53 +9170,53 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="18">
       <c r="A54" s="39"/>
       <c r="B54" s="37"/>
       <c r="C54" s="40" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="18">
       <c r="A55" s="39"/>
       <c r="B55" s="37"/>
       <c r="C55" s="40" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="18">
       <c r="A56" s="39"/>
       <c r="B56" s="37"/>
       <c r="C56" s="40" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="18">
       <c r="A57" s="39"/>
       <c r="B57" s="37"/>
       <c r="C57" s="40" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D57" s="40">
         <v>2</v>
@@ -7710,11 +9226,11 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="18">
       <c r="A58" s="39"/>
       <c r="B58" s="37"/>
       <c r="C58" s="40" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D58" s="40">
         <v>2</v>
@@ -7724,11 +9240,11 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="18">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="36" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D59" s="36">
         <v>4</v>
@@ -7740,9 +9256,9 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="18">
       <c r="A62" s="36" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="34640" windowHeight="19380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑3" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑3!$A$13:$AR$73</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="352">
   <si>
     <t>分类</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1167,31 +1172,6 @@
     </rPh>
     <rPh sb="44" eb="45">
       <t>mu'b</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源流程确认，svn提交权限明确</t>
-    <rPh sb="0" eb="1">
-      <t>mei'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>liu'cheng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>quan'xian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ming'que</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3119,6 +3099,263 @@
   <si>
     <t>程序开发代码规范和约定</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>各位Leader及时跟进组员的工作进展，站会前提前收集问题和任务状态，站会后问题及时跟进解决</t>
+    <rPh sb="0" eb="1">
+      <t>ge'wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zu'yuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jin'zhan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhan'hui</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>he</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhan'hui</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ji'shi</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>jie'jue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要了解周版本流程，功能开发流程</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liao'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhou'ban'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gogn'neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源流程确认，svn提交权限明确（会议中大概浏览一下原流程，会后讨论我们自己的流程）</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>quan'xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hui'yi'zhong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>da'gai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>liu'lan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>tao'lun</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>wo'men</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>de</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jira养成操作习惯，很多”死板的工作“就可以省略，也可以节约一些沟通成本</t>
+    <rPh sb="4" eb="5">
+      <t>yang'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi'guan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hen'duo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>si'ban</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>k'yi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>sheng'lue</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ye'ke'yi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jie'yue</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（Jira任务数据和里程碑任务数据偏差还是有一些，如果任务按里程碑发偏差会小一些？）</t>
+    <rPh sb="5" eb="6">
+      <t>ren'wu'shu'ju'he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>li'cheng'bei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ren'wu'shu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>pian'cha</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>an</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>li'cheng'bei</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>pian'cha</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yi'xie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3789,6 +4026,100 @@
     </xf>
   </cellXfs>
   <cellStyles count="190">
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="144"/>
@@ -3885,100 +4216,6 @@
     <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="62">
     <dxf>
@@ -4833,14 +5070,14 @@
   <dimension ref="A1:AR73"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="12" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="12" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="6" customWidth="1"/>
@@ -4860,14 +5097,14 @@
     <col min="28" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="F1" s="1"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:44" s="51" customFormat="1">
+    <row r="2" spans="1:44" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
         <v>162</v>
       </c>
@@ -4884,7 +5121,7 @@
       <c r="R2" s="55"/>
       <c r="S2" s="55"/>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>78</v>
       </c>
@@ -4892,7 +5129,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="4" t="s">
@@ -4907,7 +5144,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
@@ -4915,14 +5152,14 @@
         <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="4" t="s">
         <v>92</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4" s="34"/>
       <c r="P4" s="8"/>
@@ -4930,20 +5167,20 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I5" s="34"/>
       <c r="P5" s="8"/>
@@ -4951,13 +5188,13 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="4" t="s">
@@ -4972,13 +5209,13 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
@@ -4992,13 +5229,13 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
@@ -5012,7 +5249,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>82</v>
       </c>
@@ -5025,14 +5262,14 @@
         <v>90</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
       <c r="F10" s="7"/>
       <c r="P10" s="7"/>
@@ -5040,7 +5277,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="F11" s="7"/>
       <c r="P11" s="7"/>
@@ -5048,7 +5285,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5100,7 +5337,7 @@
       <c r="AK12" s="14"/>
       <c r="AL12" s="15"/>
     </row>
-    <row r="13" spans="1:44" s="6" customFormat="1" ht="15">
+    <row r="13" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>51</v>
       </c>
@@ -5222,7 +5459,7 @@
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>1</v>
       </c>
@@ -5230,10 +5467,10 @@
         <v>182</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E14" s="57">
         <v>1</v>
@@ -5243,13 +5480,13 @@
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="I14" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="I14" s="49" t="s">
-        <v>339</v>
-      </c>
       <c r="J14" s="73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K14" s="75" t="s">
         <v>49</v>
@@ -5260,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="21"/>
@@ -5268,7 +5505,7 @@
       <c r="S14" s="21"/>
       <c r="T14" s="19"/>
       <c r="U14" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -5279,7 +5516,7 @@
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE14" s="21"/>
       <c r="AF14" s="21"/>
@@ -5290,7 +5527,7 @@
       <c r="AK14" s="21"/>
       <c r="AL14" s="21"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -5298,10 +5535,10 @@
         <v>182</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>250</v>
       </c>
       <c r="E15" s="57">
         <v>1</v>
@@ -5311,13 +5548,13 @@
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K15" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L15" s="49"/>
       <c r="M15" s="19"/>
@@ -5325,7 +5562,7 @@
         <v>0.5</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="21"/>
@@ -5333,7 +5570,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="19"/>
       <c r="U15" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -5344,7 +5581,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
@@ -5355,7 +5592,7 @@
       <c r="AK15" s="21"/>
       <c r="AL15" s="21"/>
     </row>
-    <row r="16" spans="1:44" ht="15">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>3</v>
       </c>
@@ -5363,10 +5600,10 @@
         <v>182</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E16" s="57">
         <v>1</v>
@@ -5376,14 +5613,14 @@
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I16" s="49"/>
       <c r="J16" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L16" s="49"/>
       <c r="M16" s="19"/>
@@ -5391,7 +5628,7 @@
         <v>0.5</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="21"/>
@@ -5399,7 +5636,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -5410,7 +5647,7 @@
       <c r="AB16" s="21"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE16" s="21"/>
       <c r="AF16" s="21"/>
@@ -5421,7 +5658,7 @@
       <c r="AK16" s="21"/>
       <c r="AL16" s="21"/>
     </row>
-    <row r="17" spans="1:38" ht="15">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>4</v>
       </c>
@@ -5429,10 +5666,10 @@
         <v>182</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E17" s="57">
         <v>1</v>
@@ -5442,20 +5679,20 @@
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I17" s="49"/>
       <c r="J17" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L17" s="49"/>
       <c r="M17" s="19"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="21"/>
@@ -5463,7 +5700,7 @@
       <c r="S17" s="21"/>
       <c r="T17" s="19"/>
       <c r="U17" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
@@ -5474,7 +5711,7 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
@@ -5485,7 +5722,7 @@
       <c r="AK17" s="21"/>
       <c r="AL17" s="21"/>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>5</v>
       </c>
@@ -5493,10 +5730,10 @@
         <v>182</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E18" s="57">
         <v>1</v>
@@ -5506,14 +5743,14 @@
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L18" s="49"/>
       <c r="M18" s="19"/>
@@ -5521,7 +5758,7 @@
         <v>0.5</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="21"/>
@@ -5529,7 +5766,7 @@
       <c r="S18" s="21"/>
       <c r="T18" s="19"/>
       <c r="U18" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
@@ -5540,7 +5777,7 @@
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
       <c r="AD18" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE18" s="21"/>
       <c r="AF18" s="21"/>
@@ -5551,7 +5788,7 @@
       <c r="AK18" s="21"/>
       <c r="AL18" s="21"/>
     </row>
-    <row r="19" spans="1:38" ht="15">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>6</v>
       </c>
@@ -5559,10 +5796,10 @@
         <v>182</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E19" s="57">
         <v>1</v>
@@ -5575,11 +5812,11 @@
         <v>187</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J19" s="49"/>
       <c r="K19" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L19" s="49"/>
       <c r="M19" s="19"/>
@@ -5587,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="21"/>
@@ -5595,7 +5832,7 @@
       <c r="S19" s="21"/>
       <c r="T19" s="19"/>
       <c r="U19" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
@@ -5606,7 +5843,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -5617,7 +5854,7 @@
       <c r="AK19" s="21"/>
       <c r="AL19" s="21"/>
     </row>
-    <row r="20" spans="1:38" ht="18">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>7</v>
       </c>
@@ -5628,7 +5865,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E20" s="57">
         <v>1</v>
@@ -5638,11 +5875,11 @@
       </c>
       <c r="G20" s="57"/>
       <c r="I20" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J20" s="57"/>
       <c r="K20" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L20" s="57"/>
       <c r="M20" s="19"/>
@@ -5654,7 +5891,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
@@ -5665,7 +5902,7 @@
       <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
       <c r="AD20" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
@@ -5676,7 +5913,7 @@
       <c r="AK20" s="25"/>
       <c r="AL20" s="21"/>
     </row>
-    <row r="21" spans="1:38" ht="32">
+    <row r="21" spans="1:38" ht="32" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>8</v>
       </c>
@@ -5687,7 +5924,7 @@
         <v>118</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E21" s="57">
         <v>1</v>
@@ -5700,11 +5937,11 @@
         <v>187</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J21" s="57"/>
       <c r="K21" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L21" s="57"/>
       <c r="M21" s="19"/>
@@ -5718,7 +5955,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
@@ -5729,7 +5966,7 @@
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
       <c r="AD21" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE21" s="20"/>
       <c r="AF21" s="19"/>
@@ -5740,7 +5977,7 @@
       <c r="AK21" s="25"/>
       <c r="AL21" s="21"/>
     </row>
-    <row r="22" spans="1:38" ht="18">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>9</v>
       </c>
@@ -5751,19 +5988,19 @@
         <v>50</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="57">
         <v>1</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
@@ -5772,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -5780,7 +6017,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
@@ -5800,7 +6037,7 @@
       <c r="AK22" s="25"/>
       <c r="AL22" s="21"/>
     </row>
-    <row r="23" spans="1:38" ht="18">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>10</v>
       </c>
@@ -5811,13 +6048,13 @@
         <v>50</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="57">
         <v>1</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
@@ -5832,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -5858,7 +6095,7 @@
       <c r="AK23" s="25"/>
       <c r="AL23" s="21"/>
     </row>
-    <row r="24" spans="1:38" ht="17" customHeight="1">
+    <row r="24" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>11</v>
       </c>
@@ -5887,7 +6124,7 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -5913,7 +6150,7 @@
       <c r="AK24" s="25"/>
       <c r="AL24" s="21"/>
     </row>
-    <row r="25" spans="1:38" ht="15">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>12</v>
       </c>
@@ -5924,7 +6161,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" s="57">
         <v>1</v>
@@ -5934,10 +6171,10 @@
       </c>
       <c r="G25" s="57"/>
       <c r="H25" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="I25" s="57" t="s">
         <v>340</v>
-      </c>
-      <c r="I25" s="57" t="s">
-        <v>341</v>
       </c>
       <c r="J25" s="57"/>
       <c r="L25" s="57"/>
@@ -5956,7 +6193,7 @@
         <v>3</v>
       </c>
       <c r="U25" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V25" s="19">
         <v>1</v>
@@ -5986,7 +6223,7 @@
       <c r="AK25" s="25"/>
       <c r="AL25" s="21"/>
     </row>
-    <row r="26" spans="1:38" ht="18">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>13</v>
       </c>
@@ -5997,7 +6234,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E26" s="57">
         <v>2</v>
@@ -6038,7 +6275,7 @@
       <c r="AK26" s="25"/>
       <c r="AL26" s="21"/>
     </row>
-    <row r="27" spans="1:38" ht="15">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>14</v>
       </c>
@@ -6049,7 +6286,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E27" s="57">
         <v>1</v>
@@ -6059,11 +6296,11 @@
       </c>
       <c r="G27" s="57"/>
       <c r="H27" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I27" s="57"/>
       <c r="J27" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -6094,7 +6331,7 @@
       <c r="AK27" s="25"/>
       <c r="AL27" s="21"/>
     </row>
-    <row r="28" spans="1:38" ht="15">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>15</v>
       </c>
@@ -6105,7 +6342,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28" s="57">
         <v>1</v>
@@ -6115,11 +6352,11 @@
       </c>
       <c r="G28" s="57"/>
       <c r="H28" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -6150,7 +6387,7 @@
       <c r="AK28" s="25"/>
       <c r="AL28" s="21"/>
     </row>
-    <row r="29" spans="1:38" ht="18">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>16</v>
       </c>
@@ -6161,7 +6398,7 @@
         <v>42</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E29" s="57">
         <v>1</v>
@@ -6172,10 +6409,10 @@
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
       <c r="I29" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K29" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L29" s="57"/>
       <c r="M29" s="19"/>
@@ -6205,7 +6442,7 @@
       <c r="AK29" s="25"/>
       <c r="AL29" s="21"/>
     </row>
-    <row r="30" spans="1:38" ht="15">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>17</v>
       </c>
@@ -6216,7 +6453,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="57">
         <v>1</v>
@@ -6226,11 +6463,11 @@
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I30" s="57"/>
       <c r="J30" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -6261,7 +6498,7 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="21"/>
     </row>
-    <row r="31" spans="1:38" ht="15">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>18</v>
       </c>
@@ -6272,7 +6509,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="57">
         <v>1</v>
@@ -6282,11 +6519,11 @@
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I31" s="57"/>
       <c r="J31" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
@@ -6317,7 +6554,7 @@
       <c r="AK31" s="25"/>
       <c r="AL31" s="21"/>
     </row>
-    <row r="32" spans="1:38" ht="15">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>19</v>
       </c>
@@ -6328,7 +6565,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="57">
         <v>1</v>
@@ -6338,11 +6575,11 @@
       </c>
       <c r="G32" s="57"/>
       <c r="H32" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I32" s="57"/>
       <c r="J32" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K32" s="57"/>
       <c r="L32" s="57"/>
@@ -6373,7 +6610,7 @@
       <c r="AK32" s="25"/>
       <c r="AL32" s="21"/>
     </row>
-    <row r="33" spans="1:38" ht="15">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>20</v>
       </c>
@@ -6384,17 +6621,17 @@
         <v>42</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="57">
         <v>1</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G33" s="57"/>
       <c r="H33" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
@@ -6427,7 +6664,7 @@
       <c r="AK33" s="25"/>
       <c r="AL33" s="21"/>
     </row>
-    <row r="34" spans="1:38" ht="15">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>21</v>
       </c>
@@ -6438,17 +6675,17 @@
         <v>42</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" s="57">
         <v>1</v>
       </c>
       <c r="F34" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G34" s="57"/>
       <c r="H34" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I34" s="57"/>
       <c r="J34" s="57"/>
@@ -6481,7 +6718,7 @@
       <c r="AK34" s="25"/>
       <c r="AL34" s="21"/>
     </row>
-    <row r="35" spans="1:38" ht="18">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>22</v>
       </c>
@@ -6492,19 +6729,19 @@
         <v>42</v>
       </c>
       <c r="D35" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E35" s="57">
         <v>2</v>
       </c>
       <c r="F35" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
       <c r="I35" s="72"/>
       <c r="J35" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
@@ -6535,7 +6772,7 @@
       <c r="AK35" s="25"/>
       <c r="AL35" s="21"/>
     </row>
-    <row r="36" spans="1:38" ht="18">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>23</v>
       </c>
@@ -6546,19 +6783,19 @@
         <v>42</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36" s="57">
         <v>2</v>
       </c>
       <c r="F36" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
       <c r="I36" s="72"/>
       <c r="J36" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
@@ -6589,7 +6826,7 @@
       <c r="AK36" s="25"/>
       <c r="AL36" s="21"/>
     </row>
-    <row r="37" spans="1:38" ht="18">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>24</v>
       </c>
@@ -6600,18 +6837,18 @@
         <v>42</v>
       </c>
       <c r="D37" s="71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E37" s="57">
         <v>2</v>
       </c>
       <c r="F37" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
       <c r="I37" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J37" s="72"/>
       <c r="K37" s="57"/>
@@ -6643,7 +6880,7 @@
       <c r="AK37" s="25"/>
       <c r="AL37" s="21"/>
     </row>
-    <row r="38" spans="1:38" ht="15">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>25</v>
       </c>
@@ -6654,7 +6891,7 @@
         <v>145</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E38" s="57">
         <v>1</v>
@@ -6664,14 +6901,14 @@
       </c>
       <c r="G38" s="57"/>
       <c r="H38" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I38" s="57"/>
       <c r="J38" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K38" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L38" s="57"/>
       <c r="M38" s="19"/>
@@ -6693,7 +6930,7 @@
         <v>6</v>
       </c>
       <c r="U38" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V38" s="66">
         <v>12</v>
@@ -6723,7 +6960,7 @@
       <c r="AK38" s="25"/>
       <c r="AL38" s="21"/>
     </row>
-    <row r="39" spans="1:38" ht="18">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>26</v>
       </c>
@@ -6734,7 +6971,7 @@
         <v>145</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E39" s="57">
         <v>1</v>
@@ -6775,7 +7012,7 @@
       <c r="AK39" s="25"/>
       <c r="AL39" s="21"/>
     </row>
-    <row r="40" spans="1:38" ht="18">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>27</v>
       </c>
@@ -6786,7 +7023,7 @@
         <v>145</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E40" s="57">
         <v>1</v>
@@ -6798,10 +7035,10 @@
       <c r="H40" s="57"/>
       <c r="I40" s="57"/>
       <c r="J40" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K40" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L40" s="57"/>
       <c r="M40" s="19"/>
@@ -6831,7 +7068,7 @@
       <c r="AK40" s="25"/>
       <c r="AL40" s="21"/>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>28</v>
       </c>
@@ -6842,7 +7079,7 @@
         <v>145</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E41" s="57">
         <v>1</v>
@@ -6852,10 +7089,10 @@
       </c>
       <c r="G41" s="57"/>
       <c r="I41" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K41" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L41" s="57"/>
       <c r="M41" s="19"/>
@@ -6885,7 +7122,7 @@
       <c r="AK41" s="25"/>
       <c r="AL41" s="21"/>
     </row>
-    <row r="42" spans="1:38" ht="18">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>29</v>
       </c>
@@ -6896,7 +7133,7 @@
         <v>145</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E42" s="57">
         <v>1</v>
@@ -6908,10 +7145,10 @@
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
       <c r="J42" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K42" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L42" s="57"/>
       <c r="M42" s="19"/>
@@ -6941,7 +7178,7 @@
       <c r="AK42" s="25"/>
       <c r="AL42" s="21"/>
     </row>
-    <row r="43" spans="1:38" ht="18">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>30</v>
       </c>
@@ -6952,7 +7189,7 @@
         <v>145</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" s="57">
         <v>1</v>
@@ -6964,10 +7201,10 @@
       <c r="H43" s="57"/>
       <c r="I43" s="57"/>
       <c r="J43" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K43" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L43" s="57"/>
       <c r="M43" s="19"/>
@@ -6997,18 +7234,18 @@
       <c r="AK43" s="25"/>
       <c r="AL43" s="21"/>
     </row>
-    <row r="44" spans="1:38" ht="18">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>31</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E44" s="57">
         <v>1</v>
@@ -7027,7 +7264,7 @@
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
       <c r="O44" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -7053,18 +7290,18 @@
       <c r="AK44" s="25"/>
       <c r="AL44" s="21"/>
     </row>
-    <row r="45" spans="1:38" ht="18">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>32</v>
       </c>
       <c r="B45" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="D45" s="56" t="s">
         <v>276</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>277</v>
       </c>
       <c r="E45" s="57">
         <v>1</v>
@@ -7083,7 +7320,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
       <c r="O45" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -7109,18 +7346,18 @@
       <c r="AK45" s="25"/>
       <c r="AL45" s="21"/>
     </row>
-    <row r="46" spans="1:38" ht="18">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>33</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="D46" s="60" t="s">
         <v>268</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>269</v>
       </c>
       <c r="E46" s="49">
         <v>1</v>
@@ -7141,7 +7378,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
@@ -7167,7 +7404,7 @@
       <c r="AK46" s="21"/>
       <c r="AL46" s="30"/>
     </row>
-    <row r="47" spans="1:38" ht="18">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>34</v>
       </c>
@@ -7190,7 +7427,7 @@
       <c r="H47" s="57"/>
       <c r="I47" s="57"/>
       <c r="J47" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
@@ -7199,7 +7436,7 @@
         <v>6</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
@@ -7225,7 +7462,7 @@
       <c r="AK47" s="19"/>
       <c r="AL47" s="19"/>
     </row>
-    <row r="48" spans="1:38" ht="18">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>35</v>
       </c>
@@ -7236,7 +7473,7 @@
         <v>180</v>
       </c>
       <c r="D48" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E48" s="57">
         <v>1</v>
@@ -7255,7 +7492,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
       <c r="O48" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -7281,7 +7518,7 @@
       <c r="AK48" s="19"/>
       <c r="AL48" s="19"/>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>36</v>
       </c>
@@ -7292,7 +7529,7 @@
         <v>50</v>
       </c>
       <c r="D49" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E49" s="18">
         <v>1</v>
@@ -7302,7 +7539,7 @@
       </c>
       <c r="G49" s="57"/>
       <c r="H49" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
@@ -7317,7 +7554,7 @@
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
       <c r="U49" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -7337,18 +7574,18 @@
       <c r="AK49" s="25"/>
       <c r="AL49" s="21"/>
     </row>
-    <row r="50" spans="1:38" ht="18">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>37</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="D50" s="60" t="s">
         <v>233</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>234</v>
       </c>
       <c r="E50" s="18">
         <v>1</v>
@@ -7360,7 +7597,7 @@
       <c r="H50" s="57"/>
       <c r="I50" s="57"/>
       <c r="J50" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K50" s="57"/>
       <c r="L50" s="57"/>
@@ -7373,7 +7610,7 @@
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
       <c r="U50" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -7393,28 +7630,28 @@
       <c r="AK50" s="25"/>
       <c r="AL50" s="21"/>
     </row>
-    <row r="51" spans="1:38" ht="15">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>38</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>179</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E51" s="18">
         <v>1</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G51" s="57"/>
       <c r="H51" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I51" s="57"/>
       <c r="K51" s="57"/>
@@ -7428,7 +7665,7 @@
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
       <c r="U51" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -7448,7 +7685,7 @@
       <c r="AK51" s="25"/>
       <c r="AL51" s="21"/>
     </row>
-    <row r="52" spans="1:38" ht="15">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>39</v>
       </c>
@@ -7469,7 +7706,7 @@
       </c>
       <c r="G52" s="57"/>
       <c r="H52" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I52" s="57"/>
       <c r="J52" s="57"/>
@@ -7484,7 +7721,7 @@
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
       <c r="U52" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -7504,7 +7741,7 @@
       <c r="AK52" s="25"/>
       <c r="AL52" s="21"/>
     </row>
-    <row r="53" spans="1:38" ht="15">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>40</v>
       </c>
@@ -7515,7 +7752,7 @@
         <v>55</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E53" s="18">
         <v>1</v>
@@ -7528,7 +7765,7 @@
         <v>187</v>
       </c>
       <c r="I53" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J53" s="57"/>
       <c r="K53" s="57"/>
@@ -7548,13 +7785,13 @@
         <v>2</v>
       </c>
       <c r="U53" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V53" s="19">
         <v>1</v>
       </c>
       <c r="W53" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X53" s="19"/>
       <c r="Y53" s="19"/>
@@ -7563,7 +7800,7 @@
       <c r="AB53" s="19"/>
       <c r="AC53" s="19"/>
       <c r="AD53" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE53" s="20"/>
       <c r="AF53" s="19"/>
@@ -7574,7 +7811,7 @@
       <c r="AK53" s="19"/>
       <c r="AL53" s="19"/>
     </row>
-    <row r="54" spans="1:38" ht="18">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>41</v>
       </c>
@@ -7585,7 +7822,7 @@
         <v>55</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E54" s="18">
         <v>1</v>
@@ -7597,7 +7834,7 @@
       <c r="H54" s="57"/>
       <c r="I54" s="57"/>
       <c r="J54" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K54" s="57"/>
       <c r="L54" s="49"/>
@@ -7628,7 +7865,7 @@
       <c r="AK54" s="19"/>
       <c r="AL54" s="19"/>
     </row>
-    <row r="55" spans="1:38" ht="18">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>42</v>
       </c>
@@ -7639,7 +7876,7 @@
         <v>55</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E55" s="18">
         <v>1</v>
@@ -7651,7 +7888,7 @@
       <c r="H55" s="57"/>
       <c r="I55" s="57"/>
       <c r="K55" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L55" s="49"/>
       <c r="M55" s="19"/>
@@ -7681,7 +7918,7 @@
       <c r="AK55" s="19"/>
       <c r="AL55" s="19"/>
     </row>
-    <row r="56" spans="1:38" ht="18">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <v>43</v>
       </c>
@@ -7692,7 +7929,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E56" s="18">
         <v>1</v>
@@ -7705,7 +7942,7 @@
       <c r="I56" s="57"/>
       <c r="J56" s="57"/>
       <c r="K56" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L56" s="49"/>
       <c r="M56" s="19"/>
@@ -7735,7 +7972,7 @@
       <c r="AK56" s="19"/>
       <c r="AL56" s="19"/>
     </row>
-    <row r="57" spans="1:38" ht="18">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>44</v>
       </c>
@@ -7746,7 +7983,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E57" s="18">
         <v>1</v>
@@ -7759,7 +7996,7 @@
       <c r="I57" s="57"/>
       <c r="J57" s="57"/>
       <c r="L57" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M57" s="19"/>
       <c r="N57" s="19"/>
@@ -7788,7 +8025,7 @@
       <c r="AK57" s="19"/>
       <c r="AL57" s="19"/>
     </row>
-    <row r="58" spans="1:38" ht="18">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>45</v>
       </c>
@@ -7799,7 +8036,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E58" s="18">
         <v>1</v>
@@ -7840,7 +8077,7 @@
       <c r="AK58" s="19"/>
       <c r="AL58" s="19"/>
     </row>
-    <row r="59" spans="1:38" ht="18">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>46</v>
       </c>
@@ -7848,16 +8085,16 @@
         <v>182</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E59" s="57">
         <v>1</v>
       </c>
       <c r="F59" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G59" s="57"/>
       <c r="H59" s="57"/>
@@ -7865,18 +8102,18 @@
         <v>187</v>
       </c>
       <c r="J59" s="49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M59" s="19"/>
       <c r="N59" s="21">
         <v>2.5</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="21"/>
@@ -7884,7 +8121,7 @@
       <c r="S59" s="21"/>
       <c r="T59" s="19"/>
       <c r="U59" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V59" s="21"/>
       <c r="W59" s="21"/>
@@ -7895,7 +8132,7 @@
       <c r="AB59" s="21"/>
       <c r="AC59" s="21"/>
       <c r="AD59" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE59" s="21"/>
       <c r="AF59" s="21"/>
@@ -7906,7 +8143,7 @@
       <c r="AK59" s="21"/>
       <c r="AL59" s="21"/>
     </row>
-    <row r="60" spans="1:38" ht="17" customHeight="1">
+    <row r="60" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>47</v>
       </c>
@@ -7917,21 +8154,21 @@
         <v>179</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E60" s="49">
         <v>1</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G60" s="57"/>
       <c r="H60" s="57"/>
       <c r="I60" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J60" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K60" s="57"/>
       <c r="L60" s="57"/>
@@ -7962,7 +8199,7 @@
       <c r="AK60" s="25"/>
       <c r="AL60" s="21"/>
     </row>
-    <row r="61" spans="1:38" ht="17" customHeight="1">
+    <row r="61" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>48</v>
       </c>
@@ -7973,18 +8210,18 @@
         <v>179</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E61" s="49">
         <v>1</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
       <c r="I61" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J61" s="57"/>
       <c r="K61" s="57"/>
@@ -8016,7 +8253,7 @@
       <c r="AK61" s="25"/>
       <c r="AL61" s="21"/>
     </row>
-    <row r="62" spans="1:38" ht="17" customHeight="1">
+    <row r="62" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>49</v>
       </c>
@@ -8027,13 +8264,13 @@
         <v>179</v>
       </c>
       <c r="D62" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E62" s="49">
         <v>1</v>
       </c>
       <c r="F62" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G62" s="57"/>
       <c r="H62" s="57"/>
@@ -8041,7 +8278,7 @@
       <c r="J62" s="57"/>
       <c r="K62" s="57"/>
       <c r="L62" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
@@ -8070,7 +8307,7 @@
       <c r="AK62" s="25"/>
       <c r="AL62" s="21"/>
     </row>
-    <row r="63" spans="1:38" ht="18">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>50</v>
       </c>
@@ -8081,23 +8318,23 @@
         <v>33</v>
       </c>
       <c r="D63" s="60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E63" s="49">
         <v>1</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G63" s="57"/>
       <c r="H63" s="49"/>
       <c r="I63" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J63" s="49"/>
       <c r="K63" s="49"/>
       <c r="L63" s="49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M63" s="21"/>
       <c r="N63" s="21"/>
@@ -8126,7 +8363,7 @@
       <c r="AK63" s="21"/>
       <c r="AL63" s="21"/>
     </row>
-    <row r="64" spans="1:38" ht="18">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>51</v>
       </c>
@@ -8137,18 +8374,18 @@
         <v>59</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E64" s="49">
         <v>1</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G64" s="49"/>
       <c r="H64" s="49"/>
       <c r="I64" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J64" s="49"/>
       <c r="K64" s="49"/>
@@ -8180,7 +8417,7 @@
       <c r="AK64" s="21"/>
       <c r="AL64" s="30"/>
     </row>
-    <row r="65" spans="1:38" ht="18">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>52</v>
       </c>
@@ -8191,7 +8428,7 @@
         <v>40</v>
       </c>
       <c r="D65" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E65" s="57">
         <v>2</v>
@@ -8210,7 +8447,7 @@
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
       <c r="O65" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P65" s="19" t="s">
         <v>36</v>
@@ -8254,7 +8491,7 @@
       <c r="AK65" s="25"/>
       <c r="AL65" s="21"/>
     </row>
-    <row r="66" spans="1:38" ht="18">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>53</v>
       </c>
@@ -8265,7 +8502,7 @@
         <v>173</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E66" s="57">
         <v>2</v>
@@ -8284,7 +8521,7 @@
       <c r="M66" s="19"/>
       <c r="N66" s="62"/>
       <c r="O66" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P66" s="62">
         <f>N66*0.2</f>
@@ -8336,7 +8573,7 @@
       <c r="AK66" s="25"/>
       <c r="AL66" s="21"/>
     </row>
-    <row r="67" spans="1:38" ht="18">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <v>54</v>
       </c>
@@ -8347,7 +8584,7 @@
         <v>179</v>
       </c>
       <c r="D67" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E67" s="57">
         <v>2</v>
@@ -8360,13 +8597,13 @@
       <c r="I67" s="57"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L67" s="57"/>
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
       <c r="O67" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P67" s="19"/>
       <c r="Q67" s="19"/>
@@ -8392,7 +8629,7 @@
       <c r="AK67" s="19"/>
       <c r="AL67" s="19"/>
     </row>
-    <row r="68" spans="1:38" ht="18">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>55</v>
       </c>
@@ -8403,7 +8640,7 @@
         <v>179</v>
       </c>
       <c r="D68" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E68" s="57">
         <v>2</v>
@@ -8416,13 +8653,13 @@
       <c r="I68" s="57"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L68" s="57"/>
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
       <c r="O68" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
@@ -8448,28 +8685,28 @@
       <c r="AK68" s="19"/>
       <c r="AL68" s="19"/>
     </row>
-    <row r="69" spans="1:38" ht="15">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <v>56</v>
       </c>
       <c r="B69" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="26" t="s">
-        <v>245</v>
-      </c>
       <c r="D69" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E69" s="49">
         <v>2</v>
       </c>
       <c r="F69" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G69" s="49"/>
       <c r="H69" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I69" s="49"/>
       <c r="J69" s="49"/>
@@ -8502,28 +8739,28 @@
       <c r="AK69" s="21"/>
       <c r="AL69" s="30"/>
     </row>
-    <row r="70" spans="1:38" ht="15">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <v>57</v>
       </c>
       <c r="B70" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>245</v>
-      </c>
       <c r="D70" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E70" s="49">
         <v>2</v>
       </c>
       <c r="F70" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G70" s="49"/>
       <c r="H70" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I70" s="49"/>
       <c r="J70" s="49"/>
@@ -8556,24 +8793,24 @@
       <c r="AK70" s="21"/>
       <c r="AL70" s="30"/>
     </row>
-    <row r="71" spans="1:38" ht="18">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="D71" s="31" t="s">
         <v>343</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>344</v>
       </c>
       <c r="E71" s="26"/>
       <c r="F71" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G71" s="26"/>
       <c r="H71" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I71" s="26"/>
       <c r="J71" s="26"/>
@@ -8606,24 +8843,24 @@
       <c r="AK71" s="19"/>
       <c r="AL71" s="19"/>
     </row>
-    <row r="72" spans="1:38" ht="18">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>343</v>
-      </c>
       <c r="D72" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G72" s="26"/>
       <c r="H72" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I72" s="26"/>
       <c r="J72" s="26"/>
@@ -8688,7 +8925,7 @@
       <c r="AK72" s="19"/>
       <c r="AL72" s="19"/>
     </row>
-    <row r="73" spans="1:38" ht="15" customHeight="1">
+    <row r="73" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -9013,110 +9250,109 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H46"/>
+  <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C26"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="5"/>
     <col min="2" max="2" width="5.42578125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="11.5703125" style="5"/>
+    <col min="3" max="3" width="4.7109375" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="11.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="C4" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="C5" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="C7" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="C12" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="C13" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="C17" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>1</v>
       </c>
@@ -9124,143 +9360,153 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="5">
+      <c r="C25" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
         <v>3</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="5">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
         <v>4</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="5">
+      <c r="C27" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
         <v>5</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="21">
-      <c r="B31" s="68" t="s">
+    <row r="30" spans="2:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="B30" s="68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="69"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="69" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="C32" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="69"/>
-    </row>
-    <row r="41" spans="3:8">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G41" s="69" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8">
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9272,14 +9518,14 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="47" customFormat="1">
+    <row r="1" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>144</v>
       </c>
@@ -9299,7 +9545,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="46" customFormat="1">
+    <row r="2" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>118</v>
       </c>
@@ -9314,7 +9560,7 @@
       </c>
       <c r="E2" s="45"/>
     </row>
-    <row r="3" spans="1:6" s="46" customFormat="1">
+    <row r="3" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="44" t="s">
@@ -9325,7 +9571,7 @@
       </c>
       <c r="E3" s="45"/>
     </row>
-    <row r="4" spans="1:6" s="46" customFormat="1">
+    <row r="4" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="44" t="s">
@@ -9336,7 +9582,7 @@
       </c>
       <c r="E4" s="45"/>
     </row>
-    <row r="5" spans="1:6" s="46" customFormat="1">
+    <row r="5" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="44" t="s">
         <v>122</v>
       </c>
@@ -9345,7 +9591,7 @@
       </c>
       <c r="E5" s="45"/>
     </row>
-    <row r="6" spans="1:6" s="46" customFormat="1">
+    <row r="6" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="44" t="s">
         <v>123</v>
       </c>
@@ -9354,7 +9600,7 @@
       </c>
       <c r="E6" s="45"/>
     </row>
-    <row r="7" spans="1:6" s="46" customFormat="1">
+    <row r="7" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="44" t="s">
         <v>124</v>
       </c>
@@ -9365,7 +9611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="46" customFormat="1">
+    <row r="8" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="44" t="s">
         <v>125</v>
       </c>
@@ -9374,7 +9620,7 @@
       </c>
       <c r="E8" s="45"/>
     </row>
-    <row r="9" spans="1:6" s="46" customFormat="1">
+    <row r="9" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="44" t="s">
         <v>126</v>
       </c>
@@ -9385,7 +9631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="46" customFormat="1">
+    <row r="10" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="44" t="s">
         <v>127</v>
       </c>
@@ -9394,7 +9640,7 @@
       </c>
       <c r="E10" s="45"/>
     </row>
-    <row r="11" spans="1:6" s="46" customFormat="1">
+    <row r="11" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="44" t="s">
         <v>128</v>
       </c>
@@ -9403,7 +9649,7 @@
       </c>
       <c r="E11" s="45"/>
     </row>
-    <row r="12" spans="1:6" s="46" customFormat="1">
+    <row r="12" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="44" t="s">
         <v>129</v>
       </c>
@@ -9412,7 +9658,7 @@
       </c>
       <c r="E12" s="45"/>
     </row>
-    <row r="13" spans="1:6" s="46" customFormat="1">
+    <row r="13" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="44" t="s">
         <v>130</v>
       </c>
@@ -9423,7 +9669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="46" customFormat="1">
+    <row r="14" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="44" t="s">
         <v>131</v>
       </c>
@@ -9432,7 +9678,7 @@
       </c>
       <c r="E14" s="45"/>
     </row>
-    <row r="15" spans="1:6" s="46" customFormat="1">
+    <row r="15" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="44" t="s">
         <v>133</v>
       </c>
@@ -9441,7 +9687,7 @@
       </c>
       <c r="E15" s="45"/>
     </row>
-    <row r="16" spans="1:6" s="46" customFormat="1">
+    <row r="16" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="44" t="s">
         <v>134</v>
       </c>
@@ -9450,7 +9696,7 @@
       </c>
       <c r="E16" s="45"/>
     </row>
-    <row r="17" spans="1:5" s="46" customFormat="1">
+    <row r="17" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="44" t="s">
         <v>135</v>
       </c>
@@ -9461,7 +9707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="46" customFormat="1">
+    <row r="18" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="44" t="s">
         <v>136</v>
       </c>
@@ -9470,7 +9716,7 @@
       </c>
       <c r="E18" s="45"/>
     </row>
-    <row r="19" spans="1:5" s="46" customFormat="1">
+    <row r="19" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="44" t="s">
         <v>137</v>
       </c>
@@ -9479,7 +9725,7 @@
       </c>
       <c r="E19" s="45"/>
     </row>
-    <row r="20" spans="1:5" s="46" customFormat="1">
+    <row r="20" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>138</v>
       </c>
@@ -9488,7 +9734,7 @@
       </c>
       <c r="E20" s="45"/>
     </row>
-    <row r="21" spans="1:5" s="46" customFormat="1">
+    <row r="21" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="44" t="s">
@@ -9499,7 +9745,7 @@
       </c>
       <c r="E21" s="45"/>
     </row>
-    <row r="22" spans="1:5" s="46" customFormat="1">
+    <row r="22" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="44" t="s">
@@ -9510,7 +9756,7 @@
       </c>
       <c r="E22" s="45"/>
     </row>
-    <row r="23" spans="1:5" s="46" customFormat="1">
+    <row r="23" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="44" t="s">
@@ -9523,7 +9769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="46" customFormat="1">
+    <row r="24" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="45"/>
       <c r="C24" s="44" t="s">
@@ -9534,7 +9780,7 @@
       </c>
       <c r="E24" s="45"/>
     </row>
-    <row r="25" spans="1:5" s="46" customFormat="1">
+    <row r="25" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="45"/>
       <c r="C25" s="43" t="s">
@@ -9549,7 +9795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="46" customFormat="1">
+    <row r="26" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="44" t="s">
         <v>111</v>
@@ -9562,7 +9808,7 @@
       </c>
       <c r="E26" s="45"/>
     </row>
-    <row r="27" spans="1:5" s="46" customFormat="1">
+    <row r="27" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="45"/>
       <c r="C27" s="43" t="s">
@@ -9573,7 +9819,7 @@
       </c>
       <c r="E27" s="43"/>
     </row>
-    <row r="29" spans="1:5" s="41" customFormat="1">
+    <row r="29" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>147</v>
       </c>
@@ -9588,7 +9834,7 @@
       </c>
       <c r="E29" s="37"/>
     </row>
-    <row r="30" spans="1:5" s="41" customFormat="1">
+    <row r="30" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37" t="s">
@@ -9599,7 +9845,7 @@
       </c>
       <c r="E30" s="37"/>
     </row>
-    <row r="31" spans="1:5" s="41" customFormat="1">
+    <row r="31" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37" t="s">
@@ -9610,7 +9856,7 @@
       </c>
       <c r="E31" s="37"/>
     </row>
-    <row r="32" spans="1:5" s="41" customFormat="1">
+    <row r="32" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37" t="s">
@@ -9621,7 +9867,7 @@
       </c>
       <c r="E32" s="37"/>
     </row>
-    <row r="33" spans="1:8" s="41" customFormat="1">
+    <row r="33" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37" t="s">
@@ -9632,7 +9878,7 @@
       </c>
       <c r="E33" s="37"/>
     </row>
-    <row r="34" spans="1:8" s="41" customFormat="1">
+    <row r="34" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37" t="s">
@@ -9643,7 +9889,7 @@
       </c>
       <c r="E34" s="37"/>
     </row>
-    <row r="35" spans="1:8" s="41" customFormat="1">
+    <row r="35" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37" t="s">
@@ -9654,7 +9900,7 @@
       </c>
       <c r="E35" s="37"/>
     </row>
-    <row r="36" spans="1:8" s="41" customFormat="1">
+    <row r="36" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37" t="s">
@@ -9665,7 +9911,7 @@
       </c>
       <c r="E36" s="37"/>
     </row>
-    <row r="37" spans="1:8" s="41" customFormat="1">
+    <row r="37" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37" t="s">
@@ -9676,7 +9922,7 @@
       </c>
       <c r="E37" s="37"/>
     </row>
-    <row r="38" spans="1:8" s="41" customFormat="1">
+    <row r="38" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37" t="s">
@@ -9687,7 +9933,7 @@
       </c>
       <c r="E38" s="37"/>
     </row>
-    <row r="39" spans="1:8" s="41" customFormat="1">
+    <row r="39" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="50" t="s">
@@ -9697,7 +9943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="41" customFormat="1">
+    <row r="40" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="48" t="s">
@@ -9714,8 +9960,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="41" customFormat="1"/>
-    <row r="42" spans="1:8">
+    <row r="41" spans="1:8" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>96</v>
       </c>
@@ -9724,7 +9970,7 @@
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="39" t="s">
         <v>100</v>
@@ -9740,7 +9986,7 @@
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="36"/>
       <c r="C44" s="39" t="s">
@@ -9754,7 +10000,7 @@
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="36"/>
       <c r="C45" s="39" t="s">
@@ -9768,7 +10014,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="36"/>
       <c r="C46" s="39" t="s">
@@ -9782,7 +10028,7 @@
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="36"/>
       <c r="C47" s="39" t="s">
@@ -9796,7 +10042,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="36"/>
       <c r="C48" s="39" t="s">
@@ -9810,7 +10056,7 @@
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="36"/>
       <c r="C49" s="40" t="s">
@@ -9824,7 +10070,7 @@
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="36"/>
       <c r="C50" s="40" t="s">
@@ -9838,7 +10084,7 @@
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="36"/>
       <c r="C51" s="39" t="s">
@@ -9854,7 +10100,7 @@
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="36"/>
       <c r="C52" s="35" t="s">
@@ -9874,7 +10120,7 @@
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="39" t="s">
         <v>111</v>
@@ -9886,7 +10132,7 @@
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="36"/>
       <c r="C54" s="39" t="s">
@@ -9900,7 +10146,7 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="36"/>
       <c r="C55" s="39" t="s">
@@ -9914,7 +10160,7 @@
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="36"/>
       <c r="C56" s="39" t="s">
@@ -9928,7 +10174,7 @@
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="36"/>
       <c r="C57" s="39" t="s">
@@ -9942,7 +10188,7 @@
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="36"/>
       <c r="C58" s="39" t="s">
@@ -9956,7 +10202,7 @@
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="35" t="s">
@@ -9972,7 +10218,7 @@
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
         <v>161</v>
       </c>
@@ -9980,10 +10226,5 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="34640" windowHeight="19380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑3" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="任务细分" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑3!$A$13:$AR$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑3!$A$13:$AR$77</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="364">
   <si>
     <t>分类</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3056,10 +3056,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>D1，封文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>策划文档D4</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
@@ -3354,6 +3350,129 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>yi'xie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑的进度永远不会比黑板上的快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他问题：</t>
+    <rPh sb="0" eb="1">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会填表格太多</t>
+  </si>
+  <si>
+    <t>周版本内任务无法完成的，周末加班补上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已讨论</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tao'lun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划文档，封文档，程序开发</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4，封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档，程序开发</t>
+    <rPh sb="0" eb="1">
+      <t>feng'wen'dang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng'xu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>策划文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，封文档</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <rPh sb="0" eb="1">
+      <t>qu'xiao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：QA测试</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择-副本入口配置&amp;数据结构</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ru'kou</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3841,7 +3960,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4023,6 +4142,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="190">
@@ -4217,7 +4339,113 @@
     <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="79">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4727,6 +4955,39 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -5067,14 +5328,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR73"/>
+  <dimension ref="A1:AR77"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="12" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane xSplit="4" ySplit="12" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16:D18"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5086,7 +5347,7 @@
     <col min="5" max="5" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="5"/>
     <col min="7" max="7" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="5" customWidth="1"/>
     <col min="10" max="11" width="18" style="5" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" style="6" customWidth="1"/>
@@ -5483,7 +5744,7 @@
         <v>337</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="J14" s="73" t="s">
         <v>252</v>
@@ -5548,10 +5809,10 @@
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57" t="s">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="K15" s="57" t="s">
         <v>239</v>
@@ -5743,9 +6004,9 @@
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="I18" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="I18" s="76" t="s">
         <v>216</v>
       </c>
       <c r="J18" s="57"/>
@@ -6171,10 +6432,10 @@
       </c>
       <c r="G25" s="57"/>
       <c r="H25" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="I25" s="57" t="s">
         <v>339</v>
-      </c>
-      <c r="I25" s="57" t="s">
-        <v>340</v>
       </c>
       <c r="J25" s="57"/>
       <c r="L25" s="57"/>
@@ -6295,10 +6556,12 @@
         <v>49</v>
       </c>
       <c r="G27" s="57"/>
-      <c r="H27" s="57" t="s">
+      <c r="H27" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="I27" s="57"/>
+      <c r="I27" s="57" t="s">
+        <v>60</v>
+      </c>
       <c r="J27" s="57" t="s">
         <v>293</v>
       </c>
@@ -6351,10 +6614,12 @@
         <v>49</v>
       </c>
       <c r="G28" s="57"/>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="I28" s="57"/>
+      <c r="I28" s="57" t="s">
+        <v>60</v>
+      </c>
       <c r="J28" s="57" t="s">
         <v>293</v>
       </c>
@@ -6411,6 +6676,7 @@
       <c r="I29" s="57" t="s">
         <v>252</v>
       </c>
+      <c r="J29" s="57"/>
       <c r="K29" s="57" t="s">
         <v>293</v>
       </c>
@@ -6453,22 +6719,19 @@
         <v>42</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="E30" s="57">
         <v>1</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="I30" s="57"/>
-      <c r="J30" s="57" t="s">
-        <v>293</v>
-      </c>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
       <c r="M30" s="19"/>
@@ -6509,7 +6772,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E31" s="57">
         <v>1</v>
@@ -6565,7 +6828,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" s="57">
         <v>1</v>
@@ -6573,7 +6836,9 @@
       <c r="F32" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="57"/>
+      <c r="G32" s="57" t="s">
+        <v>360</v>
+      </c>
       <c r="H32" s="57" t="s">
         <v>217</v>
       </c>
@@ -6620,21 +6885,23 @@
       <c r="C33" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="71" t="s">
-        <v>218</v>
+      <c r="D33" s="59" t="s">
+        <v>228</v>
       </c>
       <c r="E33" s="57">
         <v>1</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="G33" s="57"/>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="57" t="s">
         <v>217</v>
       </c>
       <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
+      <c r="J33" s="57" t="s">
+        <v>293</v>
+      </c>
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
       <c r="M33" s="19"/>
@@ -6675,7 +6942,7 @@
         <v>42</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="57">
         <v>1</v>
@@ -6729,20 +6996,20 @@
         <v>42</v>
       </c>
       <c r="D35" s="71" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E35" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="57" t="s">
         <v>252</v>
       </c>
       <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72" t="s">
+      <c r="H35" s="72" t="s">
         <v>217</v>
       </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
       <c r="M35" s="19"/>
@@ -6783,7 +7050,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E36" s="57">
         <v>2</v>
@@ -6837,7 +7104,7 @@
         <v>42</v>
       </c>
       <c r="D37" s="71" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="E37" s="57">
         <v>2</v>
@@ -6847,10 +7114,10 @@
       </c>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="72"/>
+      <c r="J37" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="J37" s="72"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
       <c r="M37" s="19"/>
@@ -6884,73 +7151,47 @@
       <c r="A38" s="18">
         <v>25</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>43</v>
+      <c r="B38" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>270</v>
+        <v>42</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>290</v>
       </c>
       <c r="E38" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="57" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="G38" s="57"/>
-      <c r="H38" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="K38" s="57" t="s">
-        <v>239</v>
-      </c>
+      <c r="H38" s="57"/>
+      <c r="I38" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="J38" s="72"/>
+      <c r="K38" s="57"/>
       <c r="L38" s="57"/>
       <c r="M38" s="19"/>
-      <c r="N38" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="O38" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="P38" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q38" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="66">
-        <v>6</v>
-      </c>
-      <c r="U38" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="V38" s="66">
-        <v>12</v>
-      </c>
-      <c r="W38" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64">
-        <v>1.5</v>
-      </c>
-      <c r="AC38" s="64">
-        <v>4</v>
-      </c>
-      <c r="AD38" s="64" t="s">
-        <v>177</v>
-      </c>
+      <c r="N38" s="19"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
@@ -6970,8 +7211,8 @@
       <c r="C39" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="70" t="s">
-        <v>238</v>
+      <c r="D39" s="56" t="s">
+        <v>270</v>
       </c>
       <c r="E39" s="57">
         <v>1</v>
@@ -6980,29 +7221,57 @@
         <v>49</v>
       </c>
       <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
+      <c r="H39" s="57" t="s">
+        <v>240</v>
+      </c>
       <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
+      <c r="J39" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="K39" s="57" t="s">
+        <v>239</v>
+      </c>
       <c r="L39" s="57"/>
       <c r="M39" s="19"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
+      <c r="N39" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="O39" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="P39" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q39" s="64" t="s">
+        <v>174</v>
+      </c>
       <c r="R39" s="64"/>
       <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
+      <c r="T39" s="66">
+        <v>6</v>
+      </c>
+      <c r="U39" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="V39" s="66">
+        <v>12</v>
+      </c>
+      <c r="W39" s="64" t="s">
+        <v>176</v>
+      </c>
       <c r="X39" s="64"/>
       <c r="Y39" s="64"/>
       <c r="Z39" s="64"/>
       <c r="AA39" s="64"/>
-      <c r="AB39" s="64"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
+      <c r="AB39" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="AC39" s="64">
+        <v>4</v>
+      </c>
+      <c r="AD39" s="64" t="s">
+        <v>177</v>
+      </c>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
@@ -7022,8 +7291,8 @@
       <c r="C40" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="58" t="s">
-        <v>222</v>
+      <c r="D40" s="70" t="s">
+        <v>238</v>
       </c>
       <c r="E40" s="57">
         <v>1</v>
@@ -7034,12 +7303,8 @@
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
       <c r="I40" s="57"/>
-      <c r="J40" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="K40" s="57" t="s">
-        <v>239</v>
-      </c>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
       <c r="L40" s="57"/>
       <c r="M40" s="19"/>
       <c r="N40" s="64"/>
@@ -7079,7 +7344,7 @@
         <v>145</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E41" s="57">
         <v>1</v>
@@ -7088,7 +7353,9 @@
         <v>49</v>
       </c>
       <c r="G41" s="57"/>
-      <c r="I41" s="57" t="s">
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57" t="s">
         <v>217</v>
       </c>
       <c r="K41" s="57" t="s">
@@ -7133,7 +7400,7 @@
         <v>145</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="57">
         <v>1</v>
@@ -7142,9 +7409,7 @@
         <v>49</v>
       </c>
       <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57" t="s">
+      <c r="I42" s="57" t="s">
         <v>217</v>
       </c>
       <c r="K42" s="57" t="s">
@@ -7189,7 +7454,7 @@
         <v>145</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E43" s="57">
         <v>1</v>
@@ -7238,50 +7503,50 @@
       <c r="A44" s="18">
         <v>31</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>274</v>
+      <c r="B44" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>277</v>
+        <v>145</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>224</v>
       </c>
       <c r="E44" s="57">
         <v>1</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
       <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
+      <c r="J44" s="57" t="s">
+        <v>217</v>
+      </c>
       <c r="K44" s="57" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="L44" s="57"/>
       <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="20"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="64"/>
+      <c r="AD44" s="64"/>
+      <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
@@ -7298,10 +7563,10 @@
         <v>274</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E45" s="57">
         <v>1</v>
@@ -7320,7 +7585,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
       <c r="O45" s="23" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -7351,148 +7616,148 @@
         <v>33</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="E46" s="49">
+        <v>275</v>
+      </c>
+      <c r="D46" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" s="57">
         <v>1</v>
       </c>
       <c r="F46" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49" t="s">
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="L46" s="49"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21">
-        <v>2</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
       <c r="T46" s="19"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="30"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="25"/>
+      <c r="AL46" s="21"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>34</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="57">
+      <c r="B47" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="49">
         <v>1</v>
       </c>
       <c r="F47" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19">
-        <v>6</v>
-      </c>
-      <c r="O47" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="L47" s="49"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21">
+        <v>2</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
       <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21"/>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21"/>
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="30"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>35</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>181</v>
+      <c r="B48" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="59" t="s">
-        <v>214</v>
+        <v>179</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>191</v>
       </c>
       <c r="E48" s="57">
         <v>1</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="G48" s="57"/>
       <c r="H48" s="57"/>
       <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57" t="s">
-        <v>187</v>
-      </c>
+      <c r="J48" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="K48" s="57"/>
       <c r="L48" s="57"/>
       <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
+      <c r="N48" s="19">
+        <v>6</v>
+      </c>
       <c r="O48" s="23" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -7522,40 +7787,40 @@
       <c r="A49" s="18">
         <v>36</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="E49" s="18">
+      <c r="B49" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="57">
         <v>1</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>185</v>
+      <c r="F49" s="57" t="s">
+        <v>91</v>
       </c>
       <c r="G49" s="57"/>
-      <c r="H49" s="57" t="s">
-        <v>265</v>
-      </c>
+      <c r="H49" s="57"/>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
+      <c r="K49" s="57" t="s">
+        <v>187</v>
+      </c>
       <c r="L49" s="57"/>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
-      <c r="O49" s="26"/>
+      <c r="O49" s="23" t="s">
+        <v>212</v>
+      </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
-      <c r="U49" s="19" t="s">
-        <v>317</v>
-      </c>
+      <c r="U49" s="19"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
       <c r="X49" s="19"/>
@@ -7565,27 +7830,27 @@
       <c r="AB49" s="19"/>
       <c r="AC49" s="19"/>
       <c r="AD49" s="19"/>
-      <c r="AE49" s="20"/>
+      <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="24"/>
-      <c r="AK49" s="25"/>
-      <c r="AL49" s="21"/>
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="19"/>
+      <c r="AL49" s="19"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>37</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="E50" s="18">
         <v>1</v>
@@ -7593,12 +7858,14 @@
       <c r="F50" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
+      <c r="G50" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="H50" s="57" t="s">
+        <v>265</v>
+      </c>
       <c r="I50" s="57"/>
-      <c r="J50" s="57" t="s">
-        <v>265</v>
-      </c>
+      <c r="J50" s="57"/>
       <c r="K50" s="57"/>
       <c r="L50" s="57"/>
       <c r="M50" s="19"/>
@@ -7610,7 +7877,7 @@
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
       <c r="U50" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -7635,25 +7902,26 @@
         <v>38</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="E51" s="18">
         <v>1</v>
       </c>
-      <c r="F51" s="57" t="s">
-        <v>264</v>
+      <c r="F51" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="G51" s="57"/>
-      <c r="H51" s="57" t="s">
-        <v>264</v>
-      </c>
+      <c r="H51" s="57"/>
       <c r="I51" s="57"/>
+      <c r="J51" s="57" t="s">
+        <v>265</v>
+      </c>
       <c r="K51" s="57"/>
       <c r="L51" s="57"/>
       <c r="M51" s="19"/>
@@ -7665,7 +7933,7 @@
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
       <c r="U51" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -7690,26 +7958,27 @@
         <v>39</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="29" t="s">
         <v>179</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="E52" s="18">
         <v>1</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="57"/>
+        <v>264</v>
+      </c>
+      <c r="G52" s="57" t="s">
+        <v>361</v>
+      </c>
       <c r="H52" s="57" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
       <c r="M52" s="19"/>
@@ -7745,71 +8014,59 @@
       <c r="A53" s="18">
         <v>40</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>54</v>
+      <c r="B53" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>280</v>
+        <v>179</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>178</v>
       </c>
       <c r="E53" s="18">
         <v>1</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="57"/>
+      <c r="F53" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="57" t="s">
+        <v>361</v>
+      </c>
       <c r="H53" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="I53" s="57" t="s">
-        <v>262</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="I53" s="57"/>
       <c r="J53" s="57"/>
       <c r="K53" s="57"/>
-      <c r="L53" s="49"/>
+      <c r="L53" s="57"/>
       <c r="M53" s="19"/>
-      <c r="N53" s="19">
-        <v>3</v>
-      </c>
-      <c r="O53" s="23" t="s">
-        <v>30</v>
-      </c>
+      <c r="N53" s="19"/>
+      <c r="O53" s="26"/>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
-      <c r="T53" s="19">
-        <v>2</v>
-      </c>
+      <c r="T53" s="19"/>
       <c r="U53" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="V53" s="19">
-        <v>1</v>
-      </c>
-      <c r="W53" s="19" t="s">
-        <v>321</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
       <c r="X53" s="19"/>
       <c r="Y53" s="19"/>
       <c r="Z53" s="19"/>
       <c r="AA53" s="19"/>
       <c r="AB53" s="19"/>
       <c r="AC53" s="19"/>
-      <c r="AD53" s="19" t="s">
-        <v>316</v>
-      </c>
+      <c r="AD53" s="19"/>
       <c r="AE53" s="20"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="25"/>
+      <c r="AL53" s="21"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
@@ -7822,7 +8079,7 @@
         <v>55</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E54" s="18">
         <v>1</v>
@@ -7831,31 +8088,47 @@
         <v>60</v>
       </c>
       <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57" t="s">
-        <v>252</v>
-      </c>
+      <c r="H54" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="I54" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="J54" s="57"/>
       <c r="K54" s="57"/>
       <c r="L54" s="49"/>
       <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="23"/>
+      <c r="N54" s="19">
+        <v>3</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
+      <c r="T54" s="19">
+        <v>2</v>
+      </c>
+      <c r="U54" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="V54" s="19">
+        <v>1</v>
+      </c>
+      <c r="W54" s="19" t="s">
+        <v>321</v>
+      </c>
       <c r="X54" s="19"/>
       <c r="Y54" s="19"/>
       <c r="Z54" s="19"/>
       <c r="AA54" s="19"/>
       <c r="AB54" s="19"/>
       <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
+      <c r="AD54" s="19" t="s">
+        <v>316</v>
+      </c>
       <c r="AE54" s="20"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
@@ -7876,7 +8149,7 @@
         <v>55</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E55" s="18">
         <v>1</v>
@@ -7887,9 +8160,10 @@
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
       <c r="I55" s="57"/>
-      <c r="K55" s="57" t="s">
+      <c r="J55" s="57" t="s">
         <v>252</v>
       </c>
+      <c r="K55" s="57"/>
       <c r="L55" s="49"/>
       <c r="M55" s="19"/>
       <c r="N55" s="19"/>
@@ -7929,7 +8203,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E56" s="18">
         <v>1</v>
@@ -7940,7 +8214,6 @@
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
       <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
       <c r="K56" s="57" t="s">
         <v>252</v>
       </c>
@@ -7983,7 +8256,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E57" s="18">
         <v>1</v>
@@ -7995,9 +8268,10 @@
       <c r="H57" s="57"/>
       <c r="I57" s="57"/>
       <c r="J57" s="57"/>
-      <c r="L57" s="57" t="s">
+      <c r="K57" s="57" t="s">
         <v>252</v>
       </c>
+      <c r="L57" s="49"/>
       <c r="M57" s="19"/>
       <c r="N57" s="19"/>
       <c r="O57" s="23"/>
@@ -8036,7 +8310,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E58" s="18">
         <v>1</v>
@@ -8048,8 +8322,9 @@
       <c r="H58" s="57"/>
       <c r="I58" s="57"/>
       <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="49"/>
+      <c r="L58" s="57" t="s">
+        <v>252</v>
+      </c>
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
       <c r="O58" s="23"/>
@@ -8081,122 +8356,118 @@
       <c r="A59" s="18">
         <v>46</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D59" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="E59" s="57">
+      <c r="B59" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" s="18">
         <v>1</v>
       </c>
-      <c r="F59" s="57" t="s">
-        <v>252</v>
+      <c r="F59" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="G59" s="57"/>
       <c r="H59" s="57"/>
-      <c r="I59" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="J59" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="49" t="s">
-        <v>252</v>
-      </c>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="49"/>
       <c r="M59" s="19"/>
-      <c r="N59" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="O59" s="21" t="s">
-        <v>325</v>
-      </c>
+      <c r="N59" s="19"/>
+      <c r="O59" s="23"/>
       <c r="P59" s="19"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
       <c r="T59" s="19"/>
-      <c r="U59" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
-      <c r="AA59" s="21"/>
-      <c r="AB59" s="21"/>
-      <c r="AC59" s="21"/>
-      <c r="AD59" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE59" s="21"/>
-      <c r="AF59" s="21"/>
-      <c r="AG59" s="21"/>
-      <c r="AH59" s="21"/>
-      <c r="AI59" s="21"/>
-      <c r="AJ59" s="21"/>
-      <c r="AK59" s="21"/>
-      <c r="AL59" s="21"/>
-    </row>
-    <row r="60" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="20"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="19"/>
+      <c r="AL59" s="19"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>47</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="D60" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="E60" s="49">
+        <v>182</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" s="57">
         <v>1</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G60" s="57"/>
       <c r="H60" s="57"/>
       <c r="I60" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="J60" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
+        <v>187</v>
+      </c>
+      <c r="J60" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="49" t="s">
+        <v>252</v>
+      </c>
       <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="23"/>
+      <c r="N60" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>325</v>
+      </c>
       <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
       <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="20"/>
-      <c r="AF60" s="19"/>
-      <c r="AG60" s="19"/>
-      <c r="AH60" s="19"/>
-      <c r="AI60" s="19"/>
-      <c r="AJ60" s="24"/>
-      <c r="AK60" s="25"/>
+      <c r="U60" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
       <c r="AL60" s="21"/>
     </row>
     <row r="61" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -8210,7 +8481,7 @@
         <v>179</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="E61" s="49">
         <v>1</v>
@@ -8221,9 +8492,11 @@
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
       <c r="I61" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="J61" s="57"/>
+        <v>295</v>
+      </c>
+      <c r="J61" s="57" t="s">
+        <v>234</v>
+      </c>
       <c r="K61" s="57"/>
       <c r="L61" s="57"/>
       <c r="M61" s="19"/>
@@ -8264,7 +8537,7 @@
         <v>179</v>
       </c>
       <c r="D62" s="60" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="E62" s="49">
         <v>1</v>
@@ -8274,12 +8547,12 @@
       </c>
       <c r="G62" s="57"/>
       <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
+      <c r="I62" s="57" t="s">
+        <v>299</v>
+      </c>
       <c r="J62" s="57"/>
       <c r="K62" s="57"/>
-      <c r="L62" s="57" t="s">
-        <v>302</v>
-      </c>
+      <c r="L62" s="57"/>
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
       <c r="O62" s="23"/>
@@ -8307,60 +8580,58 @@
       <c r="AK62" s="25"/>
       <c r="AL62" s="21"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>50</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="D63" s="60" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="E63" s="49">
         <v>1</v>
       </c>
-      <c r="F63" s="49" t="s">
-        <v>299</v>
+      <c r="F63" s="57" t="s">
+        <v>234</v>
       </c>
       <c r="G63" s="57"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
       <c r="T63" s="19"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="21"/>
-      <c r="AA63" s="21"/>
-      <c r="AB63" s="21"/>
-      <c r="AC63" s="21"/>
-      <c r="AD63" s="21"/>
-      <c r="AE63" s="21"/>
-      <c r="AF63" s="21"/>
-      <c r="AG63" s="21"/>
-      <c r="AH63" s="21"/>
-      <c r="AI63" s="21"/>
-      <c r="AJ63" s="21"/>
-      <c r="AK63" s="21"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="25"/>
       <c r="AL63" s="21"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
@@ -8368,28 +8639,30 @@
         <v>51</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E64" s="49">
         <v>1</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="G64" s="49"/>
+        <v>299</v>
+      </c>
+      <c r="G64" s="57"/>
       <c r="H64" s="49"/>
       <c r="I64" s="49" t="s">
         <v>235</v>
       </c>
       <c r="J64" s="49"/>
       <c r="K64" s="49"/>
-      <c r="L64" s="73"/>
+      <c r="L64" s="49" t="s">
+        <v>296</v>
+      </c>
       <c r="M64" s="21"/>
       <c r="N64" s="21"/>
       <c r="O64" s="21"/>
@@ -8415,94 +8688,74 @@
       <c r="AI64" s="21"/>
       <c r="AJ64" s="21"/>
       <c r="AK64" s="21"/>
-      <c r="AL64" s="30"/>
+      <c r="AL64" s="21"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>52</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="E65" s="57">
-        <v>2</v>
-      </c>
-      <c r="F65" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="L65" s="57"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="P65" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q65" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19">
-        <v>3</v>
-      </c>
-      <c r="U65" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="V65" s="27">
-        <v>8</v>
-      </c>
-      <c r="W65" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="19"/>
-      <c r="Z65" s="19"/>
-      <c r="AA65" s="19"/>
-      <c r="AB65" s="19">
+        <v>59</v>
+      </c>
+      <c r="D65" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="49">
         <v>1</v>
       </c>
-      <c r="AC65" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AD65" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE65" s="20"/>
-      <c r="AF65" s="19"/>
-      <c r="AG65" s="19"/>
-      <c r="AH65" s="19"/>
-      <c r="AI65" s="19"/>
-      <c r="AJ65" s="24"/>
-      <c r="AK65" s="25"/>
-      <c r="AL65" s="21"/>
+      <c r="F65" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="30"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>53</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="E66" s="57">
         <v>2</v>
@@ -8519,52 +8772,44 @@
       </c>
       <c r="L66" s="57"/>
       <c r="M66" s="19"/>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="P66" s="62">
-        <f>N66*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="R66" s="62"/>
-      <c r="S66" s="62"/>
-      <c r="T66" s="62">
-        <v>6</v>
-      </c>
-      <c r="U66" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="V66" s="62">
-        <v>6</v>
-      </c>
-      <c r="W66" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="X66" s="63"/>
-      <c r="Y66" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="Z66" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="AA66" s="62">
-        <f>Y66*0.25</f>
-        <v>0.125</v>
-      </c>
-      <c r="AB66" s="62">
+      <c r="N66" s="19"/>
+      <c r="O66" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="P66" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q66" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19">
+        <v>3</v>
+      </c>
+      <c r="U66" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="V66" s="27">
+        <v>8</v>
+      </c>
+      <c r="W66" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19">
         <v>1</v>
       </c>
-      <c r="AC66" s="62">
-        <v>1</v>
-      </c>
-      <c r="AD66" s="62" t="s">
+      <c r="AC66" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AD66" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AE66" s="19"/>
+      <c r="AE66" s="20"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
@@ -8577,14 +8822,14 @@
       <c r="A67" s="18">
         <v>54</v>
       </c>
-      <c r="B67" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>179</v>
+      <c r="B67" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="D67" s="56" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="E67" s="57">
         <v>2</v>
@@ -8597,37 +8842,63 @@
       <c r="I67" s="57"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="L67" s="57"/>
       <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="19"/>
-      <c r="Z67" s="19"/>
-      <c r="AA67" s="19"/>
-      <c r="AB67" s="19"/>
-      <c r="AC67" s="19"/>
-      <c r="AD67" s="19"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="P67" s="62">
+        <f>N67*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="62">
+        <v>6</v>
+      </c>
+      <c r="U67" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="V67" s="62">
+        <v>6</v>
+      </c>
+      <c r="W67" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="X67" s="63"/>
+      <c r="Y67" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="Z67" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="AA67" s="62">
+        <f>Y67*0.25</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB67" s="62">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="62">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="62" t="s">
+        <v>37</v>
+      </c>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="19"/>
-      <c r="AK67" s="19"/>
-      <c r="AL67" s="19"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="25"/>
+      <c r="AL67" s="21"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
@@ -8640,7 +8911,7 @@
         <v>179</v>
       </c>
       <c r="D68" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E68" s="57">
         <v>2</v>
@@ -8659,7 +8930,7 @@
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
       <c r="O68" s="23" t="s">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
@@ -8689,55 +8960,57 @@
       <c r="A69" s="18">
         <v>56</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="D69" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="49">
+      <c r="B69" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="57">
         <v>2</v>
       </c>
-      <c r="F69" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
+      <c r="F69" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="L69" s="57"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
       <c r="T69" s="19"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21"/>
-      <c r="AD69" s="21"/>
-      <c r="AE69" s="21"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="30"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
+      <c r="AG69" s="19"/>
+      <c r="AH69" s="19"/>
+      <c r="AI69" s="19"/>
+      <c r="AJ69" s="19"/>
+      <c r="AK69" s="19"/>
+      <c r="AL69" s="19"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
@@ -8750,7 +9023,7 @@
         <v>244</v>
       </c>
       <c r="D70" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E70" s="49">
         <v>2</v>
@@ -8759,10 +9032,12 @@
         <v>294</v>
       </c>
       <c r="G70" s="49"/>
-      <c r="H70" s="49" t="s">
+      <c r="H70" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="I70" s="49"/>
+      <c r="I70" s="49" t="s">
+        <v>362</v>
+      </c>
       <c r="J70" s="49"/>
       <c r="K70" s="49"/>
       <c r="L70" s="49"/>
@@ -8794,129 +9069,107 @@
       <c r="AL70" s="30"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
-      <c r="B71" s="26" t="s">
+      <c r="A71" s="18">
+        <v>58</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="49">
+        <v>2</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="G71" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="H71" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+      <c r="AK71" s="21"/>
+      <c r="AL71" s="30"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A72" s="18">
+        <v>59</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C72" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="D72" s="31" t="s">
         <v>342</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="26"/>
-      <c r="V71" s="26"/>
-      <c r="W71" s="26"/>
-      <c r="X71" s="26"/>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="26"/>
-      <c r="AA71" s="19"/>
-      <c r="AB71" s="19"/>
-      <c r="AC71" s="19"/>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="20"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="19"/>
-      <c r="AH71" s="19"/>
-      <c r="AI71" s="19"/>
-      <c r="AJ71" s="19"/>
-      <c r="AK71" s="19"/>
-      <c r="AL71" s="19"/>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>345</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="G72" s="26"/>
+        <v>343</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>361</v>
+      </c>
       <c r="H72" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I72" s="26"/>
       <c r="J72" s="26"/>
       <c r="K72" s="26"/>
       <c r="L72" s="26"/>
       <c r="M72" s="26"/>
-      <c r="N72" s="26">
-        <f>SUM(N13:N71)</f>
-        <v>28</v>
-      </c>
+      <c r="N72" s="26"/>
       <c r="O72" s="26"/>
-      <c r="P72" s="26">
-        <f>SUM(P25:P71)</f>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="26">
-        <f>SUM(Q25:Q71)*1.5</f>
-        <v>1.125</v>
-      </c>
-      <c r="R72" s="26">
-        <f>SUM(R25:R71)</f>
-        <v>0</v>
-      </c>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
       <c r="S72" s="26"/>
-      <c r="T72" s="27">
-        <f>SUM(T13:T71)*1.5</f>
-        <v>30</v>
-      </c>
+      <c r="T72" s="19"/>
       <c r="U72" s="26"/>
-      <c r="V72" s="27">
-        <f>SUM(V13:V71)*1.5</f>
-        <v>42</v>
-      </c>
-      <c r="W72" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z72" s="26">
-        <f>SUM(Z13:Z71)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AA72" s="19">
-        <f>SUM(AA13:AA71)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AB72" s="19">
-        <f>SUM(AB13:AB71)</f>
-        <v>4</v>
-      </c>
-      <c r="AC72" s="19">
-        <f>SUM(AC13:AC71)*1.3</f>
-        <v>11.05</v>
-      </c>
+      <c r="V72" s="26"/>
+      <c r="W72" s="26"/>
+      <c r="X72" s="26"/>
+      <c r="Y72" s="26"/>
+      <c r="Z72" s="26"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
-      <c r="AE72" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="AE72" s="20"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
@@ -8925,38 +9178,84 @@
       <c r="AK72" s="19"/>
       <c r="AL72" s="19"/>
     </row>
-    <row r="73" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="32"/>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A73" s="18">
+        <v>60</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>344</v>
+      </c>
       <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
+      <c r="F73" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>343</v>
+      </c>
       <c r="I73" s="26"/>
       <c r="J73" s="26"/>
       <c r="K73" s="26"/>
       <c r="L73" s="26"/>
       <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
+      <c r="N73" s="26">
+        <f>SUM(N13:N72)</f>
+        <v>28</v>
+      </c>
       <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
+      <c r="P73" s="26">
+        <f>SUM(P25:P72)</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="26">
+        <f>SUM(Q25:Q72)*1.5</f>
+        <v>1.125</v>
+      </c>
+      <c r="R73" s="26">
+        <f>SUM(R25:R72)</f>
+        <v>0</v>
+      </c>
       <c r="S73" s="26"/>
-      <c r="T73" s="26"/>
+      <c r="T73" s="27">
+        <f>SUM(T13:T72)*1.5</f>
+        <v>30</v>
+      </c>
       <c r="U73" s="26"/>
-      <c r="V73" s="26"/>
-      <c r="W73" s="26"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="26"/>
-      <c r="Z73" s="26"/>
-      <c r="AA73" s="19"/>
-      <c r="AB73" s="19"/>
-      <c r="AC73" s="19"/>
+      <c r="V73" s="27">
+        <f>SUM(V13:V72)*1.5</f>
+        <v>42</v>
+      </c>
+      <c r="W73" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z73" s="26">
+        <f>SUM(Z13:Z72)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA73" s="19">
+        <f>SUM(AA13:AA72)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB73" s="19">
+        <f>SUM(AB13:AB72)</f>
+        <v>4</v>
+      </c>
+      <c r="AC73" s="19">
+        <f>SUM(AC13:AC72)*1.3</f>
+        <v>11.05</v>
+      </c>
       <c r="AD73" s="19"/>
-      <c r="AE73" s="20"/>
+      <c r="AE73" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
@@ -8965,286 +9264,480 @@
       <c r="AK73" s="19"/>
       <c r="AL73" s="19"/>
     </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
+        <v>61</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="26"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="33"/>
+      <c r="Z74" s="26"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="19"/>
+      <c r="AC74" s="19"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="20"/>
+      <c r="AF74" s="19"/>
+      <c r="AG74" s="19"/>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="19"/>
+      <c r="AJ74" s="19"/>
+      <c r="AK74" s="19"/>
+      <c r="AL74" s="19"/>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
+        <v>62</v>
+      </c>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="33"/>
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="19"/>
+      <c r="AB75" s="19"/>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="19"/>
+      <c r="AG75" s="19"/>
+      <c r="AH75" s="19"/>
+      <c r="AI75" s="19"/>
+      <c r="AJ75" s="19"/>
+      <c r="AK75" s="19"/>
+      <c r="AL75" s="19"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="26"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="33"/>
+      <c r="Z76" s="26"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="20"/>
+      <c r="AF76" s="19"/>
+      <c r="AG76" s="19"/>
+      <c r="AH76" s="19"/>
+      <c r="AI76" s="19"/>
+      <c r="AJ76" s="19"/>
+      <c r="AK76" s="19"/>
+      <c r="AL76" s="19"/>
+    </row>
+    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+      <c r="V77" s="26"/>
+      <c r="W77" s="26"/>
+      <c r="X77" s="26"/>
+      <c r="Y77" s="26"/>
+      <c r="Z77" s="26"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="20"/>
+      <c r="AF77" s="19"/>
+      <c r="AG77" s="19"/>
+      <c r="AH77" s="19"/>
+      <c r="AI77" s="19"/>
+      <c r="AJ77" s="19"/>
+      <c r="AK77" s="19"/>
+      <c r="AL77" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A13:AR73"/>
+  <autoFilter ref="A13:AR77"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Z72 H73:Z73 H72:W72 AA71:AL73 H71:Z71 P3:S8 F7:F8 D12 H12:M12 A13:AL13 P10:S11 F10:F11 B70:C70 L25:AL25 B25:J25 B69:G69 H69:AL70 L59:AL59 K24:AL24 B24:I24 B60:H60 J60:AL60 B66:AL68 B59:J59 K51:AL51 B51:I51 K55:AL55 L57:AL57 G57:J57 G58:AL58 G55:I55 G56:AL56 B52:AL53 F55:F58 F54:AL54 B54:E58 B20:G20 B35:H36 J35:S36 K29:S29 B27:I27 I20:S20 B23:AL23 B40:I40 B43:J43 B14:I16 B17:J17 B18:I19 J27:S28 B33:S34 B31:E32 G31:S32 B28:E29 G28:I29 F28:F32 E70:H70 B44:AL50 B61:AL64 B65:J65 L65:AL65 L14:AL14 L15:T19 B22:T22 B21:S21 T20:T21 B26:AL26 B37:S37 W27:AL29 W31:AL37 T27:V37 B38:AL39 K40:AL43 U15:AL22 B71:G73 B42:I42 B41:G41 I41">
-    <cfRule type="cellIs" dxfId="61" priority="139" operator="equal">
+  <conditionalFormatting sqref="Z73:Z76 H77:Z77 H73:W76 AA72:AL77 H72:Z72 P3:S8 F7:F8 D12 H12:M12 A13:AL13 P10:S11 F10:F11 B71:C71 L25:AL25 B25:J25 B70:G70 H70:AL71 L60:AL60 K24:AL24 B24:I24 B61:H61 J61:AL61 B67:AL69 B60:J60 K52:AL52 B52:I52 K56:AL56 L58:AL58 G58:J58 G59:AL59 G56:I56 G57:AL57 B53:AL54 F56:F59 F55:AL55 B55:E59 B20:G20 B36:H37 J36:S37 K29:S30 B27:H27 I20:S20 B23:AL23 B41:I41 B44:J44 B14:I16 B17:J17 B18:I19 J27:S28 B34:S35 B32:E33 G32:S33 G29:I30 F28:F33 E71:H71 B45:AL51 B62:AL65 B66:J66 L66:AL66 L14:AL14 L15:T19 B22:T22 B21:S21 T20:T21 B26:AL26 B38:S38 W27:AL30 W32:AL38 T27:V38 B39:AL40 K41:AL44 U15:AL22 B72:G77 B43:I43 B42:G42 I42 G28:H28 B28:E30">
+    <cfRule type="cellIs" dxfId="74" priority="147" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52 L25:N25 E25:J25 E38:F43 P44:P45 E44:E45 F24 F66 F60:F62 E21 P14:P19 P59 P21 V20:AD20 P20:S20 E20:G20 E35:H36 J35:N36 K29:N29 E27:I27 I20:N20 J27:N28 E37:N37 V25:AD26 W31:AD37 P25:T26 P31:S37 E26:N26 E33:N34 E31:E32 G31:N32 E28:E29 G28:I29 F28:F32 P27:S29 W27:AD29 T27:T37 U26:V37">
-    <cfRule type="cellIs" dxfId="60" priority="141" operator="equal">
+  <conditionalFormatting sqref="F53 L25:N25 E25:J25 E39:F44 P45:P46 E45:E46 F24 F67 F61:F63 E21 P14:P19 P60 P21 V20:AD20 P20:S20 E20:G20 E36:H37 J36:N37 K29:N30 E27:H27 I20:N20 J27:N28 E38:N38 V25:AD26 W32:AD38 P25:T26 P32:S38 E26:N26 E34:N35 E32:E33 G32:N33 E28:E30 G29:I30 F28:F33 P27:S30 W27:AD30 T27:T38 U26:V38 G28:H28">
+    <cfRule type="cellIs" dxfId="73" priority="149" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="142" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="72" priority="150" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ49:AJ52 F52 AJ13 I2:I6 L25:N25 E25:J25 E38:F43 P44:P45 E44:E45 F24 F60:F62 F66 AJ60:AJ62 E21 AJ65:AJ66 P14:P19 P59 P21 V20:AD20 P20:S20 E20:G20 E35:H36 J35:N36 K29:N29 E27:I27 I20:N20 J27:N28 E37:N37 V25:AD26 W31:AD37 P25:T26 P31:S37 E26:N26 AJ20:AJ29 AJ31:AJ45 E33:N34 E31:E32 G31:N32 E28:E29 G28:I29 F28:F32 P27:S29 W27:AD29 T27:T37 U26:V37">
-    <cfRule type="cellIs" dxfId="58" priority="140" operator="equal">
+  <conditionalFormatting sqref="AJ50:AJ53 F53 AJ13 I2:I6 L25:N25 E25:J25 E39:F44 P45:P46 E45:E46 F24 F61:F63 F67 AJ61:AJ63 E21 AJ66:AJ67 P14:P19 P60 P21 V20:AD20 P20:S20 E20:G20 E36:H37 J36:N37 K29:N30 E27:H27 I20:N20 J27:N28 E38:N38 V25:AD26 W32:AD38 P25:T26 P32:S38 E26:N26 AJ20:AJ30 AJ32:AJ46 E34:N35 E32:E33 G32:N33 E28:E30 G29:I30 F28:F33 P27:S30 W27:AD30 T27:T38 U26:V38 G28:H28">
+    <cfRule type="cellIs" dxfId="71" priority="148" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
+  <conditionalFormatting sqref="K41">
+    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="70" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K40)))</formula>
+    <cfRule type="containsText" dxfId="69" priority="78" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="55" priority="68" operator="equal">
+  <conditionalFormatting sqref="K41">
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:K43">
-    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
+  <conditionalFormatting sqref="K42:K44">
+    <cfRule type="cellIs" dxfId="67" priority="74" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="67" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K41)))</formula>
+    <cfRule type="containsText" dxfId="66" priority="75" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:K43">
-    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+  <conditionalFormatting sqref="K42:K44">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+  <conditionalFormatting sqref="L44">
+    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="64" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",L43)))</formula>
+    <cfRule type="containsText" dxfId="63" priority="72" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",L44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="49" priority="62" operator="equal">
+  <conditionalFormatting sqref="L44">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="48" priority="61" operator="equal">
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:E30 G30:I30 I35:I36 K30:S30 W30:AL30">
-    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
+  <conditionalFormatting sqref="B31:E31 G31:I31 I36:I37 K31:S31 W31:AL31">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30 P30:S30 W30:AD30 G30:I30 I35:I36 K30:N30">
-    <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
+  <conditionalFormatting sqref="E31 P31:S31 W31:AD31 G31:I31 I36:I37 K31:N31">
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
+    <cfRule type="containsText" dxfId="58" priority="68" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30 AJ30 P30:S30 W30:AD30 G30:I30 I35:I36 K30:N30">
-    <cfRule type="cellIs" dxfId="44" priority="58" operator="equal">
+  <conditionalFormatting sqref="E31 AJ31 P31:S31 W31:AD31 G31:I31 I36:I37 K31:N31">
+    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+  <conditionalFormatting sqref="K66">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+  <conditionalFormatting sqref="I61">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40 J42">
-    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+  <conditionalFormatting sqref="J41 J43">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="44" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="42" priority="40" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+  <conditionalFormatting sqref="K39">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K38)))</formula>
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+  <conditionalFormatting sqref="K39">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",J30)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I28">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I28">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",I27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I28">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9255,10 +9748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I45"/>
+  <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -9329,7 +9822,7 @@
         <v>335</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -9337,22 +9830,22 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>1</v>
       </c>
@@ -9360,30 +9853,30 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>3</v>
       </c>
@@ -9391,7 +9884,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>4</v>
       </c>
@@ -9399,7 +9892,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>5</v>
       </c>
@@ -9407,99 +9900,126 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="B30" s="68" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B35" s="68" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="67" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="67" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="67" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="67" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="67" t="s">
+      <c r="H41" s="67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="67" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="67" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="69"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
+      <c r="G44" s="69"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="G45" s="69" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="5" t="s">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="5" t="s">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
         <v>205</v>
       </c>
     </row>

--- a/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="36720" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="10340" yWindow="700" windowWidth="24160" windowHeight="19300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑3" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="380">
   <si>
     <t>分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1501,10 +1501,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UI层级逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>day6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1799,9 +1795,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>封文档</t>
-  </si>
-  <si>
     <t>原型-文字版</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2151,17 +2144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>角色-原画*10（3D+2周）</t>
-    <rPh sb="13" eb="14">
-      <t>zhou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景-原画*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>美术资源</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
@@ -3376,10 +3358,6 @@
     <rPh sb="7" eb="8">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发，QA测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3399,7 +3377,7 @@
         <sz val="10"/>
         <color rgb="FF0432FF"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>各制作方工期估算且MT审批通过</t>
     </r>
@@ -3438,7 +3416,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>，封文档</t>
     </r>
@@ -3459,7 +3437,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>程序开发</t>
     </r>
@@ -3490,7 +3468,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>程序开发</t>
     </r>
@@ -3511,7 +3489,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>对局掉落表现，对局间承接关系表现，对局胜利</t>
     </r>
@@ -3520,7 +3498,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>-表现相关工作取消）</t>
     </r>
@@ -3594,7 +3572,78 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>策划文档，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <charset val="136"/>
+      </rPr>
+      <t>封文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术规范</t>
+  </si>
+  <si>
+    <t>美术规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划后续工作安排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色-原画*10（3D+2周）--4</t>
+    <rPh sb="13" eb="14">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景-原画*2- 森林，冥河各1个小场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-UI层级逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>程序开发，QA测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容项</t>
+    <rPh sb="0" eb="1">
+      <t>nei'rong'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'mu</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3753,31 +3802,31 @@
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0432FF"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4427,7 +4476,7 @@
     <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="180">
+  <dxfs count="229">
     <dxf>
       <fill>
         <patternFill>
@@ -4438,7 +4487,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4471,20 +4520,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4523,6 +4558,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4537,20 +4579,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4577,14 +4605,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4617,27 +4638,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4676,6 +4676,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4690,27 +4697,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4749,6 +4735,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4763,27 +4756,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4810,6 +4782,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4836,6 +4815,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4867,13 +4867,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4907,6 +4900,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4921,20 +4921,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4973,6 +4959,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4987,48 +4980,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5055,7 +5006,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5093,13 +5044,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5114,6 +5058,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5145,13 +5103,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5173,7 +5124,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5206,20 +5157,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5258,6 +5195,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5272,34 +5216,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5338,6 +5254,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5352,20 +5275,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5392,13 +5301,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5444,6 +5346,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5458,27 +5367,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5505,6 +5393,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5531,6 +5426,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5557,6 +5459,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5602,6 +5511,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5616,20 +5532,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5656,6 +5558,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5689,28 +5598,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5743,27 +5631,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5783,6 +5650,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5809,6 +5711,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5835,6 +5744,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5875,6 +5791,32 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -5883,6 +5825,541 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6236,11 +6713,11 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="12" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="12" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6295,7 +6772,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="34" t="s">
@@ -6318,7 +6795,7 @@
         <v>76</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="34" t="s">
@@ -6339,14 +6816,14 @@
         <v>79</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="34" t="s">
         <v>85</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I5" s="2"/>
       <c r="P5" s="36"/>
@@ -6360,7 +6837,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="34" t="s">
@@ -6381,7 +6858,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="34" t="s">
@@ -6401,7 +6878,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="34" t="s">
@@ -6428,7 +6905,7 @@
         <v>90</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -6633,10 +7110,10 @@
         <v>182</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E14" s="49">
         <v>1</v>
@@ -6646,22 +7123,24 @@
       </c>
       <c r="G14" s="49"/>
       <c r="H14" s="49" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J14" s="51"/>
       <c r="K14" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="L14" s="50"/>
+        <v>369</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>370</v>
+      </c>
       <c r="M14" s="22"/>
       <c r="N14" s="53">
         <v>1</v>
       </c>
       <c r="O14" s="53" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="53"/>
@@ -6669,7 +7148,7 @@
       <c r="S14" s="53"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="V14" s="53"/>
       <c r="W14" s="53"/>
@@ -6680,7 +7159,7 @@
       <c r="AB14" s="53"/>
       <c r="AC14" s="53"/>
       <c r="AD14" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE14" s="53"/>
       <c r="AF14" s="53"/>
@@ -6699,10 +7178,10 @@
         <v>182</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="48" t="s">
         <v>247</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>248</v>
       </c>
       <c r="E15" s="49">
         <v>1</v>
@@ -6712,16 +7191,16 @@
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="49" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="J15" s="50" t="s">
         <v>60</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L15" s="50"/>
       <c r="M15" s="22"/>
@@ -6729,7 +7208,7 @@
         <v>0.5</v>
       </c>
       <c r="O15" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="53"/>
@@ -6737,7 +7216,7 @@
       <c r="S15" s="53"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="V15" s="53"/>
       <c r="W15" s="53"/>
@@ -6748,7 +7227,7 @@
       <c r="AB15" s="53"/>
       <c r="AC15" s="53"/>
       <c r="AD15" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE15" s="53"/>
       <c r="AF15" s="53"/>
@@ -6767,10 +7246,10 @@
         <v>182</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E16" s="49">
         <v>1</v>
@@ -6780,16 +7259,16 @@
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L16" s="50"/>
       <c r="M16" s="22"/>
@@ -6797,7 +7276,7 @@
         <v>0.5</v>
       </c>
       <c r="O16" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="53"/>
@@ -6805,7 +7284,7 @@
       <c r="S16" s="53"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="V16" s="53"/>
       <c r="W16" s="53"/>
@@ -6816,7 +7295,7 @@
       <c r="AB16" s="53"/>
       <c r="AC16" s="53"/>
       <c r="AD16" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE16" s="53"/>
       <c r="AF16" s="53"/>
@@ -6835,10 +7314,10 @@
         <v>182</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E17" s="49">
         <v>1</v>
@@ -6848,22 +7327,22 @@
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K17" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="22"/>
       <c r="N17" s="53"/>
       <c r="O17" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="53"/>
@@ -6871,7 +7350,7 @@
       <c r="S17" s="53"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="V17" s="53"/>
       <c r="W17" s="53"/>
@@ -6882,7 +7361,7 @@
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE17" s="53"/>
       <c r="AF17" s="53"/>
@@ -6901,10 +7380,10 @@
         <v>182</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="49">
         <v>1</v>
@@ -6914,14 +7393,14 @@
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="49" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="22"/>
@@ -6929,7 +7408,7 @@
         <v>0.5</v>
       </c>
       <c r="O18" s="53" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P18" s="22"/>
       <c r="Q18" s="53"/>
@@ -6937,7 +7416,7 @@
       <c r="S18" s="53"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="V18" s="53"/>
       <c r="W18" s="53"/>
@@ -6948,7 +7427,7 @@
       <c r="AB18" s="53"/>
       <c r="AC18" s="53"/>
       <c r="AD18" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE18" s="53"/>
       <c r="AF18" s="53"/>
@@ -6967,10 +7446,10 @@
         <v>182</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E19" s="49">
         <v>1</v>
@@ -6983,13 +7462,13 @@
         <v>187</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K19" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L19" s="50"/>
       <c r="M19" s="22"/>
@@ -6997,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="53" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P19" s="22"/>
       <c r="Q19" s="53"/>
@@ -7005,7 +7484,7 @@
       <c r="S19" s="53"/>
       <c r="T19" s="22"/>
       <c r="U19" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="V19" s="53"/>
       <c r="W19" s="53"/>
@@ -7016,7 +7495,7 @@
       <c r="AB19" s="53"/>
       <c r="AC19" s="53"/>
       <c r="AD19" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE19" s="53"/>
       <c r="AF19" s="53"/>
@@ -7038,7 +7517,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E20" s="49">
         <v>1</v>
@@ -7048,11 +7527,11 @@
       </c>
       <c r="G20" s="49"/>
       <c r="I20" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="22"/>
@@ -7064,7 +7543,7 @@
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
       <c r="U20" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
@@ -7075,7 +7554,7 @@
       <c r="AB20" s="22"/>
       <c r="AC20" s="22"/>
       <c r="AD20" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE20" s="22"/>
       <c r="AF20" s="22"/>
@@ -7097,7 +7576,7 @@
         <v>118</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E21" s="49">
         <v>1</v>
@@ -7110,11 +7589,11 @@
         <v>187</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L21" s="49"/>
       <c r="M21" s="22"/>
@@ -7128,7 +7607,7 @@
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
       <c r="U21" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
@@ -7139,7 +7618,7 @@
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
       <c r="AD21" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE21" s="59"/>
       <c r="AF21" s="22"/>
@@ -7161,28 +7640,30 @@
         <v>50</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E22" s="49">
         <v>1</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
-      <c r="J22" s="49" t="s">
-        <v>210</v>
+      <c r="J22" s="73" t="s">
+        <v>209</v>
       </c>
       <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
+      <c r="L22" s="49" t="s">
+        <v>187</v>
+      </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22">
         <v>4</v>
       </c>
       <c r="O22" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
@@ -7190,7 +7671,7 @@
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
@@ -7221,28 +7702,30 @@
         <v>50</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="73" t="s">
         <v>187</v>
       </c>
       <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
+      <c r="L23" s="49" t="s">
+        <v>187</v>
+      </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22">
         <v>2</v>
       </c>
       <c r="O23" s="57" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
@@ -7288,7 +7771,7 @@
         <v>187</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="49" t="s">
@@ -7299,7 +7782,7 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
@@ -7336,22 +7819,22 @@
         <v>40</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E25" s="49">
         <v>1</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J25" s="49"/>
       <c r="L25" s="49"/>
@@ -7370,7 +7853,7 @@
         <v>3</v>
       </c>
       <c r="U25" s="22" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="V25" s="22">
         <v>1</v>
@@ -7411,7 +7894,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E26" s="49">
         <v>2</v>
@@ -7463,7 +7946,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="49">
         <v>1</v>
@@ -7471,17 +7954,21 @@
       <c r="F27" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="49"/>
+      <c r="G27" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H27" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I27" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="K27" s="49"/>
+      <c r="J27" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="K27" s="49" t="s">
+        <v>287</v>
+      </c>
       <c r="L27" s="49"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
@@ -7521,7 +8008,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E28" s="49">
         <v>1</v>
@@ -7529,17 +8016,21 @@
       <c r="F28" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="49"/>
+      <c r="G28" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H28" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I28" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="K28" s="49"/>
+      <c r="J28" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>287</v>
+      </c>
       <c r="L28" s="49"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
@@ -7579,7 +8070,7 @@
         <v>42</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E29" s="49">
         <v>1</v>
@@ -7587,13 +8078,18 @@
       <c r="F29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H29" s="49"/>
       <c r="I29" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="J29" s="49" t="s">
-        <v>289</v>
+        <v>250</v>
+      </c>
+      <c r="J29" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="K29" s="49" t="s">
+        <v>287</v>
       </c>
       <c r="L29" s="49"/>
       <c r="M29" s="22"/>
@@ -7634,7 +8130,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E30" s="49">
         <v>1</v>
@@ -7642,14 +8138,16 @@
       <c r="F30" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K30" s="49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L30" s="49"/>
       <c r="M30" s="22"/>
@@ -7690,20 +8188,24 @@
         <v>42</v>
       </c>
       <c r="D31" s="56" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E31" s="49">
         <v>1</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="G31" s="49"/>
+        <v>287</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H31" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I31" s="49"/>
-      <c r="K31" s="49"/>
+      <c r="K31" s="49" t="s">
+        <v>287</v>
+      </c>
       <c r="L31" s="49"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -7743,7 +8245,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E32" s="49">
         <v>1</v>
@@ -7751,15 +8253,19 @@
       <c r="F32" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H32" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I32" s="49"/>
-      <c r="J32" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="K32" s="49"/>
+      <c r="J32" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>287</v>
+      </c>
       <c r="L32" s="49"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -7799,23 +8305,27 @@
         <v>42</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E33" s="49">
         <v>1</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="49"/>
+        <v>250</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H33" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I33" s="49"/>
-      <c r="J33" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="K33" s="49"/>
+      <c r="J33" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" s="49" t="s">
+        <v>287</v>
+      </c>
       <c r="L33" s="49"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -7855,18 +8365,20 @@
         <v>42</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E34" s="49">
         <v>1</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="G34" s="49"/>
+        <v>250</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="I34" s="49"/>
       <c r="J34" s="49" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K34" s="49"/>
       <c r="L34" s="49"/>
@@ -7908,19 +8420,21 @@
         <v>42</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E35" s="49">
         <v>1</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="G35" s="49"/>
+        <v>250</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H35" s="49"/>
       <c r="I35" s="49"/>
       <c r="J35" s="49" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K35" s="49"/>
       <c r="L35" s="49"/>
@@ -7962,17 +8476,17 @@
         <v>42</v>
       </c>
       <c r="D36" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E36" s="49">
         <v>1</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G36" s="49"/>
       <c r="H36" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I36" s="49"/>
       <c r="J36" s="49"/>
@@ -8016,17 +8530,17 @@
         <v>42</v>
       </c>
       <c r="D37" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" s="49">
         <v>1</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G37" s="49"/>
       <c r="H37" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I37" s="49"/>
       <c r="J37" s="49"/>
@@ -8070,19 +8584,19 @@
         <v>42</v>
       </c>
       <c r="D38" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E38" s="49">
         <v>2</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G38" s="49"/>
       <c r="H38" s="49"/>
       <c r="I38" s="62"/>
       <c r="J38" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K38" s="49"/>
       <c r="L38" s="49"/>
@@ -8124,19 +8638,19 @@
         <v>42</v>
       </c>
       <c r="D39" s="63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E39" s="49">
         <v>2</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="49"/>
       <c r="I39" s="62"/>
       <c r="J39" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K39" s="49"/>
       <c r="L39" s="49"/>
@@ -8178,18 +8692,18 @@
         <v>42</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E40" s="49">
         <v>2</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J40" s="62"/>
       <c r="K40" s="49"/>
@@ -8232,7 +8746,7 @@
         <v>145</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E41" s="49">
         <v>1</v>
@@ -8242,14 +8756,14 @@
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="49" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K41" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L41" s="49"/>
       <c r="M41" s="22"/>
@@ -8271,7 +8785,7 @@
         <v>6</v>
       </c>
       <c r="U41" s="22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="V41" s="24">
         <v>12</v>
@@ -8312,7 +8826,7 @@
         <v>145</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E42" s="49">
         <v>1</v>
@@ -8364,7 +8878,7 @@
         <v>145</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E43" s="49">
         <v>1</v>
@@ -8376,10 +8890,10 @@
       <c r="H43" s="49"/>
       <c r="I43" s="49"/>
       <c r="J43" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K43" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L43" s="49"/>
       <c r="M43" s="22"/>
@@ -8420,7 +8934,7 @@
         <v>145</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E44" s="49">
         <v>1</v>
@@ -8430,13 +8944,13 @@
       </c>
       <c r="G44" s="49"/>
       <c r="I44" s="73" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="J44" s="49" t="s">
         <v>60</v>
       </c>
       <c r="K44" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L44" s="49"/>
       <c r="M44" s="22"/>
@@ -8477,7 +8991,7 @@
         <v>145</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E45" s="49">
         <v>1</v>
@@ -8489,10 +9003,10 @@
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
       <c r="J45" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K45" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L45" s="49"/>
       <c r="M45" s="22"/>
@@ -8533,7 +9047,7 @@
         <v>145</v>
       </c>
       <c r="D46" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E46" s="49">
         <v>1</v>
@@ -8545,10 +9059,10 @@
       <c r="H46" s="49"/>
       <c r="I46" s="49"/>
       <c r="J46" s="73" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K46" s="49" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L46" s="49"/>
       <c r="M46" s="22"/>
@@ -8583,13 +9097,13 @@
         <v>34</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E47" s="49">
         <v>1</v>
@@ -8608,7 +9122,7 @@
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
@@ -8639,13 +9153,13 @@
         <v>35</v>
       </c>
       <c r="B48" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="48" t="s">
         <v>272</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>274</v>
       </c>
       <c r="E48" s="49">
         <v>1</v>
@@ -8664,7 +9178,7 @@
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="57" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
@@ -8695,13 +9209,13 @@
         <v>36</v>
       </c>
       <c r="B49" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="60" t="s">
         <v>265</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>267</v>
       </c>
       <c r="E49" s="50">
         <v>1</v>
@@ -8722,7 +9236,7 @@
         <v>2</v>
       </c>
       <c r="O49" s="53" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P49" s="53"/>
       <c r="Q49" s="53"/>
@@ -8771,7 +9285,7 @@
       <c r="H50" s="49"/>
       <c r="I50" s="49"/>
       <c r="J50" s="49" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K50" s="49"/>
       <c r="L50" s="49"/>
@@ -8780,7 +9294,7 @@
         <v>6</v>
       </c>
       <c r="O50" s="57" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -8817,7 +9331,7 @@
         <v>180</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E51" s="49">
         <v>1</v>
@@ -8836,7 +9350,7 @@
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
@@ -8873,7 +9387,7 @@
         <v>50</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E52" s="47">
         <v>1</v>
@@ -8882,10 +9396,10 @@
         <v>185</v>
       </c>
       <c r="G52" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
@@ -8900,7 +9414,7 @@
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
       <c r="U52" s="22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="V52" s="22"/>
       <c r="W52" s="22"/>
@@ -8925,13 +9439,13 @@
         <v>40</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="D53" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="D53" s="60" t="s">
-        <v>232</v>
       </c>
       <c r="E53" s="47">
         <v>1</v>
@@ -8943,7 +9457,7 @@
       <c r="H53" s="49"/>
       <c r="I53" s="49"/>
       <c r="J53" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K53" s="49"/>
       <c r="L53" s="49"/>
@@ -8956,7 +9470,7 @@
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
       <c r="U53" s="22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="V53" s="22"/>
       <c r="W53" s="22"/>
@@ -8981,25 +9495,25 @@
         <v>41</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C54" s="68" t="s">
         <v>179</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E54" s="47">
         <v>1</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G54" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I54" s="49"/>
       <c r="K54" s="49"/>
@@ -9013,7 +9527,7 @@
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
       <c r="U54" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="V54" s="22"/>
       <c r="W54" s="22"/>
@@ -9053,10 +9567,10 @@
         <v>49</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
@@ -9071,7 +9585,7 @@
       <c r="S55" s="22"/>
       <c r="T55" s="22"/>
       <c r="U55" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="V55" s="22"/>
       <c r="W55" s="22"/>
@@ -9102,22 +9616,22 @@
         <v>55</v>
       </c>
       <c r="D56" s="69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E56" s="47">
         <v>1</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G56" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H56" s="49" t="s">
         <v>187</v>
       </c>
       <c r="I56" s="49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="49"/>
@@ -9137,13 +9651,13 @@
         <v>2</v>
       </c>
       <c r="U56" s="22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="V56" s="22">
         <v>1</v>
       </c>
       <c r="W56" s="22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="X56" s="22"/>
       <c r="Y56" s="22"/>
@@ -9152,7 +9666,7 @@
       <c r="AB56" s="22"/>
       <c r="AC56" s="22"/>
       <c r="AD56" s="22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE56" s="59"/>
       <c r="AF56" s="22"/>
@@ -9174,7 +9688,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E57" s="47">
         <v>1</v>
@@ -9182,11 +9696,13 @@
       <c r="F57" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="49"/>
+      <c r="G57" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H57" s="49"/>
       <c r="I57" s="49"/>
       <c r="J57" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K57" s="49"/>
       <c r="L57" s="50"/>
@@ -9228,7 +9744,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E58" s="47">
         <v>1</v>
@@ -9236,11 +9752,16 @@
       <c r="F58" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="49"/>
+      <c r="G58" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H58" s="49"/>
       <c r="I58" s="49"/>
-      <c r="K58" s="49" t="s">
-        <v>251</v>
+      <c r="J58" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="K58" s="73" t="s">
+        <v>250</v>
       </c>
       <c r="L58" s="50"/>
       <c r="M58" s="22"/>
@@ -9281,7 +9802,7 @@
         <v>55</v>
       </c>
       <c r="D59" s="69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E59" s="47">
         <v>1</v>
@@ -9293,10 +9814,12 @@
       <c r="H59" s="49"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
-      <c r="K59" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="L59" s="50"/>
+      <c r="K59" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="L59" s="50" t="s">
+        <v>377</v>
+      </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="57"/>
@@ -9335,7 +9858,7 @@
         <v>55</v>
       </c>
       <c r="D60" s="69" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E60" s="47">
         <v>1</v>
@@ -9343,12 +9866,17 @@
       <c r="F60" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="49"/>
+      <c r="G60" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H60" s="49"/>
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
-      <c r="L60" s="49" t="s">
-        <v>251</v>
+      <c r="K60" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="L60" s="73" t="s">
+        <v>250</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
@@ -9388,7 +9916,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="69" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E61" s="47">
         <v>1</v>
@@ -9437,35 +9965,35 @@
         <v>182</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E62" s="49">
         <v>1</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="G62" s="49"/>
       <c r="H62" s="49"/>
-      <c r="I62" s="49" t="s">
+      <c r="I62" s="73" t="s">
         <v>187</v>
       </c>
       <c r="J62" s="50" t="s">
-        <v>258</v>
+        <v>366</v>
       </c>
       <c r="K62" s="38"/>
       <c r="L62" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="53">
         <v>2.5</v>
       </c>
       <c r="O62" s="53" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P62" s="22"/>
       <c r="Q62" s="53"/>
@@ -9473,7 +10001,7 @@
       <c r="S62" s="53"/>
       <c r="T62" s="22"/>
       <c r="U62" s="53" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="V62" s="53"/>
       <c r="W62" s="53"/>
@@ -9484,7 +10012,7 @@
       <c r="AB62" s="53"/>
       <c r="AC62" s="53"/>
       <c r="AD62" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE62" s="53"/>
       <c r="AF62" s="53"/>
@@ -9506,23 +10034,25 @@
         <v>179</v>
       </c>
       <c r="D63" s="60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E63" s="50">
         <v>1</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G63" s="49"/>
       <c r="H63" s="49"/>
       <c r="I63" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="J63" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="K63" s="49"/>
+        <v>289</v>
+      </c>
+      <c r="J63" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="K63" s="49" t="s">
+        <v>367</v>
+      </c>
       <c r="L63" s="49"/>
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
@@ -9562,20 +10092,20 @@
         <v>179</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E64" s="50">
         <v>1</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G64" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H64" s="49"/>
       <c r="I64" s="49" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J64" s="49"/>
       <c r="K64" s="49"/>
@@ -9618,13 +10148,13 @@
         <v>179</v>
       </c>
       <c r="D65" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E65" s="50">
         <v>1</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G65" s="49"/>
       <c r="H65" s="49"/>
@@ -9632,7 +10162,7 @@
       <c r="J65" s="49"/>
       <c r="K65" s="49"/>
       <c r="L65" s="49" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
@@ -9672,23 +10202,23 @@
         <v>33</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="E66" s="50">
         <v>1</v>
       </c>
       <c r="F66" s="50" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G66" s="49"/>
       <c r="H66" s="50"/>
       <c r="I66" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J66" s="50"/>
       <c r="K66" s="50"/>
       <c r="L66" s="50" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M66" s="53"/>
       <c r="N66" s="53"/>
@@ -9728,18 +10258,18 @@
         <v>59</v>
       </c>
       <c r="D67" s="60" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="E67" s="50">
         <v>1</v>
       </c>
       <c r="F67" s="50" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G67" s="50"/>
       <c r="H67" s="50"/>
       <c r="I67" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J67" s="50"/>
       <c r="K67" s="50"/>
@@ -9782,7 +10312,7 @@
         <v>40</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E68" s="49">
         <v>2</v>
@@ -9801,7 +10331,7 @@
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
       <c r="O68" s="57" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P68" s="22" t="s">
         <v>36</v>
@@ -9856,7 +10386,7 @@
         <v>173</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E69" s="49">
         <v>2</v>
@@ -9875,7 +10405,7 @@
       <c r="M69" s="22"/>
       <c r="N69" s="20"/>
       <c r="O69" s="20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P69" s="20">
         <f>N69*0.2</f>
@@ -9951,13 +10481,13 @@
       <c r="I70" s="49"/>
       <c r="J70" s="49"/>
       <c r="K70" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L70" s="49"/>
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
       <c r="O70" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
@@ -9994,7 +10524,7 @@
         <v>179</v>
       </c>
       <c r="D71" s="48" t="s">
-        <v>208</v>
+        <v>376</v>
       </c>
       <c r="E71" s="49">
         <v>2</v>
@@ -10002,18 +10532,20 @@
       <c r="F71" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="G71" s="49"/>
+      <c r="G71" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="H71" s="49"/>
       <c r="I71" s="49"/>
       <c r="J71" s="49"/>
       <c r="K71" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L71" s="49"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
       <c r="O71" s="57" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
@@ -10044,28 +10576,28 @@
         <v>59</v>
       </c>
       <c r="B72" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>243</v>
-      </c>
       <c r="D72" s="60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E72" s="50">
         <v>2</v>
       </c>
       <c r="F72" s="50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G72" s="50" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I72" s="50" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J72" s="50"/>
       <c r="K72" s="50"/>
@@ -10102,25 +10634,25 @@
         <v>60</v>
       </c>
       <c r="B73" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>243</v>
-      </c>
       <c r="D73" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E73" s="50">
         <v>2</v>
       </c>
       <c r="F73" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="G73" s="50" t="s">
-        <v>355</v>
+        <v>288</v>
+      </c>
+      <c r="G73" s="49" t="s">
+        <v>351</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I73" s="50"/>
       <c r="J73" s="50"/>
@@ -10158,23 +10690,25 @@
         <v>61</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D74" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="E74" s="20"/>
+        <v>334</v>
+      </c>
+      <c r="E74" s="20">
+        <v>2</v>
+      </c>
       <c r="F74" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>355</v>
+        <v>335</v>
+      </c>
+      <c r="G74" s="49" t="s">
+        <v>351</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -10212,23 +10746,25 @@
         <v>62</v>
       </c>
       <c r="B75" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D75" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="C75" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="D75" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="E75" s="20"/>
+      <c r="E75" s="20">
+        <v>2</v>
+      </c>
       <c r="F75" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>355</v>
+        <v>335</v>
+      </c>
+      <c r="G75" s="49" t="s">
+        <v>351</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -10297,11 +10833,21 @@
       <c r="A76" s="47">
         <v>63</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D76" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="E76" s="20">
+        <v>1</v>
+      </c>
+      <c r="F76" s="49" t="s">
+        <v>187</v>
+      </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
@@ -10454,330 +11000,622 @@
   </sheetData>
   <autoFilter ref="A13:AR79"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Z75:Z78 H79:Z79 H75:W78 AA74:AL79 H74:Z74 P3:S8 F7:F8 D12 H12:M12 A13:AL13 P10:S11 F10:F11 B73:C73 L25:AL25 B72:G72 H72:AL73 L62:AL62 K24:AL24 B24:I24 B63:H63 J63:AL63 B69:AL71 B62:J62 K54:AL54 B54:I54 K58:AL58 L60:AL60 G60:J60 G61:AL61 G58:I58 G59:AL59 B55:AL56 F58:F61 F57:AL57 B57:E61 B20:G20 B38:H39 J38:S39 B27:H27 I20:S20 B23:AL23 B43:I43 B46:J46 B14:I16 B17:J17 B18:I19 J27:S28 G29:I31 E73:H73 B47:AL53 B64:AL67 B68:J68 L68:AL68 L14:AL14 L15:T19 B22:T22 B21:S21 T20:T21 B26:AL26 B40:S40 W27:AL31 T27:V32 B41:AL42 K43:AL46 U15:AL22 B74:G79 B45:I45 B44:G44 I44 G28:H28 B25:F25 H25:J25 F28:F32 K30:S31 L29:S29 J29 B28:E31 G34 G33:S33 B33:F34 T33:AL40 B35:S37 I34:S34">
-    <cfRule type="cellIs" dxfId="90" priority="153" operator="equal">
+  <conditionalFormatting sqref="Z75:Z78 H79:Z79 H75:W78 AA74:AL79 H74:Z74 P3:S8 F7:F8 D12 H12:M12 A13:AL13 P10:S11 F10:F11 B73:C73 L25:AL25 B72:G72 H72:AL73 L62:AL62 K24:AL24 B63:H63 J63:AL63 B62:J62 K54:AL54 M60:AL60 G61:AL61 H58:I58 G59:I59 B57:F61 B20:G20 B38:H39 J38:S39 I20:S20 B43:I43 B14:I16 B17:J17 B18:I19 H31 B68:J68 L68:AL68 L14:AL14 L15:T19 B21:S21 T20:T21 B40:S40 W27:AL31 T27:V32 B41:AL42 K43:AL46 U15:AL22 B45:I45 B44:G44 I44 B22:F27 H25:J25 F28:F32 L29:S29 J29 B28:E31 B33:F34 T33:AL40 B35:S37 I34:S34 H33:I33 H26:AL26 H29:I30 H27:H28 H24:I24 H57:AL57 K58:AL59 H22:T22 H23:AL23 K30:S31 K33:S33 J27:S28 B47:AL53 B54:I54 B55:AL56 G57:G58 G60:J60 B46:J46 B64:AL67 B69:AL71 E73:H73 B74:G79">
+    <cfRule type="cellIs" dxfId="228" priority="219" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55 L25:N25 E25:F25 E41:F46 P47:P48 E47:E48 F24 F69 F63:F65 E21 P14:P19 P62 P21 V20:AD20 P20:S20 E20:G20 E38:H39 J38:N39 E27:H27 I20:N20 J27:N28 E40:N40 V25:AD26 P25:T26 E26:N26 E28:E31 G29:I31 P27:S31 W27:AD31 T27:T32 U26:V32 G28:H28 H25:J25 F28:F32 K30:N31 L29:N29 J29 G34 G33:N33 E33:F34 P33:AD40 E35:N37 I34:N34">
-    <cfRule type="cellIs" dxfId="89" priority="155" operator="equal">
+  <conditionalFormatting sqref="F55 L25:N25 P47:P48 E47:E48 F24 F69 F63:F65 E21 P14:P19 P62 P21 V20:AD20 P20:S20 E20:G20 E38:H39 J38:N39 I20:N20 E40:N40 V25:AD26 P25:T26 E25:F27 E28:E31 H31 P27:S31 W27:AD31 T27:T32 U26:V32 H25:J25 F28:F32 L29:N29 J29 E33:F34 P33:AD40 E35:N37 I34:N34 H33:I33 H29:I30 H26:N26 H27:H28 K30:N31 K33:N33 J27:N28 E41:F46">
+    <cfRule type="cellIs" dxfId="227" priority="221" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="156" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="226" priority="222" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ52:AJ55 F55 AJ13 I2:I6 L25:N25 E25:F25 E41:F46 P47:P48 E47:E48 F24 F63:F65 F69 AJ63:AJ65 E21 AJ68:AJ69 P14:P19 P62 P21 V20:AD20 P20:S20 E20:G20 E38:H39 J38:N39 E27:H27 I20:N20 J27:N28 E40:N40 V25:AD26 P25:T26 E26:N26 AJ20:AJ31 E28:E31 G29:I31 P27:S31 W27:AD31 T27:T32 U26:V32 G28:H28 H25:J25 F28:F32 K30:N31 L29:N29 J29 G34 AJ33:AJ48 G33:N33 E33:F34 P33:AD40 E35:N37 I34:N34">
-    <cfRule type="cellIs" dxfId="87" priority="154" operator="equal">
+  <conditionalFormatting sqref="AJ52:AJ55 F55 AJ13 I2:I6 L25:N25 P47:P48 E47:E48 F24 F63:F65 F69 AJ63:AJ65 E21 AJ68:AJ69 P14:P19 P62 P21 V20:AD20 P20:S20 E20:G20 E38:H39 J38:N39 I20:N20 E40:N40 V25:AD26 P25:T26 E25:F27 AJ20:AJ31 E28:E31 H31 P27:S31 W27:AD31 T27:T32 U26:V32 H25:J25 F28:F32 L29:N29 J29 AJ33:AJ48 E33:F34 P33:AD40 E35:N37 I34:N34 H33:I33 H29:I30 H26:N26 H27:H28 K30:N31 K33:N33 J27:N28 E41:F46">
+    <cfRule type="cellIs" dxfId="225" priority="220" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="149" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="223" priority="150" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="148" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K46">
-    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="146" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="220" priority="147" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K46">
-    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="145" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="80" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="143" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="217" priority="144" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="142" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="141" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:E32 G32:I32 I38:I39 K32:S32 W32:AL32">
-    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
+  <conditionalFormatting sqref="B32:E32 H32:I32 I38:I39 L32:S32 W32:AL32">
+    <cfRule type="cellIs" dxfId="214" priority="137" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32 P32:S32 W32:AD32 G32:I32 I38:I39 K32:N32">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+  <conditionalFormatting sqref="E32 P32:S32 W32:AD32 H32:I32 I38:I39 L32:N32">
+    <cfRule type="cellIs" dxfId="213" priority="139" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="212" priority="140" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32 AJ32 P32:S32 W32:AD32 G32:I32 I38:I39 K32:N32">
-    <cfRule type="cellIs" dxfId="73" priority="72" operator="equal">
+  <conditionalFormatting sqref="E32 AJ32 P32:S32 W32:AD32 H32:I32 I38:I39 L32:N32">
+    <cfRule type="cellIs" dxfId="211" priority="138" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68">
-    <cfRule type="cellIs" dxfId="72" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="128" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="127" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="70" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="126" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43 J45">
-    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="125" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="68" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="121" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="123" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="58" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="204" priority="124" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="65" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="122" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="64" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="113" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="115" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="50" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="200" priority="116" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="61" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="109" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="111" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="196" priority="112" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="57" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="110" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="105" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="107" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="192" priority="108" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="106" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="103" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="38" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="189" priority="104" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="102" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="100" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="35" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="186" priority="101" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="95" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="97" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="32" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="182" priority="98" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="43" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="96" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="94" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="90" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="92" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="177" priority="93" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="91" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="86" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="88" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="173" priority="89" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="87" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="85" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="81" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="83" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="168" priority="84" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="82" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I28">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="77" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I28">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="79" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="164" priority="80" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I28">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="78" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="72" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="68" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="70" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="159" priority="71" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
       <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="156" priority="63" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="155" priority="65" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="66" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="153" priority="64" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G33">
+    <cfRule type="cellIs" dxfId="152" priority="59" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G33">
+    <cfRule type="cellIs" dxfId="151" priority="61" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="62" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G33">
+    <cfRule type="cellIs" dxfId="149" priority="60" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="148" priority="55" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="147" priority="57" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="58" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="145" priority="56" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58:J59">
+    <cfRule type="cellIs" dxfId="144" priority="54" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60">
+    <cfRule type="cellIs" dxfId="143" priority="53" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="cellIs" dxfId="142" priority="52" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="141" priority="48" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="139" priority="50" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="51" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="135" priority="49" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="129" priority="44" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="127" priority="46" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="47" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="123" priority="45" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="109" priority="40" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="107" priority="42" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="43" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="103" priority="41" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="96" priority="38" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="39" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="92" priority="37" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="36" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="85" priority="34" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" dxfId="82" priority="32" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="33" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" dxfId="78" priority="31" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="75" priority="29" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="30" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="71" priority="28" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="64" priority="25" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="cellIs" dxfId="61" priority="23" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="24" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="cellIs" dxfId="57" priority="22" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="18" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10823,17 +11661,17 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -10843,40 +11681,40 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -10894,17 +11732,17 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -10912,7 +11750,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -10928,7 +11766,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -10941,7 +11779,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -10949,10 +11787,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -10960,10 +11798,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.3">

--- a/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="700" windowWidth="24160" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="33660" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑3" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="任务细分" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑3!$A$13:$AR$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑3!$A$13:$AR$76</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="381">
   <si>
     <t>分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1532,14 +1532,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>副本选择UI layout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本选择ui功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>副本信息UI layout</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1573,14 +1565,6 @@
   </si>
   <si>
     <t>副本选择-服务器-副本开启条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本信息二级弹出UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本信息扫荡结果界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1621,10 +1605,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>任务系统-美术资源-UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>QA测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2099,10 +2079,6 @@
   </si>
   <si>
     <t>副本配置表修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本选择-服务器-扫荡结果同步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3646,12 +3622,52 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>未完成</t>
+    <rPh sb="0" eb="1">
+      <t>wei'wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HockeyApp功能添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署外网服务器</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>私服搭建</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins服务器版本发布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言功能</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yu'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8章小怪属性（怪物五行，是否是精英怪，等级，怪物倾向），布怪</t>
+    <rPh sb="28" eb="29">
+      <t>bu'guai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3828,6 +3844,25 @@
       <name val="微软雅黑"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3910,7 +3945,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="190">
+  <cellStyleXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -4105,8 +4140,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4250,12 +4287,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4277,14 +4308,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="190">
+  <cellStyles count="192">
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -4378,6 +4416,7 @@
     <cellStyle name="已访问的超链接" xfId="185" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -4475,22 +4514,9 @@
     <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="229">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="208">
     <dxf>
       <fill>
         <patternFill>
@@ -4525,6 +4551,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4546,7 +4579,34 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4579,6 +4639,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4598,20 +4672,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4643,6 +4703,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4676,13 +4743,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4697,6 +4757,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4735,13 +4809,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4756,6 +4823,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4782,13 +4863,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4822,20 +4896,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4862,6 +4922,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4900,13 +4974,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4921,6 +4988,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -4959,13 +5040,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -4980,6 +5054,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5018,13 +5106,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5039,6 +5120,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5077,13 +5172,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5103,6 +5191,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5117,20 +5212,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5162,6 +5243,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5176,20 +5264,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5221,6 +5295,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5235,20 +5316,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5280,6 +5347,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5294,13 +5368,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5327,20 +5394,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5372,6 +5425,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5386,20 +5446,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5499,7 +5545,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5532,6 +5592,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5558,13 +5632,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5598,7 +5665,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5631,6 +5698,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5657,34 +5745,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5718,6 +5778,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5824,13 +5891,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5857,13 +5917,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5890,20 +5943,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -5970,13 +6009,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -6036,6 +6068,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -6062,6 +6129,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -6088,13 +6169,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -6121,13 +6195,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -6154,13 +6221,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -6181,192 +6241,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6710,14 +6584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR79"/>
+  <dimension ref="A1:AR81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="12" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6772,7 +6642,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="34" t="s">
@@ -6795,7 +6665,7 @@
         <v>76</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="34" t="s">
@@ -6816,14 +6686,14 @@
         <v>79</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="34" t="s">
         <v>85</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I5" s="2"/>
       <c r="P5" s="36"/>
@@ -6837,7 +6707,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="34" t="s">
@@ -6858,7 +6728,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="34" t="s">
@@ -6878,7 +6748,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="34" t="s">
@@ -6905,7 +6775,7 @@
         <v>90</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -7110,10 +6980,10 @@
         <v>182</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E14" s="49">
         <v>1</v>
@@ -7121,26 +6991,28 @@
       <c r="F14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H14" s="49" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J14" s="51"/>
       <c r="K14" s="52" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="53">
         <v>1</v>
       </c>
       <c r="O14" s="53" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="53"/>
@@ -7148,7 +7020,7 @@
       <c r="S14" s="53"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V14" s="53"/>
       <c r="W14" s="53"/>
@@ -7159,7 +7031,7 @@
       <c r="AB14" s="53"/>
       <c r="AC14" s="53"/>
       <c r="AD14" s="54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AE14" s="53"/>
       <c r="AF14" s="53"/>
@@ -7178,10 +7050,10 @@
         <v>182</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E15" s="49">
         <v>1</v>
@@ -7189,18 +7061,20 @@
       <c r="F15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H15" s="49" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J15" s="50" t="s">
         <v>60</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L15" s="50"/>
       <c r="M15" s="22"/>
@@ -7216,7 +7090,7 @@
       <c r="S15" s="53"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V15" s="53"/>
       <c r="W15" s="53"/>
@@ -7227,7 +7101,7 @@
       <c r="AB15" s="53"/>
       <c r="AC15" s="53"/>
       <c r="AD15" s="54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AE15" s="53"/>
       <c r="AF15" s="53"/>
@@ -7246,10 +7120,10 @@
         <v>182</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E16" s="49">
         <v>1</v>
@@ -7257,18 +7131,20 @@
       <c r="F16" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H16" s="49" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L16" s="50"/>
       <c r="M16" s="22"/>
@@ -7284,7 +7160,7 @@
       <c r="S16" s="53"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V16" s="53"/>
       <c r="W16" s="53"/>
@@ -7295,7 +7171,7 @@
       <c r="AB16" s="53"/>
       <c r="AC16" s="53"/>
       <c r="AD16" s="54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AE16" s="53"/>
       <c r="AF16" s="53"/>
@@ -7314,10 +7190,10 @@
         <v>182</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E17" s="49">
         <v>1</v>
@@ -7325,18 +7201,20 @@
       <c r="F17" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H17" s="49" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K17" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="22"/>
@@ -7350,7 +7228,7 @@
       <c r="S17" s="53"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V17" s="53"/>
       <c r="W17" s="53"/>
@@ -7361,7 +7239,7 @@
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AE17" s="53"/>
       <c r="AF17" s="53"/>
@@ -7380,10 +7258,10 @@
         <v>182</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E18" s="49">
         <v>1</v>
@@ -7391,16 +7269,18 @@
       <c r="F18" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H18" s="49" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>214</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="22"/>
@@ -7408,7 +7288,7 @@
         <v>0.5</v>
       </c>
       <c r="O18" s="53" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P18" s="22"/>
       <c r="Q18" s="53"/>
@@ -7416,7 +7296,7 @@
       <c r="S18" s="53"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V18" s="53"/>
       <c r="W18" s="53"/>
@@ -7427,7 +7307,7 @@
       <c r="AB18" s="53"/>
       <c r="AC18" s="53"/>
       <c r="AD18" s="54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AE18" s="53"/>
       <c r="AF18" s="53"/>
@@ -7446,10 +7326,10 @@
         <v>182</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E19" s="49">
         <v>1</v>
@@ -7457,18 +7337,20 @@
       <c r="F19" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H19" s="49" t="s">
         <v>187</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K19" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L19" s="50"/>
       <c r="M19" s="22"/>
@@ -7476,7 +7358,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="53" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P19" s="22"/>
       <c r="Q19" s="53"/>
@@ -7484,7 +7366,7 @@
       <c r="S19" s="53"/>
       <c r="T19" s="22"/>
       <c r="U19" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V19" s="53"/>
       <c r="W19" s="53"/>
@@ -7495,7 +7377,7 @@
       <c r="AB19" s="53"/>
       <c r="AC19" s="53"/>
       <c r="AD19" s="54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AE19" s="53"/>
       <c r="AF19" s="53"/>
@@ -7517,7 +7399,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E20" s="49">
         <v>1</v>
@@ -7525,13 +7407,15 @@
       <c r="F20" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="I20" s="49" t="s">
         <v>214</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="22"/>
@@ -7543,7 +7427,7 @@
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
       <c r="U20" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
@@ -7554,7 +7438,7 @@
       <c r="AB20" s="22"/>
       <c r="AC20" s="22"/>
       <c r="AD20" s="54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AE20" s="22"/>
       <c r="AF20" s="22"/>
@@ -7576,7 +7460,7 @@
         <v>118</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E21" s="49">
         <v>1</v>
@@ -7584,16 +7468,18 @@
       <c r="F21" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H21" s="49" t="s">
         <v>187</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L21" s="49"/>
       <c r="M21" s="22"/>
@@ -7607,7 +7493,7 @@
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
       <c r="U21" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
@@ -7618,7 +7504,7 @@
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
       <c r="AD21" s="54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AE21" s="59"/>
       <c r="AF21" s="22"/>
@@ -7640,18 +7526,20 @@
         <v>50</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E22" s="49">
         <v>1</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="49"/>
+        <v>238</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>374</v>
+      </c>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="70" t="s">
         <v>209</v>
       </c>
       <c r="K22" s="49"/>
@@ -7671,7 +7559,7 @@
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
@@ -7702,18 +7590,20 @@
         <v>50</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="G23" s="49"/>
+        <v>239</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>374</v>
+      </c>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
-      <c r="J23" s="73" t="s">
+      <c r="J23" s="70" t="s">
         <v>187</v>
       </c>
       <c r="K23" s="49"/>
@@ -7725,7 +7615,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="57" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
@@ -7771,7 +7661,7 @@
         <v>187</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="49" t="s">
@@ -7819,22 +7709,22 @@
         <v>40</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E25" s="49">
         <v>1</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J25" s="49"/>
       <c r="L25" s="49"/>
@@ -7853,7 +7743,7 @@
         <v>3</v>
       </c>
       <c r="U25" s="22" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="V25" s="22">
         <v>1</v>
@@ -7894,7 +7784,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E26" s="49">
         <v>2</v>
@@ -7902,7 +7792,9 @@
       <c r="F26" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="49" t="s">
+        <v>374</v>
+      </c>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
@@ -7946,7 +7838,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E27" s="49">
         <v>1</v>
@@ -7955,7 +7847,7 @@
         <v>49</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H27" s="62" t="s">
         <v>215</v>
@@ -7963,11 +7855,11 @@
       <c r="I27" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="73" t="s">
-        <v>287</v>
+      <c r="J27" s="70" t="s">
+        <v>281</v>
       </c>
       <c r="K27" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L27" s="49"/>
       <c r="M27" s="22"/>
@@ -8008,7 +7900,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" s="49">
         <v>1</v>
@@ -8017,7 +7909,7 @@
         <v>49</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H28" s="62" t="s">
         <v>215</v>
@@ -8025,11 +7917,11 @@
       <c r="I28" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="73" t="s">
-        <v>287</v>
+      <c r="J28" s="70" t="s">
+        <v>281</v>
       </c>
       <c r="K28" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L28" s="49"/>
       <c r="M28" s="22"/>
@@ -8070,7 +7962,7 @@
         <v>42</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E29" s="49">
         <v>1</v>
@@ -8079,17 +7971,17 @@
         <v>49</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H29" s="49"/>
       <c r="I29" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="J29" s="73" t="s">
-        <v>287</v>
+        <v>245</v>
+      </c>
+      <c r="J29" s="70" t="s">
+        <v>281</v>
       </c>
       <c r="K29" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L29" s="49"/>
       <c r="M29" s="22"/>
@@ -8130,7 +8022,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E30" s="49">
         <v>1</v>
@@ -8139,15 +8031,15 @@
         <v>49</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K30" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L30" s="49"/>
       <c r="M30" s="22"/>
@@ -8188,23 +8080,23 @@
         <v>42</v>
       </c>
       <c r="D31" s="56" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E31" s="49">
         <v>1</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I31" s="49"/>
       <c r="K31" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L31" s="49"/>
       <c r="M31" s="22"/>
@@ -8245,7 +8137,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E32" s="49">
         <v>1</v>
@@ -8254,17 +8146,17 @@
         <v>49</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>215</v>
       </c>
       <c r="I32" s="49"/>
-      <c r="J32" s="73" t="s">
-        <v>287</v>
+      <c r="J32" s="70" t="s">
+        <v>281</v>
       </c>
       <c r="K32" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L32" s="49"/>
       <c r="M32" s="22"/>
@@ -8305,26 +8197,26 @@
         <v>42</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E33" s="49">
         <v>1</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H33" s="49" t="s">
         <v>215</v>
       </c>
       <c r="I33" s="49"/>
-      <c r="J33" s="73" t="s">
-        <v>287</v>
+      <c r="J33" s="70" t="s">
+        <v>281</v>
       </c>
       <c r="K33" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L33" s="49"/>
       <c r="M33" s="22"/>
@@ -8365,20 +8257,20 @@
         <v>42</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E34" s="49">
         <v>1</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I34" s="49"/>
       <c r="J34" s="49" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K34" s="49"/>
       <c r="L34" s="49"/>
@@ -8420,21 +8312,21 @@
         <v>42</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E35" s="49">
         <v>1</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H35" s="49"/>
       <c r="I35" s="49"/>
       <c r="J35" s="49" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K35" s="49"/>
       <c r="L35" s="49"/>
@@ -8469,47 +8361,75 @@
       <c r="A36" s="47">
         <v>23</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>29</v>
+      <c r="B36" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>216</v>
+        <v>145</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>262</v>
       </c>
       <c r="E36" s="49">
         <v>1</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="62" t="s">
-        <v>215</v>
+        <v>49</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>233</v>
       </c>
       <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="J36" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" s="49" t="s">
+        <v>232</v>
+      </c>
       <c r="L36" s="49"/>
       <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="N36" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="P36" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q36" s="22" t="s">
+        <v>174</v>
+      </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
+      <c r="T36" s="24">
+        <v>6</v>
+      </c>
+      <c r="U36" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="V36" s="24">
+        <v>12</v>
+      </c>
+      <c r="W36" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
       <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
+      <c r="AB36" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="AC36" s="22">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="AE36" s="22"/>
       <c r="AF36" s="22"/>
       <c r="AG36" s="22"/>
@@ -8523,32 +8443,36 @@
       <c r="A37" s="47">
         <v>24</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>29</v>
+      <c r="B37" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="D37" s="63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E37" s="49">
         <v>1</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
+      <c r="K37" s="49" t="s">
+        <v>232</v>
+      </c>
       <c r="L37" s="49"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
-      <c r="O37" s="57"/>
+      <c r="O37" s="23"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
@@ -8577,32 +8501,37 @@
       <c r="A38" s="47">
         <v>25</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>29</v>
+      <c r="B38" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="D38" s="63" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E38" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="K38" s="49"/>
+        <v>49</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="I38" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="J38" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="49" t="s">
+        <v>232</v>
+      </c>
       <c r="L38" s="49"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
-      <c r="O38" s="57"/>
+      <c r="O38" s="23"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
@@ -8631,32 +8560,36 @@
       <c r="A39" s="47">
         <v>26</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>29</v>
+      <c r="B39" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="D39" s="63" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E39" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="G39" s="49"/>
+        <v>49</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H39" s="49"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62" t="s">
+      <c r="I39" s="49"/>
+      <c r="J39" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="K39" s="49"/>
+      <c r="K39" s="49" t="s">
+        <v>232</v>
+      </c>
       <c r="L39" s="49"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
-      <c r="O39" s="57"/>
+      <c r="O39" s="23"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
@@ -8685,32 +8618,36 @@
       <c r="A40" s="47">
         <v>27</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>29</v>
+      <c r="B40" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="E40" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="G40" s="49"/>
+        <v>49</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H40" s="49"/>
-      <c r="I40" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="J40" s="62"/>
-      <c r="K40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="K40" s="49" t="s">
+        <v>372</v>
+      </c>
       <c r="L40" s="49"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
-      <c r="O40" s="57"/>
+      <c r="O40" s="23"/>
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
@@ -8739,74 +8676,54 @@
       <c r="A41" s="47">
         <v>28</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>43</v>
+      <c r="B41" s="22" t="s">
+        <v>265</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E41" s="49">
         <v>1</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49" t="s">
-        <v>238</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="H41" s="49"/>
       <c r="I41" s="49"/>
-      <c r="J41" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="K41" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="L41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>187</v>
+      </c>
       <c r="M41" s="22"/>
-      <c r="N41" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="O41" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="P41" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q41" s="22" t="s">
-        <v>174</v>
-      </c>
+      <c r="N41" s="22"/>
+      <c r="O41" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
-      <c r="T41" s="24">
-        <v>6</v>
-      </c>
-      <c r="U41" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="V41" s="24">
-        <v>12</v>
-      </c>
-      <c r="W41" s="22" t="s">
-        <v>176</v>
-      </c>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="22"/>
       <c r="Z41" s="22"/>
       <c r="AA41" s="22"/>
-      <c r="AB41" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="AC41" s="22">
-        <v>4</v>
-      </c>
-      <c r="AD41" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="59"/>
       <c r="AF41" s="22"/>
       <c r="AG41" s="22"/>
       <c r="AH41" s="22"/>
@@ -8819,30 +8736,38 @@
       <c r="A42" s="47">
         <v>29</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>43</v>
+      <c r="B42" s="22" t="s">
+        <v>265</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>236</v>
+        <v>266</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>267</v>
       </c>
       <c r="E42" s="49">
         <v>1</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="49"/>
+        <v>187</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H42" s="49"/>
       <c r="I42" s="49"/>
       <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
+      <c r="K42" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="L42" s="49" t="s">
+        <v>187</v>
+      </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
-      <c r="O42" s="23"/>
+      <c r="O42" s="57" t="s">
+        <v>300</v>
+      </c>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
       <c r="R42" s="22"/>
@@ -8858,7 +8783,7 @@
       <c r="AB42" s="22"/>
       <c r="AC42" s="22"/>
       <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
+      <c r="AE42" s="59"/>
       <c r="AF42" s="22"/>
       <c r="AG42" s="22"/>
       <c r="AH42" s="22"/>
@@ -8871,91 +8796,100 @@
       <c r="A43" s="47">
         <v>30</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>43</v>
+      <c r="B43" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" s="49">
+        <v>259</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="E43" s="50">
         <v>1</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="K43" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="L43" s="49"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
+        <v>187</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="L43" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53">
+        <v>2</v>
+      </c>
+      <c r="O43" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
       <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="21"/>
-      <c r="AL43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="53"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="53"/>
+      <c r="AL43" s="64"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>31</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="65" t="s">
-        <v>221</v>
+      <c r="B44" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="E44" s="49">
         <v>1</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="49"/>
-      <c r="I44" s="73" t="s">
-        <v>365</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="K44" s="49" t="s">
-        <v>237</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="K44" s="49"/>
       <c r="L44" s="49"/>
       <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="23"/>
+      <c r="N44" s="22">
+        <v>6</v>
+      </c>
+      <c r="O44" s="57" t="s">
+        <v>306</v>
+      </c>
       <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
       <c r="R44" s="22"/>
@@ -8976,42 +8910,44 @@
       <c r="AG44" s="22"/>
       <c r="AH44" s="22"/>
       <c r="AI44" s="22"/>
-      <c r="AJ44" s="58"/>
-      <c r="AK44" s="21"/>
-      <c r="AL44" s="53"/>
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="22"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="47">
         <v>32</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>223</v>
+        <v>181</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>212</v>
       </c>
       <c r="E45" s="49">
         <v>1</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="49"/>
+        <v>91</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>374</v>
+      </c>
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
-      <c r="J45" s="49" t="s">
-        <v>215</v>
-      </c>
+      <c r="J45" s="49"/>
       <c r="K45" s="49" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="L45" s="49"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
-      <c r="O45" s="23"/>
+      <c r="O45" s="57" t="s">
+        <v>210</v>
+      </c>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
       <c r="R45" s="22"/>
@@ -9032,48 +8968,50 @@
       <c r="AG45" s="22"/>
       <c r="AH45" s="22"/>
       <c r="AI45" s="22"/>
-      <c r="AJ45" s="58"/>
-      <c r="AK45" s="21"/>
-      <c r="AL45" s="53"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="22"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="47">
         <v>33</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="49">
+      <c r="B46" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" s="47">
         <v>1</v>
       </c>
-      <c r="F46" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
+      <c r="F46" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>257</v>
+      </c>
       <c r="I46" s="49"/>
-      <c r="J46" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="K46" s="49" t="s">
-        <v>378</v>
-      </c>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
       <c r="L46" s="49"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
-      <c r="O46" s="23"/>
+      <c r="O46" s="20"/>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
+      <c r="U46" s="22" t="s">
+        <v>303</v>
+      </c>
       <c r="V46" s="22"/>
       <c r="W46" s="22"/>
       <c r="X46" s="22"/>
@@ -9083,7 +9021,7 @@
       <c r="AB46" s="22"/>
       <c r="AC46" s="22"/>
       <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
+      <c r="AE46" s="59"/>
       <c r="AF46" s="22"/>
       <c r="AG46" s="22"/>
       <c r="AH46" s="22"/>
@@ -9097,39 +9035,41 @@
         <v>34</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" s="49">
+        <v>225</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="47">
         <v>1</v>
       </c>
-      <c r="F47" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47" s="49"/>
+      <c r="F47" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H47" s="49"/>
       <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49" t="s">
-        <v>187</v>
-      </c>
+      <c r="J47" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="K47" s="49"/>
       <c r="L47" s="49"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
-      <c r="O47" s="57" t="s">
-        <v>210</v>
-      </c>
+      <c r="O47" s="20"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
+      <c r="U47" s="22" t="s">
+        <v>304</v>
+      </c>
       <c r="V47" s="22"/>
       <c r="W47" s="22"/>
       <c r="X47" s="22"/>
@@ -9153,39 +9093,40 @@
         <v>35</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E48" s="49">
+        <v>269</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="47">
         <v>1</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
+        <v>256</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H48" s="49" t="s">
+        <v>256</v>
+      </c>
       <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49" t="s">
-        <v>187</v>
-      </c>
+      <c r="K48" s="49"/>
       <c r="L48" s="49"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
-      <c r="O48" s="57" t="s">
-        <v>306</v>
-      </c>
+      <c r="O48" s="20"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
+      <c r="U48" s="22" t="s">
+        <v>305</v>
+      </c>
       <c r="V48" s="22"/>
       <c r="W48" s="22"/>
       <c r="X48" s="22"/>
@@ -9209,109 +9150,123 @@
         <v>36</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="D49" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="E49" s="50">
+        <v>178</v>
+      </c>
+      <c r="E49" s="47">
         <v>1</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="L49" s="50"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53">
-        <v>2</v>
-      </c>
-      <c r="O49" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
+        <v>49</v>
+      </c>
+      <c r="G49" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H49" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
       <c r="T49" s="22"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
-      <c r="AE49" s="53"/>
-      <c r="AF49" s="53"/>
-      <c r="AG49" s="53"/>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="53"/>
-      <c r="AJ49" s="53"/>
-      <c r="AK49" s="53"/>
-      <c r="AL49" s="66"/>
+      <c r="U49" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="59"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="58"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="53"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
         <v>37</v>
       </c>
-      <c r="B50" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="C50" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="49">
+      <c r="B50" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50" s="47">
         <v>1</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49" t="s">
-        <v>268</v>
-      </c>
+      <c r="I50" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="J50" s="49"/>
       <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
+      <c r="L50" s="50"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O50" s="57" t="s">
-        <v>312</v>
+        <v>30</v>
       </c>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
+      <c r="T50" s="22">
+        <v>2</v>
+      </c>
+      <c r="U50" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="V50" s="22">
+        <v>1</v>
+      </c>
+      <c r="W50" s="22" t="s">
+        <v>307</v>
+      </c>
       <c r="X50" s="22"/>
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
       <c r="AA50" s="22"/>
       <c r="AB50" s="22"/>
       <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
+      <c r="AD50" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE50" s="59"/>
       <c r="AF50" s="22"/>
       <c r="AG50" s="22"/>
       <c r="AH50" s="22"/>
@@ -9325,33 +9280,35 @@
         <v>38</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" s="49">
+        <v>54</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" s="47">
         <v>1</v>
       </c>
-      <c r="F51" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="49"/>
+      <c r="F51" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H51" s="49"/>
       <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="L51" s="49"/>
+      <c r="J51" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="K51" s="49"/>
+      <c r="L51" s="50" t="s">
+        <v>281</v>
+      </c>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
-      <c r="O51" s="57" t="s">
-        <v>210</v>
-      </c>
+      <c r="O51" s="57"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
@@ -9367,7 +9324,7 @@
       <c r="AB51" s="22"/>
       <c r="AC51" s="22"/>
       <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
+      <c r="AE51" s="59"/>
       <c r="AF51" s="22"/>
       <c r="AG51" s="22"/>
       <c r="AH51" s="22"/>
@@ -9380,42 +9337,44 @@
       <c r="A52" s="47">
         <v>39</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C52" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>337</v>
+      <c r="B52" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>273</v>
       </c>
       <c r="E52" s="47">
         <v>1</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="G52" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="H52" s="49" t="s">
-        <v>262</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="H52" s="49"/>
       <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
+      <c r="J52" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="K52" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="L52" s="50" t="s">
+        <v>281</v>
+      </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
-      <c r="O52" s="20"/>
+      <c r="O52" s="57"/>
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
-      <c r="U52" s="22" t="s">
-        <v>309</v>
-      </c>
+      <c r="U52" s="22"/>
       <c r="V52" s="22"/>
       <c r="W52" s="22"/>
       <c r="X52" s="22"/>
@@ -9430,48 +9389,50 @@
       <c r="AG52" s="22"/>
       <c r="AH52" s="22"/>
       <c r="AI52" s="22"/>
-      <c r="AJ52" s="58"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="53"/>
+      <c r="AJ52" s="22"/>
+      <c r="AK52" s="22"/>
+      <c r="AL52" s="22"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="47">
         <v>40</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="60" t="s">
-        <v>231</v>
+      <c r="B53" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>274</v>
       </c>
       <c r="E53" s="47">
         <v>1</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" s="49"/>
+        <v>60</v>
+      </c>
+      <c r="G53" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H53" s="49"/>
       <c r="I53" s="49"/>
-      <c r="J53" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="L53" s="50" t="s">
+        <v>371</v>
+      </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
-      <c r="O53" s="20"/>
+      <c r="O53" s="57"/>
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
-      <c r="U53" s="22" t="s">
-        <v>310</v>
-      </c>
+      <c r="U53" s="22"/>
       <c r="V53" s="22"/>
       <c r="W53" s="22"/>
       <c r="X53" s="22"/>
@@ -9486,49 +9447,50 @@
       <c r="AG53" s="22"/>
       <c r="AH53" s="22"/>
       <c r="AI53" s="22"/>
-      <c r="AJ53" s="58"/>
-      <c r="AK53" s="21"/>
-      <c r="AL53" s="53"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="22"/>
+      <c r="AL53" s="22"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="47">
         <v>41</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="60" t="s">
-        <v>282</v>
+      <c r="B54" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>275</v>
       </c>
       <c r="E54" s="47">
         <v>1</v>
       </c>
-      <c r="F54" s="49" t="s">
-        <v>261</v>
+      <c r="F54" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="G54" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="H54" s="49" t="s">
-        <v>261</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="H54" s="49"/>
       <c r="I54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="L54" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
-      <c r="O54" s="20"/>
+      <c r="O54" s="57"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
-      <c r="U54" s="22" t="s">
-        <v>311</v>
-      </c>
+      <c r="U54" s="22"/>
       <c r="V54" s="22"/>
       <c r="W54" s="22"/>
       <c r="X54" s="22"/>
@@ -9543,50 +9505,46 @@
       <c r="AG54" s="22"/>
       <c r="AH54" s="22"/>
       <c r="AI54" s="22"/>
-      <c r="AJ54" s="58"/>
-      <c r="AK54" s="21"/>
-      <c r="AL54" s="53"/>
+      <c r="AJ54" s="22"/>
+      <c r="AK54" s="22"/>
+      <c r="AL54" s="22"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="47">
         <v>42</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>182</v>
+      <c r="B55" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>178</v>
+        <v>55</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="E55" s="47">
         <v>1</v>
       </c>
-      <c r="F55" s="49" t="s">
-        <v>49</v>
+      <c r="F55" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="H55" s="49" t="s">
-        <v>283</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="H55" s="49"/>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
       <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
+      <c r="L55" s="50"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
-      <c r="O55" s="20"/>
+      <c r="O55" s="57"/>
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22"/>
-      <c r="U55" s="22" t="s">
-        <v>311</v>
-      </c>
+      <c r="U55" s="22"/>
       <c r="V55" s="22"/>
       <c r="W55" s="22"/>
       <c r="X55" s="22"/>
@@ -9601,111 +9559,111 @@
       <c r="AG55" s="22"/>
       <c r="AH55" s="22"/>
       <c r="AI55" s="22"/>
-      <c r="AJ55" s="58"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="53"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="47">
         <v>43</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="E56" s="47">
+      <c r="B56" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" s="49">
         <v>1</v>
       </c>
-      <c r="F56" s="47" t="s">
-        <v>259</v>
+      <c r="F56" s="49" t="s">
+        <v>367</v>
       </c>
       <c r="G56" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="H56" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H56" s="49"/>
+      <c r="I56" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="I56" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="50"/>
+      <c r="J56" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="K56" s="38"/>
+      <c r="L56" s="50" t="s">
+        <v>254</v>
+      </c>
       <c r="M56" s="22"/>
-      <c r="N56" s="22">
-        <v>3</v>
-      </c>
-      <c r="O56" s="57" t="s">
-        <v>30</v>
+      <c r="N56" s="53">
+        <v>2.5</v>
+      </c>
+      <c r="O56" s="53" t="s">
+        <v>311</v>
       </c>
       <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22">
-        <v>2</v>
-      </c>
-      <c r="U56" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="V56" s="22">
-        <v>1</v>
-      </c>
-      <c r="W56" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22" t="s">
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="AE56" s="59"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V56" s="53"/>
+      <c r="W56" s="53"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="53"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="53"/>
+      <c r="AD56" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE56" s="53"/>
+      <c r="AF56" s="53"/>
+      <c r="AG56" s="53"/>
+      <c r="AH56" s="53"/>
+      <c r="AI56" s="53"/>
+      <c r="AJ56" s="53"/>
+      <c r="AK56" s="53"/>
+      <c r="AL56" s="53"/>
+    </row>
+    <row r="57" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47">
         <v>44</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>54</v>
+      <c r="B57" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="E57" s="47">
+        <v>179</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="E57" s="50">
         <v>1</v>
       </c>
-      <c r="F57" s="47" t="s">
-        <v>60</v>
+      <c r="F57" s="49" t="s">
+        <v>228</v>
       </c>
       <c r="G57" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="K57" s="49"/>
-      <c r="L57" s="50"/>
+      <c r="I57" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="J57" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="K57" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="L57" s="49"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="57"/>
@@ -9729,41 +9687,39 @@
       <c r="AG57" s="22"/>
       <c r="AH57" s="22"/>
       <c r="AI57" s="22"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="22"/>
-      <c r="AL57" s="22"/>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="58"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="53"/>
+    </row>
+    <row r="58" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47">
         <v>45</v>
       </c>
-      <c r="B58" s="20" t="s">
-        <v>54</v>
+      <c r="B58" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="69" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="47">
+        <v>179</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" s="50">
         <v>1</v>
       </c>
-      <c r="F58" s="47" t="s">
-        <v>60</v>
+      <c r="F58" s="49" t="s">
+        <v>228</v>
       </c>
       <c r="G58" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="K58" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="L58" s="50"/>
+      <c r="I58" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="57"/>
@@ -9787,38 +9743,38 @@
       <c r="AG58" s="22"/>
       <c r="AH58" s="22"/>
       <c r="AI58" s="22"/>
-      <c r="AJ58" s="22"/>
-      <c r="AK58" s="22"/>
-      <c r="AL58" s="22"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ58" s="58"/>
+      <c r="AK58" s="21"/>
+      <c r="AL58" s="53"/>
+    </row>
+    <row r="59" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47">
         <v>46</v>
       </c>
-      <c r="B59" s="20" t="s">
-        <v>54</v>
+      <c r="B59" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" s="47">
+        <v>179</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="50">
         <v>1</v>
       </c>
-      <c r="F59" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="49"/>
+      <c r="F59" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H59" s="49"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
-      <c r="K59" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="L59" s="50" t="s">
-        <v>377</v>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
@@ -9843,236 +9799,276 @@
       <c r="AG59" s="22"/>
       <c r="AH59" s="22"/>
       <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22"/>
+      <c r="AJ59" s="58"/>
+      <c r="AK59" s="21"/>
+      <c r="AL59" s="53"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="47">
         <v>47</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>54</v>
+      <c r="B60" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>280</v>
-      </c>
-      <c r="E60" s="47">
+        <v>33</v>
+      </c>
+      <c r="D60" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="E60" s="50">
         <v>1</v>
       </c>
-      <c r="F60" s="47" t="s">
-        <v>60</v>
+      <c r="F60" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="G60" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="L60" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
+        <v>345</v>
+      </c>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
       <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="59"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="22"/>
-      <c r="AJ60" s="22"/>
-      <c r="AK60" s="22"/>
-      <c r="AL60" s="22"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" s="53"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="53"/>
+      <c r="AD60" s="53"/>
+      <c r="AE60" s="53"/>
+      <c r="AF60" s="53"/>
+      <c r="AG60" s="53"/>
+      <c r="AH60" s="53"/>
+      <c r="AI60" s="53"/>
+      <c r="AJ60" s="53"/>
+      <c r="AK60" s="53"/>
+      <c r="AL60" s="53"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="47">
         <v>48</v>
       </c>
-      <c r="B61" s="20" t="s">
-        <v>54</v>
+      <c r="B61" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="E61" s="47">
+        <v>59</v>
+      </c>
+      <c r="D61" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="E61" s="50">
         <v>1</v>
       </c>
-      <c r="F61" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
+      <c r="F61" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
       <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="59"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="53"/>
+      <c r="Z61" s="53"/>
+      <c r="AA61" s="53"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="53"/>
+      <c r="AD61" s="53"/>
+      <c r="AE61" s="53"/>
+      <c r="AF61" s="53"/>
+      <c r="AG61" s="53"/>
+      <c r="AH61" s="53"/>
+      <c r="AI61" s="53"/>
+      <c r="AJ61" s="53"/>
+      <c r="AK61" s="53"/>
+      <c r="AL61" s="64"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="47">
         <v>49</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>255</v>
+        <v>29</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="E62" s="49">
+        <v>2</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="L62" s="49"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="P62" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q62" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22">
+        <v>3</v>
+      </c>
+      <c r="U62" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="V62" s="24">
+        <v>8</v>
+      </c>
+      <c r="W62" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22">
         <v>1</v>
       </c>
-      <c r="F62" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="J62" s="50" t="s">
-        <v>366</v>
-      </c>
-      <c r="K62" s="38"/>
-      <c r="L62" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="M62" s="22"/>
-      <c r="N62" s="53">
-        <v>2.5</v>
-      </c>
-      <c r="O62" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="V62" s="53"/>
-      <c r="W62" s="53"/>
-      <c r="X62" s="53"/>
-      <c r="Y62" s="53"/>
-      <c r="Z62" s="53"/>
-      <c r="AA62" s="53"/>
-      <c r="AB62" s="53"/>
-      <c r="AC62" s="53"/>
-      <c r="AD62" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE62" s="53"/>
-      <c r="AF62" s="53"/>
-      <c r="AG62" s="53"/>
-      <c r="AH62" s="53"/>
-      <c r="AI62" s="53"/>
-      <c r="AJ62" s="53"/>
-      <c r="AK62" s="53"/>
+      <c r="AC62" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="AD62" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE62" s="59"/>
+      <c r="AF62" s="22"/>
+      <c r="AG62" s="22"/>
+      <c r="AH62" s="22"/>
+      <c r="AI62" s="22"/>
+      <c r="AJ62" s="58"/>
+      <c r="AK62" s="21"/>
       <c r="AL62" s="53"/>
     </row>
-    <row r="63" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="47">
         <v>50</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>188</v>
+      <c r="B63" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="E63" s="50">
-        <v>1</v>
+        <v>173</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" s="49">
+        <v>2</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="G63" s="49"/>
+        <v>187</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>374</v>
+      </c>
       <c r="H63" s="49"/>
-      <c r="I63" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="J63" s="73" t="s">
-        <v>368</v>
-      </c>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
       <c r="K63" s="49" t="s">
-        <v>367</v>
+        <v>187</v>
       </c>
       <c r="L63" s="49"/>
       <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="59"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="P63" s="20">
+        <f>N63*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20">
+        <v>6</v>
+      </c>
+      <c r="U63" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="V63" s="20">
+        <v>6</v>
+      </c>
+      <c r="W63" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="Z63" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AA63" s="20">
+        <f>Y63*0.25</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB63" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE63" s="22"/>
       <c r="AF63" s="22"/>
       <c r="AG63" s="22"/>
       <c r="AH63" s="22"/>
@@ -10081,38 +10077,40 @@
       <c r="AK63" s="21"/>
       <c r="AL63" s="53"/>
     </row>
-    <row r="64" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="47">
         <v>51</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="E64" s="50">
-        <v>1</v>
+      <c r="D64" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="49">
+        <v>2</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="G64" s="49" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H64" s="49"/>
-      <c r="I64" s="49" t="s">
-        <v>291</v>
-      </c>
+      <c r="I64" s="49"/>
       <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
+      <c r="K64" s="49" t="s">
+        <v>208</v>
+      </c>
       <c r="L64" s="49"/>
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
-      <c r="O64" s="57"/>
+      <c r="O64" s="57" t="s">
+        <v>211</v>
+      </c>
       <c r="P64" s="22"/>
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
@@ -10128,45 +10126,49 @@
       <c r="AB64" s="22"/>
       <c r="AC64" s="22"/>
       <c r="AD64" s="22"/>
-      <c r="AE64" s="59"/>
+      <c r="AE64" s="22"/>
       <c r="AF64" s="22"/>
       <c r="AG64" s="22"/>
       <c r="AH64" s="22"/>
       <c r="AI64" s="22"/>
-      <c r="AJ64" s="58"/>
-      <c r="AK64" s="21"/>
-      <c r="AL64" s="53"/>
-    </row>
-    <row r="65" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ64" s="22"/>
+      <c r="AK64" s="22"/>
+      <c r="AL64" s="22"/>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="47">
         <v>52</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="20" t="s">
+      <c r="B65" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="E65" s="50">
-        <v>1</v>
+      <c r="D65" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="E65" s="49">
+        <v>2</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="G65" s="49"/>
+        <v>187</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H65" s="49"/>
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49" t="s">
-        <v>294</v>
-      </c>
+      <c r="K65" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="L65" s="49"/>
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
-      <c r="O65" s="57"/>
+      <c r="O65" s="57" t="s">
+        <v>310</v>
+      </c>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
@@ -10182,44 +10184,46 @@
       <c r="AB65" s="22"/>
       <c r="AC65" s="22"/>
       <c r="AD65" s="22"/>
-      <c r="AE65" s="59"/>
+      <c r="AE65" s="22"/>
       <c r="AF65" s="22"/>
       <c r="AG65" s="22"/>
       <c r="AH65" s="22"/>
       <c r="AI65" s="22"/>
-      <c r="AJ65" s="58"/>
-      <c r="AK65" s="21"/>
-      <c r="AL65" s="53"/>
+      <c r="AJ65" s="22"/>
+      <c r="AK65" s="22"/>
+      <c r="AL65" s="22"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="47">
         <v>53</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="E66" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
+        <v>282</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="H66" s="55" t="s">
+        <v>232</v>
+      </c>
       <c r="I66" s="50" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="J66" s="50"/>
       <c r="K66" s="50"/>
-      <c r="L66" s="50" t="s">
-        <v>290</v>
-      </c>
+      <c r="L66" s="50"/>
       <c r="M66" s="53"/>
       <c r="N66" s="53"/>
       <c r="O66" s="53"/>
@@ -10245,35 +10249,37 @@
       <c r="AI66" s="53"/>
       <c r="AJ66" s="53"/>
       <c r="AK66" s="53"/>
-      <c r="AL66" s="53"/>
+      <c r="AL66" s="64"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="47">
         <v>54</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="D67" s="60" t="s">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="E67" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50" t="s">
-        <v>233</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G67" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H67" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="I67" s="50"/>
       <c r="J67" s="50"/>
       <c r="K67" s="50"/>
-      <c r="L67" s="51"/>
+      <c r="L67" s="50"/>
       <c r="M67" s="53"/>
       <c r="N67" s="53"/>
       <c r="O67" s="53"/>
@@ -10299,212 +10305,166 @@
       <c r="AI67" s="53"/>
       <c r="AJ67" s="53"/>
       <c r="AK67" s="53"/>
-      <c r="AL67" s="66"/>
+      <c r="AL67" s="64"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="47">
         <v>55</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>29</v>
+      <c r="B68" s="20" t="s">
+        <v>326</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="E68" s="49">
-        <v>2</v>
-      </c>
-      <c r="F68" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="L68" s="49"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="P68" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q68" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22">
+        <v>327</v>
+      </c>
+      <c r="D68" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="E68" s="20">
         <v>3</v>
       </c>
-      <c r="U68" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="V68" s="24">
-        <v>8</v>
-      </c>
-      <c r="W68" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
+      <c r="F68" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
       <c r="AA68" s="22"/>
-      <c r="AB68" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC68" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="AD68" s="22" t="s">
-        <v>37</v>
-      </c>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="22"/>
       <c r="AE68" s="59"/>
       <c r="AF68" s="22"/>
       <c r="AG68" s="22"/>
       <c r="AH68" s="22"/>
       <c r="AI68" s="22"/>
-      <c r="AJ68" s="58"/>
-      <c r="AK68" s="21"/>
-      <c r="AL68" s="53"/>
+      <c r="AJ68" s="22"/>
+      <c r="AK68" s="22"/>
+      <c r="AL68" s="22"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="47">
         <v>56</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>29</v>
+        <v>326</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="E69" s="49">
-        <v>2</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="L69" s="49"/>
-      <c r="M69" s="22"/>
+        <v>327</v>
+      </c>
+      <c r="D69" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" s="20">
+        <v>3</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
       <c r="N69" s="20"/>
-      <c r="O69" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="P69" s="20">
-        <f>N69*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="20">
-        <v>0.75</v>
-      </c>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
       <c r="R69" s="20"/>
       <c r="S69" s="20"/>
-      <c r="T69" s="20">
-        <v>6</v>
-      </c>
-      <c r="U69" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="V69" s="20">
-        <v>6</v>
-      </c>
-      <c r="W69" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="Z69" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="AA69" s="20">
-        <f>Y69*0.25</f>
-        <v>0.125</v>
-      </c>
-      <c r="AB69" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC69" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD69" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="59"/>
       <c r="AF69" s="22"/>
       <c r="AG69" s="22"/>
       <c r="AH69" s="22"/>
       <c r="AI69" s="22"/>
-      <c r="AJ69" s="58"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="53"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="47">
         <v>57</v>
       </c>
-      <c r="B70" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E70" s="49">
-        <v>2</v>
+      <c r="B70" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D70" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="E70" s="20">
+        <v>1</v>
       </c>
       <c r="F70" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="L70" s="49"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
+      <c r="G70" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
       <c r="T70" s="22"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="69"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
       <c r="AA70" s="22"/>
       <c r="AB70" s="22"/>
       <c r="AC70" s="22"/>
       <c r="AD70" s="22"/>
-      <c r="AE70" s="22"/>
+      <c r="AE70" s="59"/>
       <c r="AF70" s="22"/>
       <c r="AG70" s="22"/>
       <c r="AH70" s="22"/>
@@ -10517,52 +10477,48 @@
       <c r="A71" s="47">
         <v>58</v>
       </c>
-      <c r="B71" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>376</v>
+      <c r="B71" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D71" s="71" t="s">
+        <v>375</v>
       </c>
       <c r="E71" s="49">
-        <v>2</v>
-      </c>
-      <c r="F71" s="49" t="s">
-        <v>187</v>
+        <v>3</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="G71" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="L71" s="49"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="22"/>
+        <v>345</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
       <c r="T71" s="22"/>
-      <c r="U71" s="22"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="22"/>
-      <c r="Z71" s="22"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="69"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
       <c r="AA71" s="22"/>
       <c r="AB71" s="22"/>
       <c r="AC71" s="22"/>
       <c r="AD71" s="22"/>
-      <c r="AE71" s="22"/>
+      <c r="AE71" s="59"/>
       <c r="AF71" s="22"/>
       <c r="AG71" s="22"/>
       <c r="AH71" s="22"/>
@@ -10575,141 +10531,133 @@
       <c r="A72" s="47">
         <v>59</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>241</v>
+      <c r="B72" s="20" t="s">
+        <v>326</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D72" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="E72" s="50">
-        <v>2</v>
-      </c>
-      <c r="F72" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="G72" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="H72" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="I72" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="53"/>
-      <c r="S72" s="53"/>
+        <v>327</v>
+      </c>
+      <c r="D72" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="E72" s="49">
+        <v>3</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G72" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
       <c r="T72" s="22"/>
-      <c r="U72" s="53"/>
-      <c r="V72" s="53"/>
-      <c r="W72" s="53"/>
-      <c r="X72" s="53"/>
-      <c r="Y72" s="53"/>
-      <c r="Z72" s="53"/>
-      <c r="AA72" s="53"/>
-      <c r="AB72" s="53"/>
-      <c r="AC72" s="53"/>
-      <c r="AD72" s="53"/>
-      <c r="AE72" s="53"/>
-      <c r="AF72" s="53"/>
-      <c r="AG72" s="53"/>
-      <c r="AH72" s="53"/>
-      <c r="AI72" s="53"/>
-      <c r="AJ72" s="53"/>
-      <c r="AK72" s="53"/>
-      <c r="AL72" s="66"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="69"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="22"/>
+      <c r="AC72" s="22"/>
+      <c r="AD72" s="22"/>
+      <c r="AE72" s="59"/>
+      <c r="AF72" s="22"/>
+      <c r="AG72" s="22"/>
+      <c r="AH72" s="22"/>
+      <c r="AI72" s="22"/>
+      <c r="AJ72" s="22"/>
+      <c r="AK72" s="22"/>
+      <c r="AL72" s="22"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="47">
         <v>60</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>241</v>
+      <c r="B73" s="20" t="s">
+        <v>326</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D73" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="E73" s="50">
-        <v>2</v>
-      </c>
-      <c r="F73" s="50" t="s">
-        <v>288</v>
+        <v>327</v>
+      </c>
+      <c r="D73" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="E73" s="49">
+        <v>3</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="G73" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="H73" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="53"/>
+        <v>345</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
       <c r="T73" s="22"/>
-      <c r="U73" s="53"/>
-      <c r="V73" s="53"/>
-      <c r="W73" s="53"/>
-      <c r="X73" s="53"/>
-      <c r="Y73" s="53"/>
-      <c r="Z73" s="53"/>
-      <c r="AA73" s="53"/>
-      <c r="AB73" s="53"/>
-      <c r="AC73" s="53"/>
-      <c r="AD73" s="53"/>
-      <c r="AE73" s="53"/>
-      <c r="AF73" s="53"/>
-      <c r="AG73" s="53"/>
-      <c r="AH73" s="53"/>
-      <c r="AI73" s="53"/>
-      <c r="AJ73" s="53"/>
-      <c r="AK73" s="53"/>
-      <c r="AL73" s="66"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="69"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="22"/>
+      <c r="AB73" s="22"/>
+      <c r="AC73" s="22"/>
+      <c r="AD73" s="22"/>
+      <c r="AE73" s="59"/>
+      <c r="AF73" s="22"/>
+      <c r="AG73" s="22"/>
+      <c r="AH73" s="22"/>
+      <c r="AI73" s="22"/>
+      <c r="AJ73" s="22"/>
+      <c r="AK73" s="22"/>
+      <c r="AL73" s="22"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="47">
         <v>61</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="D74" s="70" t="s">
-        <v>334</v>
-      </c>
-      <c r="E74" s="20">
-        <v>2</v>
+        <v>327</v>
+      </c>
+      <c r="D74" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="E74" s="49">
+        <v>3</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G74" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>335</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="H74" s="20"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
       <c r="K74" s="20"/>
@@ -10724,7 +10672,7 @@
       <c r="T74" s="22"/>
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
-      <c r="W74" s="20"/>
+      <c r="W74" s="69"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
@@ -10746,81 +10694,47 @@
         <v>62</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="D75" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="E75" s="20">
-        <v>2</v>
+        <v>327</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="E75" s="49">
+        <v>1</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G75" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="H75" s="20" t="s">
-        <v>335</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="H75" s="20"/>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
-      <c r="N75" s="20">
-        <f>SUM(N13:N74)</f>
-        <v>28</v>
-      </c>
+      <c r="N75" s="20"/>
       <c r="O75" s="20"/>
-      <c r="P75" s="20">
-        <f>SUM(P25:P74)</f>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="20">
-        <f>SUM(Q25:Q74)*1.5</f>
-        <v>1.125</v>
-      </c>
-      <c r="R75" s="20">
-        <f>SUM(R25:R74)</f>
-        <v>0</v>
-      </c>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
       <c r="S75" s="20"/>
-      <c r="T75" s="24">
-        <f>SUM(T13:T74)*1.5</f>
-        <v>30</v>
-      </c>
+      <c r="T75" s="22"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="24">
-        <f>SUM(V13:V74)*1.5</f>
-        <v>42</v>
-      </c>
-      <c r="W75" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z75" s="20">
-        <f>SUM(Z13:Z74)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AA75" s="22">
-        <f>SUM(AA13:AA74)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AB75" s="22">
-        <f>SUM(AB13:AB74)</f>
-        <v>4</v>
-      </c>
-      <c r="AC75" s="22">
-        <f>SUM(AC13:AC74)*1.3</f>
-        <v>11.05</v>
-      </c>
+      <c r="V75" s="20"/>
+      <c r="W75" s="69"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="22"/>
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="22"/>
       <c r="AD75" s="22"/>
-      <c r="AE75" s="59" t="s">
-        <v>48</v>
-      </c>
+      <c r="AE75" s="59"/>
       <c r="AF75" s="22"/>
       <c r="AG75" s="22"/>
       <c r="AH75" s="22"/>
@@ -10829,26 +10743,28 @@
       <c r="AK75" s="22"/>
       <c r="AL75" s="22"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="32" x14ac:dyDescent="0.25">
       <c r="A76" s="47">
         <v>63</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="D76" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="E76" s="20">
+        <v>327</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="E76" s="49">
         <v>1</v>
       </c>
-      <c r="F76" s="49" t="s">
+      <c r="F76" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="G76" s="20"/>
+      <c r="G76" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
@@ -10861,10 +10777,12 @@
       <c r="Q76" s="20"/>
       <c r="R76" s="20"/>
       <c r="S76" s="20"/>
-      <c r="T76" s="24"/>
+      <c r="T76" s="22"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="24"/>
-      <c r="W76" s="71"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="22"/>
       <c r="AB76" s="22"/>
@@ -10880,37 +10798,71 @@
       <c r="AL76" s="22"/>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A77" s="47">
-        <v>64</v>
-      </c>
+      <c r="A77" s="47"/>
       <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
+      <c r="N77" s="20">
+        <f>SUM(N13:N76)</f>
+        <v>28</v>
+      </c>
       <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
+      <c r="P77" s="20">
+        <f>SUM(P25:P76)</f>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="20">
+        <f>SUM(Q14:Q76)*1.5</f>
+        <v>1.125</v>
+      </c>
+      <c r="R77" s="20">
+        <f>SUM(R25:R76)</f>
+        <v>0</v>
+      </c>
       <c r="S77" s="20"/>
-      <c r="T77" s="24"/>
+      <c r="T77" s="24">
+        <f>SUM(T13:T76)*1.5</f>
+        <v>30</v>
+      </c>
       <c r="U77" s="20"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="71"/>
-      <c r="Z77" s="20"/>
-      <c r="AA77" s="22"/>
-      <c r="AB77" s="22"/>
-      <c r="AC77" s="22"/>
+      <c r="V77" s="24">
+        <f>SUM(V13:V76)*1.5</f>
+        <v>42</v>
+      </c>
+      <c r="W77" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="20">
+        <f>SUM(Z13:Z68)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA77" s="22">
+        <f>SUM(AA13:AA68)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB77" s="22">
+        <f>SUM(AB13:AB68)</f>
+        <v>4</v>
+      </c>
+      <c r="AC77" s="22">
+        <f>SUM(AC13:AC68)*1.3</f>
+        <v>11.05</v>
+      </c>
       <c r="AD77" s="22"/>
-      <c r="AE77" s="59"/>
+      <c r="AE77" s="59" t="s">
+        <v>48</v>
+      </c>
       <c r="AF77" s="22"/>
       <c r="AG77" s="22"/>
       <c r="AH77" s="22"/>
@@ -10919,703 +10871,918 @@
       <c r="AK77" s="22"/>
       <c r="AL77" s="22"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="71"/>
-      <c r="Z78" s="20"/>
-      <c r="AA78" s="22"/>
-      <c r="AB78" s="22"/>
-      <c r="AC78" s="22"/>
-      <c r="AD78" s="22"/>
-      <c r="AE78" s="59"/>
-      <c r="AF78" s="22"/>
-      <c r="AG78" s="22"/>
-      <c r="AH78" s="22"/>
-      <c r="AI78" s="22"/>
-      <c r="AJ78" s="22"/>
-      <c r="AK78" s="22"/>
-      <c r="AL78" s="22"/>
-    </row>
-    <row r="79" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="V79" s="20"/>
-      <c r="W79" s="20"/>
-      <c r="X79" s="20"/>
-      <c r="Y79" s="20"/>
-      <c r="Z79" s="20"/>
-      <c r="AA79" s="22"/>
-      <c r="AB79" s="22"/>
-      <c r="AC79" s="22"/>
-      <c r="AD79" s="22"/>
-      <c r="AE79" s="59"/>
-      <c r="AF79" s="22"/>
-      <c r="AG79" s="22"/>
-      <c r="AH79" s="22"/>
-      <c r="AI79" s="22"/>
-      <c r="AJ79" s="22"/>
-      <c r="AK79" s="22"/>
-      <c r="AL79" s="22"/>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="74"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:AR79"/>
+  <autoFilter ref="A13:AR76"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Z75:Z78 H79:Z79 H75:W78 AA74:AL79 H74:Z74 P3:S8 F7:F8 D12 H12:M12 A13:AL13 P10:S11 F10:F11 B73:C73 L25:AL25 B72:G72 H72:AL73 L62:AL62 K24:AL24 B63:H63 J63:AL63 B62:J62 K54:AL54 M60:AL60 G61:AL61 H58:I58 G59:I59 B57:F61 B20:G20 B38:H39 J38:S39 I20:S20 B43:I43 B14:I16 B17:J17 B18:I19 H31 B68:J68 L68:AL68 L14:AL14 L15:T19 B21:S21 T20:T21 B40:S40 W27:AL31 T27:V32 B41:AL42 K43:AL46 U15:AL22 B45:I45 B44:G44 I44 B22:F27 H25:J25 F28:F32 L29:S29 J29 B28:E31 B33:F34 T33:AL40 B35:S37 I34:S34 H33:I33 H26:AL26 H29:I30 H27:H28 H24:I24 H57:AL57 K58:AL59 H22:T22 H23:AL23 K30:S31 K33:S33 J27:S28 B47:AL53 B54:I54 B55:AL56 G57:G58 G60:J60 B46:J46 B64:AL67 B69:AL71 E73:H73 B74:G79">
-    <cfRule type="cellIs" dxfId="228" priority="219" operator="equal">
+  <conditionalFormatting sqref="P3:S8 F7:F8 D12 H12:M12 A13:AL13 P10:S11 F10:F11 B67:C67 L25:AL25 B66:G66 L56:AL56 K24:AL24 J57:AL57 K48:AL48 M54:AL54 H55:AL55 H52:I52 G53:I53 B51:F57 I20:S20 H31 L62:AL62 L14:AL14 L15:T19 T20:T21 W27:AL31 T27:V32 K37:AL40 U15:AL22 I38 H25:J25 F28:F32 L29:S29 J29 B28:E31 B33:F34 T33:AL35 B35:S35 I34:S34 H33:I33 H26:AL26 H29:I30 H27:H28 H24:I24 H51:AL51 K52:AL53 H22:T22 H23:AL23 K30:S31 K33:S33 J27:S28 B48:I48 B49:AL50 G54:J54 E67:H67 H14:I16 H17:J17 B14:F27 H18:I19 H21:S21 B36:F40 H36:AL36 H37:I37 H39:I39 H40:J40 G51:G53 B41:AL41 B43:AL47 B42:F42 H42:AL42 H56:J56 H57 G55:G57 H63:AL63 H62:J62 B62:G63 B64:AL65 B58:AL61 B68:G68 H66:AL68 B70:G70 D77:AL77 H70:AL76 B69:AL69 B71:C77 F71:G76">
+    <cfRule type="cellIs" dxfId="6" priority="289" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55 L25:N25 P47:P48 E47:E48 F24 F69 F63:F65 E21 P14:P19 P62 P21 V20:AD20 P20:S20 E20:G20 E38:H39 J38:N39 I20:N20 E40:N40 V25:AD26 P25:T26 E25:F27 E28:E31 H31 P27:S31 W27:AD31 T27:T32 U26:V32 H25:J25 F28:F32 L29:N29 J29 E33:F34 P33:AD40 E35:N37 I34:N34 H33:I33 H29:I30 H26:N26 H27:H28 K30:N31 K33:N33 J27:N28 E41:F46">
-    <cfRule type="cellIs" dxfId="227" priority="221" operator="equal">
+  <conditionalFormatting sqref="F49 L25:N25 P41:P42 E41:E42 F24 F63 F57:F59 E21 P14:P19 P56 P21 V20:AD20 P20:S20 E20:F20 I20:N20 V25:AD26 P25:T26 E25:F27 E28:E31 H31 P27:S31 W27:AD31 T27:T32 U26:V32 H25:J25 F28:F32 L29:N29 J29 E33:F34 P33:AD35 E35:N35 I34:N34 H33:I33 H29:I30 H26:N26 H27:H28 K30:N31 K33:N33 J27:N28 E36:F40 G69:G76">
+    <cfRule type="cellIs" dxfId="207" priority="291" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="222" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="206" priority="292" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ52:AJ55 F55 AJ13 I2:I6 L25:N25 P47:P48 E47:E48 F24 F63:F65 F69 AJ63:AJ65 E21 AJ68:AJ69 P14:P19 P62 P21 V20:AD20 P20:S20 E20:G20 E38:H39 J38:N39 I20:N20 E40:N40 V25:AD26 P25:T26 E25:F27 AJ20:AJ31 E28:E31 H31 P27:S31 W27:AD31 T27:T32 U26:V32 H25:J25 F28:F32 L29:N29 J29 AJ33:AJ48 E33:F34 P33:AD40 E35:N37 I34:N34 H33:I33 H29:I30 H26:N26 H27:H28 K30:N31 K33:N33 J27:N28 E41:F46">
-    <cfRule type="cellIs" dxfId="225" priority="220" operator="equal">
+  <conditionalFormatting sqref="AJ46:AJ49 F49 AJ13 I2:I6 L25:N25 P41:P42 E41:E42 F24 F57:F59 F63 AJ57:AJ59 E21 AJ62:AJ63 P14:P19 P56 P21 V20:AD20 P20:S20 E20:F20 I20:N20 V25:AD26 P25:T26 E25:F27 AJ20:AJ31 E28:E31 H31 P27:S31 W27:AD31 T27:T32 U26:V32 H25:J25 F28:F32 L29:N29 J29 E33:F34 P33:AD35 E35:N35 I34:N34 H33:I33 H29:I30 H26:N26 H27:H28 K30:N31 K33:N33 J27:N28 E36:F40 AJ33:AJ42 G69:G76">
+    <cfRule type="cellIs" dxfId="205" priority="290" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="224" priority="149" operator="equal">
+  <conditionalFormatting sqref="K37">
+    <cfRule type="cellIs" dxfId="204" priority="219" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="150" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="222" priority="148" operator="equal">
+    <cfRule type="containsText" dxfId="203" priority="220" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
+    <cfRule type="cellIs" dxfId="202" priority="218" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K46">
-    <cfRule type="cellIs" dxfId="221" priority="146" operator="equal">
+  <conditionalFormatting sqref="K38:K40">
+    <cfRule type="cellIs" dxfId="201" priority="216" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="147" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K46">
-    <cfRule type="cellIs" dxfId="219" priority="145" operator="equal">
+    <cfRule type="containsText" dxfId="200" priority="217" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:K40">
+    <cfRule type="cellIs" dxfId="199" priority="215" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="218" priority="143" operator="equal">
+  <conditionalFormatting sqref="L40">
+    <cfRule type="cellIs" dxfId="198" priority="213" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="144" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",L46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="216" priority="142" operator="equal">
+    <cfRule type="containsText" dxfId="197" priority="214" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",L40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="cellIs" dxfId="196" priority="212" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="195" priority="211" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:E32 H32:I32 L32:S32 W32:AL32">
+    <cfRule type="cellIs" dxfId="194" priority="207" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32 P32:S32 W32:AD32 H32:I32 L32:N32">
+    <cfRule type="cellIs" dxfId="193" priority="209" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="210" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32 AJ32 P32:S32 W32:AD32 H32:I32 L32:N32">
+    <cfRule type="cellIs" dxfId="191" priority="208" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="cellIs" dxfId="190" priority="198" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="cellIs" dxfId="189" priority="197" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="188" priority="196" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37 J39">
+    <cfRule type="cellIs" dxfId="187" priority="195" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="186" priority="191" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="185" priority="193" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="194" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="183" priority="192" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="181" priority="185" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="186" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="179" priority="184" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="cellIs" dxfId="177" priority="181" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="182" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="cellIs" dxfId="175" priority="180" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="cellIs" dxfId="174" priority="175" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="cellIs" dxfId="173" priority="177" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="178" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="cellIs" dxfId="171" priority="176" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="cellIs" dxfId="170" priority="173" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="174" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="cellIs" dxfId="168" priority="172" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="cellIs" dxfId="167" priority="170" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="171" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="cellIs" dxfId="165" priority="169" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="164" priority="165" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="163" priority="167" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="168" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="161" priority="166" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="cellIs" dxfId="160" priority="164" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="159" priority="160" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="158" priority="162" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="163" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="156" priority="161" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="155" priority="156" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="152" priority="157" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="151" priority="155" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="150" priority="151" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="149" priority="153" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="154" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="147" priority="152" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I28">
+    <cfRule type="cellIs" dxfId="146" priority="147" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I28">
+    <cfRule type="cellIs" dxfId="145" priority="149" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="150" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",I27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I28">
+    <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="142" priority="142" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="cellIs" dxfId="141" priority="138" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="cellIs" dxfId="140" priority="140" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="141" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="cellIs" dxfId="138" priority="139" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="137" priority="137" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="136" priority="133" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="135" priority="135" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G33">
+    <cfRule type="cellIs" dxfId="132" priority="129" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G33">
+    <cfRule type="cellIs" dxfId="131" priority="131" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="132" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G33">
+    <cfRule type="cellIs" dxfId="129" priority="130" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="128" priority="125" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="127" priority="127" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="128" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="125" priority="126" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J53">
+    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="cellIs" dxfId="123" priority="123" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="121" priority="118" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="117" priority="114" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="113" priority="110" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:G47">
+    <cfRule type="cellIs" dxfId="109" priority="105" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="106" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:G47">
+    <cfRule type="cellIs" dxfId="107" priority="104" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="103" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="103" priority="99" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="100" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="101" priority="98" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="100" priority="96" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="97" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="98" priority="95" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="94" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:G53">
+    <cfRule type="cellIs" dxfId="94" priority="90" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="91" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:G53">
+    <cfRule type="cellIs" dxfId="92" priority="89" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G57">
+    <cfRule type="cellIs" dxfId="91" priority="87" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="88" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G57">
+    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:G59">
+    <cfRule type="cellIs" dxfId="88" priority="84" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="85" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:G59">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="82" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="79" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="80" priority="77" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68">
+    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="76" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68">
+    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="75" priority="69" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="70" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="73" priority="68" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="71" priority="65" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="66" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="69" priority="64" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="68" priority="59" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="67" priority="61" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="65" priority="60" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="64" priority="55" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="54" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="51" priority="45" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="42" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="40" priority="31" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",G60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74 E71:E75 D76:E76">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E76">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E76">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="215" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:E32 H32:I32 I38:I39 L32:S32 W32:AL32">
-    <cfRule type="cellIs" dxfId="214" priority="137" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32 P32:S32 W32:AD32 H32:I32 I38:I39 L32:N32">
-    <cfRule type="cellIs" dxfId="213" priority="139" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="140" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32 AJ32 P32:S32 W32:AD32 H32:I32 I38:I39 L32:N32">
-    <cfRule type="cellIs" dxfId="211" priority="138" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="cellIs" dxfId="210" priority="128" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="209" priority="127" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="208" priority="126" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43 J45">
-    <cfRule type="cellIs" dxfId="207" priority="125" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="206" priority="121" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="205" priority="123" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="124" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="203" priority="122" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="202" priority="113" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="201" priority="115" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="116" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="199" priority="114" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="198" priority="109" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="197" priority="111" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="112" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="195" priority="110" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="194" priority="105" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="193" priority="107" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="108" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="191" priority="106" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="190" priority="103" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="104" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="188" priority="102" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="187" priority="100" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="101" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="185" priority="99" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="184" priority="95" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="183" priority="97" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="98" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="181" priority="96" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="180" priority="94" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="179" priority="90" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="178" priority="92" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="93" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",J18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="176" priority="91" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="175" priority="86" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="174" priority="88" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="89" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",J32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="172" priority="87" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="171" priority="85" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="170" priority="81" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="169" priority="83" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="84" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="167" priority="82" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I28">
-    <cfRule type="cellIs" dxfId="166" priority="77" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I28">
-    <cfRule type="cellIs" dxfId="165" priority="79" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="80" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",I27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I28">
-    <cfRule type="cellIs" dxfId="163" priority="78" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="162" priority="72" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="161" priority="68" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="160" priority="70" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="71" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",J30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="158" priority="69" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="156" priority="63" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="155" priority="65" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="66" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="153" priority="64" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G33">
-    <cfRule type="cellIs" dxfId="152" priority="59" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G33">
-    <cfRule type="cellIs" dxfId="151" priority="61" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="62" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G33">
-    <cfRule type="cellIs" dxfId="149" priority="60" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="148" priority="55" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="147" priority="57" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="58" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",I31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="145" priority="56" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58:J59">
-    <cfRule type="cellIs" dxfId="144" priority="54" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60">
-    <cfRule type="cellIs" dxfId="143" priority="53" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="142" priority="52" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="141" priority="48" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="139" priority="50" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="51" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",J33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="135" priority="49" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="129" priority="44" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="127" priority="46" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="47" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="123" priority="45" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="109" priority="40" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="107" priority="42" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="43" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="103" priority="41" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="96" priority="38" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="39" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="92" priority="37" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="36" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="85" priority="34" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="82" priority="32" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="33" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="78" priority="31" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="75" priority="29" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="30" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="71" priority="28" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="64" priority="25" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="61" priority="23" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="24" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="57" priority="22" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="18" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11627,11 +11794,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1"/>
     <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
@@ -11644,85 +11811,85 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -11730,30 +11897,30 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>3</v>
       </c>
@@ -11761,15 +11928,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>5</v>
       </c>
@@ -11777,31 +11944,31 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.3">
@@ -11809,32 +11976,32 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="25" t="s">
         <v>64</v>
       </c>
@@ -11842,23 +12009,23 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G44" s="27"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>197</v>
       </c>
@@ -11866,12 +12033,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>73</v>
       </c>
@@ -11879,7 +12046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>68</v>
       </c>
@@ -11887,7 +12054,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>69</v>
       </c>
@@ -11895,7 +12062,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>205</v>
       </c>
@@ -11957,7 +12124,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12" t="s">
@@ -11968,7 +12135,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12" t="s">
@@ -11979,7 +12146,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
         <v>122</v>
       </c>
@@ -11988,7 +12155,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>123</v>
       </c>
@@ -11997,7 +12164,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
         <v>124</v>
       </c>
@@ -12008,7 +12175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>125</v>
       </c>
@@ -12017,7 +12184,7 @@
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
         <v>126</v>
       </c>
@@ -12028,7 +12195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
         <v>127</v>
       </c>
@@ -12037,7 +12204,7 @@
       </c>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
         <v>128</v>
       </c>
@@ -12046,7 +12213,7 @@
       </c>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
         <v>129</v>
       </c>
@@ -12055,7 +12222,7 @@
       </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>130</v>
       </c>
@@ -12066,7 +12233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
         <v>131</v>
       </c>
@@ -12075,7 +12242,7 @@
       </c>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>133</v>
       </c>
@@ -12084,7 +12251,7 @@
       </c>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>134</v>
       </c>
@@ -12093,7 +12260,7 @@
       </c>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>135</v>
       </c>
@@ -12104,7 +12271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
         <v>136</v>
       </c>
@@ -12113,7 +12280,7 @@
       </c>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
         <v>137</v>
       </c>
@@ -12122,7 +12289,7 @@
       </c>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
         <v>138</v>
       </c>
@@ -12131,7 +12298,7 @@
       </c>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12" t="s">
@@ -12142,7 +12309,7 @@
       </c>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12" t="s">
@@ -12153,7 +12320,7 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12" t="s">
@@ -12166,7 +12333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12" t="s">
@@ -12192,7 +12359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="12" t="s">
         <v>111</v>
